--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" activeTab="3"/>
@@ -106,7 +106,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="187">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="186">
   <si>
     <t>Schema</t>
   </si>
@@ -866,9 +866,6 @@
   </si>
   <si>
     <t>Preencher com valor fixo '1'</t>
-  </si>
-  <si>
-    <t>ROUND((1 / 30) * V_QTDE_DIAS_TRAB, 2)</t>
   </si>
   <si>
     <t>DATE</t>
@@ -2071,6 +2068,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2080,15 +2095,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2128,14 +2134,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2143,6 +2164,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2152,21 +2182,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2176,34 +2197,10 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2395,7 +2392,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2418,14 +2415,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2468,7 +2465,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2491,14 +2488,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2829,7 +2826,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18">
       <c r="C2" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D2" s="19" t="s">
         <v>1</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="12" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D3" s="35" t="s">
         <v>1</v>
@@ -2845,12 +2842,12 @@
     </row>
     <row r="4" spans="2:10">
       <c r="C4" s="12" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="2:10">
       <c r="C5" s="12" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="2:10">
@@ -2871,28 +2868,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="118" t="s">
+      <c r="B9" s="121" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="119"/>
-      <c r="D9" s="119"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="119"/>
-      <c r="G9" s="119"/>
-      <c r="H9" s="119"/>
-      <c r="I9" s="119"/>
-      <c r="J9" s="120"/>
+      <c r="C9" s="122"/>
+      <c r="D9" s="122"/>
+      <c r="E9" s="122"/>
+      <c r="F9" s="122"/>
+      <c r="G9" s="122"/>
+      <c r="H9" s="122"/>
+      <c r="I9" s="122"/>
+      <c r="J9" s="123"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="121"/>
-      <c r="C10" s="122"/>
-      <c r="D10" s="122"/>
-      <c r="E10" s="122"/>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="122"/>
-      <c r="J10" s="123"/>
+      <c r="B10" s="124"/>
+      <c r="C10" s="125"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="125"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="125"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="125"/>
+      <c r="J10" s="126"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
@@ -2901,43 +2898,43 @@
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="124" t="s">
+      <c r="D11" s="127" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="124"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="124" t="s">
+      <c r="E11" s="127"/>
+      <c r="F11" s="127"/>
+      <c r="G11" s="127" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="124"/>
-      <c r="I11" s="124"/>
-      <c r="J11" s="125"/>
+      <c r="H11" s="127"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="126" t="s">
+      <c r="D12" s="129" t="s">
+        <v>113</v>
+      </c>
+      <c r="E12" s="130"/>
+      <c r="F12" s="131"/>
+      <c r="G12" s="132" t="s">
         <v>114</v>
       </c>
-      <c r="E12" s="127"/>
-      <c r="F12" s="128"/>
-      <c r="G12" s="129" t="s">
-        <v>115</v>
-      </c>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="130"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="133"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="112"/>
-      <c r="E13" s="113"/>
-      <c r="F13" s="114"/>
+      <c r="D13" s="118"/>
+      <c r="E13" s="119"/>
+      <c r="F13" s="120"/>
       <c r="G13" s="115"/>
       <c r="H13" s="116"/>
       <c r="I13" s="116"/>
@@ -2946,9 +2943,9 @@
     <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="131"/>
-      <c r="E14" s="131"/>
-      <c r="F14" s="131"/>
+      <c r="D14" s="112"/>
+      <c r="E14" s="112"/>
+      <c r="F14" s="112"/>
       <c r="G14" s="115"/>
       <c r="H14" s="116"/>
       <c r="I14" s="116"/>
@@ -2957,9 +2954,9 @@
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="131"/>
-      <c r="E15" s="131"/>
-      <c r="F15" s="131"/>
+      <c r="D15" s="112"/>
+      <c r="E15" s="112"/>
+      <c r="F15" s="112"/>
       <c r="G15" s="115"/>
       <c r="H15" s="116"/>
       <c r="I15" s="116"/>
@@ -2968,9 +2965,9 @@
     <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="131"/>
-      <c r="E16" s="131"/>
-      <c r="F16" s="131"/>
+      <c r="D16" s="112"/>
+      <c r="E16" s="112"/>
+      <c r="F16" s="112"/>
       <c r="G16" s="115"/>
       <c r="H16" s="116"/>
       <c r="I16" s="116"/>
@@ -2979,27 +2976,34 @@
     <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="131"/>
-      <c r="E17" s="131"/>
-      <c r="F17" s="131"/>
-      <c r="G17" s="132"/>
-      <c r="H17" s="132"/>
-      <c r="I17" s="132"/>
-      <c r="J17" s="133"/>
+      <c r="D17" s="112"/>
+      <c r="E17" s="112"/>
+      <c r="F17" s="112"/>
+      <c r="G17" s="113"/>
+      <c r="H17" s="113"/>
+      <c r="I17" s="113"/>
+      <c r="J17" s="114"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="131"/>
-      <c r="E18" s="131"/>
-      <c r="F18" s="131"/>
-      <c r="G18" s="132"/>
-      <c r="H18" s="132"/>
-      <c r="I18" s="132"/>
-      <c r="J18" s="133"/>
+      <c r="D18" s="112"/>
+      <c r="E18" s="112"/>
+      <c r="F18" s="112"/>
+      <c r="G18" s="113"/>
+      <c r="H18" s="113"/>
+      <c r="I18" s="113"/>
+      <c r="J18" s="114"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3010,13 +3014,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3045,7 +3042,7 @@
   <sheetData>
     <row r="2" spans="2:10" ht="18">
       <c r="C2" s="12" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D2" s="19" t="str">
         <f>Identificação!D2</f>
@@ -3054,7 +3051,7 @@
     </row>
     <row r="3" spans="2:10" ht="15">
       <c r="C3" s="12" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="35" t="str">
         <f>Identificação!D3</f>
@@ -3074,17 +3071,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="139" t="s">
+      <c r="B6" s="141" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="139"/>
-      <c r="D6" s="139"/>
-      <c r="E6" s="139"/>
-      <c r="F6" s="139"/>
-      <c r="G6" s="139"/>
-      <c r="H6" s="139"/>
-      <c r="I6" s="139"/>
-      <c r="J6" s="139"/>
+      <c r="C6" s="141"/>
+      <c r="D6" s="141"/>
+      <c r="E6" s="141"/>
+      <c r="F6" s="141"/>
+      <c r="G6" s="141"/>
+      <c r="H6" s="141"/>
+      <c r="I6" s="141"/>
+      <c r="J6" s="141"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
@@ -3093,41 +3090,41 @@
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="139" t="s">
+      <c r="D7" s="141" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="139"/>
-      <c r="F7" s="139"/>
-      <c r="G7" s="139"/>
-      <c r="H7" s="139"/>
-      <c r="I7" s="139"/>
-      <c r="J7" s="139"/>
+      <c r="E7" s="141"/>
+      <c r="F7" s="141"/>
+      <c r="G7" s="141"/>
+      <c r="H7" s="141"/>
+      <c r="I7" s="141"/>
+      <c r="J7" s="141"/>
     </row>
     <row r="8" spans="2:10">
       <c r="B8" s="79" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
+      <c r="D8" s="150"/>
+      <c r="E8" s="150"/>
+      <c r="F8" s="150"/>
+      <c r="G8" s="150"/>
+      <c r="H8" s="150"/>
+      <c r="I8" s="150"/>
+      <c r="J8" s="150"/>
     </row>
     <row r="9" spans="2:10">
       <c r="B9" s="79" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="148"/>
-      <c r="E9" s="149"/>
-      <c r="F9" s="149"/>
-      <c r="G9" s="149"/>
-      <c r="H9" s="149"/>
-      <c r="I9" s="149"/>
-      <c r="J9" s="149"/>
+      <c r="D9" s="155"/>
+      <c r="E9" s="156"/>
+      <c r="F9" s="156"/>
+      <c r="G9" s="156"/>
+      <c r="H9" s="156"/>
+      <c r="I9" s="156"/>
+      <c r="J9" s="156"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
@@ -3141,17 +3138,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="145" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="143"/>
-      <c r="D11" s="143"/>
-      <c r="E11" s="143"/>
-      <c r="F11" s="143"/>
-      <c r="G11" s="143"/>
-      <c r="H11" s="143"/>
-      <c r="I11" s="143"/>
-      <c r="J11" s="143"/>
+      <c r="C11" s="146"/>
+      <c r="D11" s="146"/>
+      <c r="E11" s="146"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="146"/>
+      <c r="H11" s="146"/>
+      <c r="I11" s="146"/>
+      <c r="J11" s="146"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
@@ -3163,51 +3160,51 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="144" t="s">
+      <c r="E12" s="152" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="146"/>
-      <c r="G12" s="144" t="s">
+      <c r="F12" s="154"/>
+      <c r="G12" s="152" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="145"/>
-      <c r="I12" s="145"/>
-      <c r="J12" s="146"/>
+      <c r="H12" s="153"/>
+      <c r="I12" s="153"/>
+      <c r="J12" s="154"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="80"/>
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E13" s="134"/>
-      <c r="F13" s="135"/>
-      <c r="G13" s="147"/>
-      <c r="H13" s="147"/>
-      <c r="I13" s="147"/>
-      <c r="J13" s="147"/>
+        <v>157</v>
+      </c>
+      <c r="E13" s="142"/>
+      <c r="F13" s="143"/>
+      <c r="G13" s="144"/>
+      <c r="H13" s="144"/>
+      <c r="I13" s="144"/>
+      <c r="J13" s="144"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="80"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="134"/>
-      <c r="F14" s="135"/>
-      <c r="G14" s="147"/>
-      <c r="H14" s="147"/>
-      <c r="I14" s="147"/>
-      <c r="J14" s="147"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="143"/>
+      <c r="G14" s="144"/>
+      <c r="H14" s="144"/>
+      <c r="I14" s="144"/>
+      <c r="J14" s="144"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="80"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="134"/>
-      <c r="F15" s="135"/>
-      <c r="G15" s="147"/>
-      <c r="H15" s="147"/>
-      <c r="I15" s="147"/>
-      <c r="J15" s="147"/>
+      <c r="E15" s="142"/>
+      <c r="F15" s="143"/>
+      <c r="G15" s="144"/>
+      <c r="H15" s="144"/>
+      <c r="I15" s="144"/>
+      <c r="J15" s="144"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="2"/>
@@ -3221,11 +3218,11 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B17" s="142" t="s">
+      <c r="B17" s="145" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="143"/>
-      <c r="D17" s="143"/>
+      <c r="C17" s="146"/>
+      <c r="D17" s="146"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="39" t="s">
@@ -3240,21 +3237,21 @@
     </row>
     <row r="19" spans="2:10">
       <c r="B19" s="9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
     </row>
     <row r="20" spans="2:10">
       <c r="B20" s="9" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
     <row r="21" spans="2:10" ht="12.75" customHeight="1">
       <c r="B21" s="9" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
@@ -3271,17 +3268,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B23" s="139" t="s">
+      <c r="B23" s="141" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="139"/>
-      <c r="D23" s="139"/>
-      <c r="E23" s="139"/>
-      <c r="F23" s="139"/>
-      <c r="G23" s="139"/>
-      <c r="H23" s="139"/>
-      <c r="I23" s="139"/>
-      <c r="J23" s="139"/>
+      <c r="C23" s="141"/>
+      <c r="D23" s="141"/>
+      <c r="E23" s="141"/>
+      <c r="F23" s="141"/>
+      <c r="G23" s="141"/>
+      <c r="H23" s="141"/>
+      <c r="I23" s="141"/>
+      <c r="J23" s="141"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="44" t="s">
@@ -3293,111 +3290,99 @@
       <c r="D24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="141" t="s">
+      <c r="E24" s="151" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="141"/>
-      <c r="G24" s="141" t="s">
+      <c r="F24" s="151"/>
+      <c r="G24" s="151" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="141"/>
-      <c r="I24" s="141"/>
-      <c r="J24" s="141"/>
+      <c r="H24" s="151"/>
+      <c r="I24" s="151"/>
+      <c r="J24" s="151"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="150"/>
-      <c r="F25" s="150"/>
-      <c r="G25" s="150"/>
-      <c r="H25" s="150"/>
-      <c r="I25" s="150"/>
-      <c r="J25" s="150"/>
+      <c r="E25" s="140"/>
+      <c r="F25" s="140"/>
+      <c r="G25" s="140"/>
+      <c r="H25" s="140"/>
+      <c r="I25" s="140"/>
+      <c r="J25" s="140"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="150"/>
-      <c r="F26" s="150"/>
-      <c r="G26" s="150"/>
-      <c r="H26" s="150"/>
-      <c r="I26" s="150"/>
-      <c r="J26" s="150"/>
+      <c r="E26" s="140"/>
+      <c r="F26" s="140"/>
+      <c r="G26" s="140"/>
+      <c r="H26" s="140"/>
+      <c r="I26" s="140"/>
+      <c r="J26" s="140"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="150"/>
-      <c r="F27" s="150"/>
-      <c r="G27" s="150"/>
-      <c r="H27" s="150"/>
-      <c r="I27" s="150"/>
-      <c r="J27" s="150"/>
+      <c r="E27" s="140"/>
+      <c r="F27" s="140"/>
+      <c r="G27" s="140"/>
+      <c r="H27" s="140"/>
+      <c r="I27" s="140"/>
+      <c r="J27" s="140"/>
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B29" s="151" t="s">
-        <v>152</v>
-      </c>
-      <c r="C29" s="152"/>
-      <c r="D29" s="152"/>
-      <c r="E29" s="152"/>
-      <c r="F29" s="152"/>
-      <c r="G29" s="152"/>
-      <c r="H29" s="152"/>
-      <c r="I29" s="152"/>
-      <c r="J29" s="153"/>
+      <c r="B29" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="C29" s="135"/>
+      <c r="D29" s="135"/>
+      <c r="E29" s="135"/>
+      <c r="F29" s="135"/>
+      <c r="G29" s="135"/>
+      <c r="H29" s="135"/>
+      <c r="I29" s="135"/>
+      <c r="J29" s="136"/>
     </row>
     <row r="30" spans="2:10">
       <c r="B30" s="88" t="s">
+        <v>152</v>
+      </c>
+      <c r="C30" s="89" t="s">
         <v>153</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="D30" s="89" t="s">
         <v>154</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="E30" s="137" t="s">
         <v>155</v>
       </c>
-      <c r="E30" s="154" t="s">
-        <v>156</v>
-      </c>
-      <c r="F30" s="155"/>
-      <c r="G30" s="154" t="s">
+      <c r="F30" s="138"/>
+      <c r="G30" s="137" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="156"/>
-      <c r="I30" s="156"/>
-      <c r="J30" s="155"/>
+      <c r="H30" s="139"/>
+      <c r="I30" s="139"/>
+      <c r="J30" s="138"/>
     </row>
     <row r="31" spans="2:10">
       <c r="B31" s="90" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C31" s="91"/>
       <c r="D31" s="92"/>
-      <c r="E31" s="134"/>
-      <c r="F31" s="135"/>
-      <c r="G31" s="136"/>
-      <c r="H31" s="137"/>
-      <c r="I31" s="137"/>
-      <c r="J31" s="138"/>
+      <c r="E31" s="142"/>
+      <c r="F31" s="143"/>
+      <c r="G31" s="147"/>
+      <c r="H31" s="148"/>
+      <c r="I31" s="148"/>
+      <c r="J31" s="149"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="B6:J6"/>
@@ -3414,6 +3399,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3453,7 +3450,7 @@
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3546,7 +3543,7 @@
         <v>4</v>
       </c>
       <c r="E3" s="49" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="F3" s="49" t="s">
         <v>5</v>
@@ -3588,7 +3585,7 @@
         <v>4</v>
       </c>
       <c r="S3" s="51" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="T3" s="51" t="s">
         <v>5</v>
@@ -3638,13 +3635,13 @@
       <c r="O4" s="62"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R4" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S4" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T4" s="74" t="s">
         <v>81</v>
@@ -3652,10 +3649,10 @@
       <c r="U4" s="61"/>
       <c r="V4" s="61"/>
       <c r="W4" s="61" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X4" s="72" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y4" s="66">
         <v>100</v>
@@ -3663,7 +3660,7 @@
       <c r="Z4" s="66"/>
       <c r="AA4" s="58"/>
       <c r="AB4" s="62" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="AC4" s="66"/>
     </row>
@@ -3686,13 +3683,13 @@
       <c r="O5" s="62"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R5" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S5" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T5" s="74" t="s">
         <v>86</v>
@@ -3700,10 +3697,10 @@
       <c r="U5" s="61"/>
       <c r="V5" s="61"/>
       <c r="W5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X5" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y5" s="66">
         <v>1</v>
@@ -3711,16 +3708,16 @@
       <c r="Z5" s="66"/>
       <c r="AA5" s="58"/>
       <c r="AB5" s="62" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="AC5" s="66"/>
     </row>
     <row r="6" spans="2:32" s="77" customFormat="1">
       <c r="B6" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C6" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D6" s="58" t="s">
         <v>99</v>
@@ -3732,10 +3729,10 @@
       <c r="G6" s="58"/>
       <c r="H6" s="58"/>
       <c r="I6" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J6" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K6" s="58">
         <v>1</v>
@@ -3743,18 +3740,18 @@
       <c r="L6" s="58"/>
       <c r="M6" s="58"/>
       <c r="N6" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O6" s="62"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R6" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T6" s="58" t="s">
         <v>80</v>
@@ -3762,10 +3759,10 @@
       <c r="U6" s="58"/>
       <c r="V6" s="58"/>
       <c r="W6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X6" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y6" s="66">
         <v>1</v>
@@ -3773,7 +3770,7 @@
       <c r="Z6" s="66"/>
       <c r="AA6" s="58"/>
       <c r="AB6" s="62" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="AC6" s="58"/>
       <c r="AD6" s="76"/>
@@ -3794,18 +3791,18 @@
       <c r="L7" s="84"/>
       <c r="M7" s="84"/>
       <c r="N7" s="58" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="63"/>
       <c r="Q7" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R7" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S7" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T7" s="70" t="s">
         <v>87</v>
@@ -3813,10 +3810,10 @@
       <c r="U7" s="58"/>
       <c r="V7" s="58"/>
       <c r="W7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X7" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y7" s="66">
         <v>1</v>
@@ -3824,7 +3821,7 @@
       <c r="Z7" s="66"/>
       <c r="AA7" s="58"/>
       <c r="AB7" s="62" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="AC7" s="58"/>
       <c r="AD7" s="76"/>
@@ -3833,10 +3830,10 @@
     </row>
     <row r="8" spans="2:32" s="73" customFormat="1" ht="12">
       <c r="B8" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C8" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D8" s="58" t="s">
         <v>99</v>
@@ -3850,10 +3847,10 @@
       <c r="G8" s="61"/>
       <c r="H8" s="58"/>
       <c r="I8" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J8" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K8" s="66">
         <v>10</v>
@@ -3861,18 +3858,18 @@
       <c r="L8" s="66"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R8" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S8" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T8" s="74" t="s">
         <v>82</v>
@@ -3880,10 +3877,10 @@
       <c r="U8" s="61"/>
       <c r="V8" s="61"/>
       <c r="W8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X8" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y8" s="66">
         <v>10</v>
@@ -3891,16 +3888,16 @@
       <c r="Z8" s="66"/>
       <c r="AA8" s="58"/>
       <c r="AB8" s="62" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="AC8" s="66"/>
     </row>
     <row r="9" spans="2:32" s="73" customFormat="1" ht="12">
       <c r="B9" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C9" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D9" s="58" t="s">
         <v>99</v>
@@ -3914,10 +3911,10 @@
       <c r="G9" s="61"/>
       <c r="H9" s="58"/>
       <c r="I9" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J9" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K9" s="66">
         <v>11</v>
@@ -3925,18 +3922,18 @@
       <c r="L9" s="66"/>
       <c r="M9" s="58"/>
       <c r="N9" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R9" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S9" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T9" s="74" t="s">
         <v>88</v>
@@ -3944,10 +3941,10 @@
       <c r="U9" s="61"/>
       <c r="V9" s="61"/>
       <c r="W9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X9" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y9" s="66">
         <v>11</v>
@@ -3955,16 +3952,16 @@
       <c r="Z9" s="66"/>
       <c r="AA9" s="58"/>
       <c r="AB9" s="62" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="AC9" s="66"/>
     </row>
     <row r="10" spans="2:32" s="67" customFormat="1" ht="12">
       <c r="B10" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C10" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D10" s="58" t="s">
         <v>99</v>
@@ -3978,10 +3975,10 @@
       <c r="G10" s="61"/>
       <c r="H10" s="58"/>
       <c r="I10" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J10" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K10" s="58">
         <v>2</v>
@@ -3989,18 +3986,18 @@
       <c r="L10" s="58"/>
       <c r="M10" s="58"/>
       <c r="N10" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="63"/>
       <c r="Q10" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R10" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S10" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T10" s="64" t="s">
         <v>83</v>
@@ -4008,10 +4005,10 @@
       <c r="U10" s="61"/>
       <c r="V10" s="61"/>
       <c r="W10" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X10" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y10" s="66">
         <v>2</v>
@@ -4019,16 +4016,16 @@
       <c r="Z10" s="66"/>
       <c r="AA10" s="58"/>
       <c r="AB10" s="62" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="AC10" s="58"/>
     </row>
     <row r="11" spans="2:32" s="73" customFormat="1" ht="12">
       <c r="B11" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C11" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D11" s="58" t="s">
         <v>99</v>
@@ -4042,27 +4039,29 @@
       <c r="G11" s="61"/>
       <c r="H11" s="58"/>
       <c r="I11" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J11" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="K11" s="66"/>
+        <v>108</v>
+      </c>
+      <c r="K11" s="66">
+        <v>4</v>
+      </c>
       <c r="L11" s="66"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="63"/>
       <c r="Q11" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R11" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S11" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T11" s="75" t="s">
         <v>89</v>
@@ -4070,10 +4069,10 @@
       <c r="U11" s="61"/>
       <c r="V11" s="61"/>
       <c r="W11" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X11" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y11" s="66">
         <v>4</v>
@@ -4081,16 +4080,16 @@
       <c r="Z11" s="66"/>
       <c r="AA11" s="58"/>
       <c r="AB11" s="62" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="AC11" s="66"/>
     </row>
     <row r="12" spans="2:32" s="67" customFormat="1" ht="12">
       <c r="B12" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C12" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D12" s="58" t="s">
         <v>99</v>
@@ -4104,10 +4103,10 @@
       <c r="G12" s="61"/>
       <c r="H12" s="58"/>
       <c r="I12" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K12" s="58">
         <v>4</v>
@@ -4115,18 +4114,18 @@
       <c r="L12" s="58"/>
       <c r="M12" s="58"/>
       <c r="N12" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="63"/>
       <c r="Q12" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R12" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S12" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T12" s="60" t="s">
         <v>73</v>
@@ -4134,10 +4133,10 @@
       <c r="U12" s="61"/>
       <c r="V12" s="61"/>
       <c r="W12" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X12" s="65" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y12" s="66">
         <v>4</v>
@@ -4145,16 +4144,16 @@
       <c r="Z12" s="66"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="62" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="AC12" s="58"/>
     </row>
     <row r="13" spans="2:32" s="76" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C13" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D13" s="58" t="s">
         <v>99</v>
@@ -4168,10 +4167,10 @@
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K13" s="58">
         <v>1</v>
@@ -4179,18 +4178,18 @@
       <c r="L13" s="58"/>
       <c r="M13" s="58"/>
       <c r="N13" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R13" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S13" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T13" s="74" t="s">
         <v>90</v>
@@ -4198,10 +4197,10 @@
       <c r="U13" s="58"/>
       <c r="V13" s="58"/>
       <c r="W13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X13" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y13" s="66">
         <v>1</v>
@@ -4209,7 +4208,7 @@
       <c r="Z13" s="66"/>
       <c r="AA13" s="58"/>
       <c r="AB13" s="62" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="AC13" s="58"/>
     </row>
@@ -4227,18 +4226,18 @@
       <c r="L14" s="84"/>
       <c r="M14" s="84"/>
       <c r="N14" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="63"/>
       <c r="Q14" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R14" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S14" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T14" s="70" t="s">
         <v>91</v>
@@ -4246,10 +4245,10 @@
       <c r="U14" s="58"/>
       <c r="V14" s="58"/>
       <c r="W14" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X14" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y14" s="66">
         <v>3</v>
@@ -4257,7 +4256,7 @@
       <c r="Z14" s="66"/>
       <c r="AA14" s="58"/>
       <c r="AB14" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="AC14" s="58"/>
       <c r="AD14" s="76"/>
@@ -4278,18 +4277,18 @@
       <c r="L15" s="84"/>
       <c r="M15" s="84"/>
       <c r="N15" s="58" t="s">
-        <v>106</v>
+        <v>159</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="63"/>
       <c r="Q15" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R15" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S15" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T15" s="70" t="s">
         <v>92</v>
@@ -4297,10 +4296,10 @@
       <c r="U15" s="58"/>
       <c r="V15" s="58"/>
       <c r="W15" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X15" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y15" s="66">
         <v>6</v>
@@ -4310,7 +4309,7 @@
       </c>
       <c r="AA15" s="58"/>
       <c r="AB15" s="62" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="AC15" s="58"/>
       <c r="AD15" s="76"/>
@@ -4331,18 +4330,18 @@
       <c r="L16" s="84"/>
       <c r="M16" s="84"/>
       <c r="N16" s="68" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R16" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S16" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T16" s="74" t="s">
         <v>93</v>
@@ -4350,25 +4349,25 @@
       <c r="U16" s="58"/>
       <c r="V16" s="58"/>
       <c r="W16" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X16" s="72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y16" s="66"/>
       <c r="Z16" s="66"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="62" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="AC16" s="58"/>
     </row>
     <row r="17" spans="2:32" s="77" customFormat="1">
       <c r="B17" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C17" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D17" s="58" t="s">
         <v>99</v>
@@ -4382,29 +4381,29 @@
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
       <c r="I17" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J17" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K17" s="58">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="L17" s="58"/>
       <c r="M17" s="58"/>
       <c r="N17" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O17" s="62"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R17" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S17" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T17" s="74" t="s">
         <v>94</v>
@@ -4412,18 +4411,18 @@
       <c r="U17" s="58"/>
       <c r="V17" s="58"/>
       <c r="W17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="72" t="s">
         <v>110</v>
       </c>
-      <c r="X17" s="72" t="s">
-        <v>111</v>
-      </c>
       <c r="Y17" s="66">
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="Z17" s="66"/>
       <c r="AA17" s="58"/>
       <c r="AB17" s="62" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="AC17" s="58"/>
       <c r="AD17" s="76"/>
@@ -4432,10 +4431,10 @@
     </row>
     <row r="18" spans="2:32" s="77" customFormat="1">
       <c r="B18" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C18" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D18" s="58" t="s">
         <v>99</v>
@@ -4449,10 +4448,10 @@
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
       <c r="I18" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K18" s="58">
         <v>8</v>
@@ -4462,18 +4461,18 @@
       </c>
       <c r="M18" s="58"/>
       <c r="N18" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O18" s="62"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R18" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S18" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T18" s="74" t="s">
         <v>95</v>
@@ -4481,10 +4480,10 @@
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
       <c r="W18" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X18" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y18" s="66">
         <v>8</v>
@@ -4494,7 +4493,7 @@
       </c>
       <c r="AA18" s="58"/>
       <c r="AB18" s="62" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="AC18" s="58"/>
       <c r="AD18" s="76"/>
@@ -4503,10 +4502,10 @@
     </row>
     <row r="19" spans="2:32" s="77" customFormat="1">
       <c r="B19" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C19" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D19" s="58" t="s">
         <v>99</v>
@@ -4520,10 +4519,10 @@
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
       <c r="I19" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K19" s="58">
         <v>5</v>
@@ -4531,18 +4530,18 @@
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
       <c r="N19" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O19" s="62"/>
       <c r="P19" s="63"/>
       <c r="Q19" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R19" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S19" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T19" s="74" t="s">
         <v>74</v>
@@ -4550,10 +4549,10 @@
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
       <c r="W19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X19" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y19" s="66">
         <v>5</v>
@@ -4561,7 +4560,7 @@
       <c r="Z19" s="66"/>
       <c r="AA19" s="58"/>
       <c r="AB19" s="62" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="AC19" s="58"/>
       <c r="AD19" s="76"/>
@@ -4570,10 +4569,10 @@
     </row>
     <row r="20" spans="2:32" s="77" customFormat="1">
       <c r="B20" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C20" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D20" s="58" t="s">
         <v>99</v>
@@ -4587,10 +4586,10 @@
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
       <c r="I20" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K20" s="58">
         <v>10</v>
@@ -4598,18 +4597,18 @@
       <c r="L20" s="58"/>
       <c r="M20" s="58"/>
       <c r="N20" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O20" s="62"/>
       <c r="P20" s="78"/>
       <c r="Q20" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R20" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S20" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T20" s="74" t="s">
         <v>75</v>
@@ -4617,10 +4616,10 @@
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
       <c r="W20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X20" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y20" s="66">
         <v>10</v>
@@ -4628,7 +4627,7 @@
       <c r="Z20" s="66"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="62" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="AC20" s="58"/>
       <c r="AD20" s="76"/>
@@ -4637,10 +4636,10 @@
     </row>
     <row r="21" spans="2:32" s="77" customFormat="1">
       <c r="B21" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C21" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D21" s="58" t="s">
         <v>99</v>
@@ -4654,10 +4653,10 @@
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
       <c r="I21" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K21" s="58">
         <v>2</v>
@@ -4665,18 +4664,18 @@
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
       <c r="N21" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O21" s="62"/>
       <c r="P21" s="63"/>
       <c r="Q21" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R21" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S21" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T21" s="74" t="s">
         <v>76</v>
@@ -4684,10 +4683,10 @@
       <c r="U21" s="58"/>
       <c r="V21" s="58"/>
       <c r="W21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X21" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y21" s="66">
         <v>2</v>
@@ -4695,7 +4694,7 @@
       <c r="Z21" s="66"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="62" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="AC21" s="58"/>
       <c r="AD21" s="76"/>
@@ -4704,10 +4703,10 @@
     </row>
     <row r="22" spans="2:32" s="77" customFormat="1">
       <c r="B22" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C22" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D22" s="58" t="s">
         <v>99</v>
@@ -4721,10 +4720,10 @@
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
       <c r="I22" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K22" s="58">
         <v>15</v>
@@ -4732,18 +4731,18 @@
       <c r="L22" s="58"/>
       <c r="M22" s="58"/>
       <c r="N22" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O22" s="62"/>
       <c r="P22" s="63"/>
       <c r="Q22" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R22" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S22" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T22" s="74" t="s">
         <v>77</v>
@@ -4751,10 +4750,10 @@
       <c r="U22" s="58"/>
       <c r="V22" s="58"/>
       <c r="W22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X22" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y22" s="66">
         <v>15</v>
@@ -4762,7 +4761,7 @@
       <c r="Z22" s="66"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="62" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="AC22" s="58"/>
       <c r="AD22" s="76"/>
@@ -4771,10 +4770,10 @@
     </row>
     <row r="23" spans="2:32" s="77" customFormat="1">
       <c r="B23" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C23" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D23" s="58" t="s">
         <v>99</v>
@@ -4788,10 +4787,10 @@
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
       <c r="I23" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J23" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K23" s="58">
         <v>2</v>
@@ -4799,18 +4798,18 @@
       <c r="L23" s="58"/>
       <c r="M23" s="58"/>
       <c r="N23" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O23" s="62"/>
       <c r="P23" s="63"/>
       <c r="Q23" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R23" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S23" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T23" s="74" t="s">
         <v>78</v>
@@ -4818,10 +4817,10 @@
       <c r="U23" s="58"/>
       <c r="V23" s="58"/>
       <c r="W23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X23" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y23" s="66">
         <v>2</v>
@@ -4829,7 +4828,7 @@
       <c r="Z23" s="66"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="62" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="AC23" s="58"/>
       <c r="AD23" s="76"/>
@@ -4838,10 +4837,10 @@
     </row>
     <row r="24" spans="2:32" s="77" customFormat="1">
       <c r="B24" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C24" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D24" s="58" t="s">
         <v>99</v>
@@ -4855,10 +4854,10 @@
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
       <c r="I24" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J24" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K24" s="58">
         <v>5</v>
@@ -4866,18 +4865,18 @@
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
       <c r="N24" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O24" s="62"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R24" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S24" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T24" s="74" t="s">
         <v>79</v>
@@ -4885,10 +4884,10 @@
       <c r="U24" s="58"/>
       <c r="V24" s="58"/>
       <c r="W24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X24" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y24" s="66">
         <v>3</v>
@@ -4896,7 +4895,7 @@
       <c r="Z24" s="66"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="62" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC24" s="58"/>
       <c r="AD24" s="76"/>
@@ -4905,10 +4904,10 @@
     </row>
     <row r="25" spans="2:32" s="77" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C25" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D25" s="58" t="s">
         <v>99</v>
@@ -4922,27 +4921,29 @@
       <c r="G25" s="58"/>
       <c r="H25" s="58"/>
       <c r="I25" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J25" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="58"/>
+        <v>108</v>
+      </c>
+      <c r="K25" s="58">
+        <v>10</v>
+      </c>
       <c r="L25" s="58"/>
       <c r="M25" s="58"/>
       <c r="N25" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O25" s="62"/>
       <c r="P25" s="63"/>
       <c r="Q25" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R25" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S25" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T25" s="74" t="s">
         <v>96</v>
@@ -4950,10 +4951,10 @@
       <c r="U25" s="58"/>
       <c r="V25" s="58"/>
       <c r="W25" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X25" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y25" s="66">
         <v>10</v>
@@ -4961,7 +4962,7 @@
       <c r="Z25" s="66"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="62" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="AC25" s="58"/>
       <c r="AD25" s="76"/>
@@ -4982,18 +4983,18 @@
       <c r="L26" s="84"/>
       <c r="M26" s="84"/>
       <c r="N26" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="O26" s="62"/>
       <c r="P26" s="63"/>
       <c r="Q26" s="58" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R26" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S26" s="59" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T26" s="71" t="s">
         <v>97</v>
@@ -5001,10 +5002,10 @@
       <c r="U26" s="61"/>
       <c r="V26" s="61"/>
       <c r="W26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X26" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X26" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y26" s="66">
         <v>30</v>
@@ -5012,7 +5013,7 @@
       <c r="Z26" s="66"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="62" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="AC26" s="58"/>
     </row>
@@ -5030,18 +5031,18 @@
       <c r="L27" s="84"/>
       <c r="M27" s="84"/>
       <c r="N27" s="55" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="O27" s="62"/>
       <c r="P27" s="63"/>
       <c r="Q27" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R27" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S27" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T27" s="74" t="s">
         <v>98</v>
@@ -5049,10 +5050,10 @@
       <c r="U27" s="58"/>
       <c r="V27" s="58"/>
       <c r="W27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="72" t="s">
         <v>110</v>
-      </c>
-      <c r="X27" s="72" t="s">
-        <v>111</v>
       </c>
       <c r="Y27" s="66">
         <v>15</v>
@@ -5060,7 +5061,7 @@
       <c r="Z27" s="66"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="62" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="AC27" s="58"/>
       <c r="AD27" s="76"/>
@@ -5081,18 +5082,18 @@
       <c r="L28" s="84"/>
       <c r="M28" s="84"/>
       <c r="N28" s="58" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="O28" s="62"/>
       <c r="P28" s="63"/>
       <c r="Q28" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R28" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S28" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T28" s="70" t="s">
         <v>84</v>
@@ -5100,10 +5101,10 @@
       <c r="U28" s="58"/>
       <c r="V28" s="58"/>
       <c r="W28" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X28" s="72" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y28" s="66">
         <v>6</v>
@@ -5113,7 +5114,7 @@
       </c>
       <c r="AA28" s="58"/>
       <c r="AB28" s="62" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="AC28" s="58"/>
       <c r="AD28" s="76"/>
@@ -5122,23 +5123,23 @@
     </row>
     <row r="29" spans="2:32">
       <c r="B29" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C29" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D29" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F29" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H29" s="93"/>
       <c r="I29" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K29" s="58">
         <v>1</v>
@@ -5146,23 +5147,23 @@
       <c r="L29" s="94"/>
       <c r="M29" s="93"/>
       <c r="N29" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q29" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R29" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T29" s="60" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="V29" s="58"/>
       <c r="W29" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X29" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="X29" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="Y29" s="58">
         <v>1</v>
@@ -5174,47 +5175,51 @@
     </row>
     <row r="30" spans="2:32">
       <c r="B30" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C30" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D30" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F30" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="H30" s="93"/>
       <c r="I30" s="93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J30" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="K30" s="94"/>
+        <v>108</v>
+      </c>
+      <c r="K30" s="94">
+        <v>3</v>
+      </c>
       <c r="L30" s="94"/>
       <c r="M30" s="93"/>
       <c r="N30" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q30" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R30" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T30" s="60" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="V30" s="58"/>
       <c r="W30" s="61" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X30" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="Y30" s="94"/>
+        <v>108</v>
+      </c>
+      <c r="Y30" s="94">
+        <v>3</v>
+      </c>
       <c r="Z30" s="66"/>
       <c r="AA30" s="58"/>
       <c r="AB30" s="58"/>
@@ -5222,23 +5227,23 @@
     </row>
     <row r="31" spans="2:32">
       <c r="B31" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C31" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D31" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F31" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H31" s="93"/>
       <c r="I31" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K31" s="58">
         <v>10</v>
@@ -5246,23 +5251,23 @@
       <c r="L31" s="94"/>
       <c r="M31" s="93"/>
       <c r="N31" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q31" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R31" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T31" s="60" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="V31" s="58"/>
       <c r="W31" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="X31" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="Y31" s="94">
         <v>10</v>
@@ -5274,10 +5279,10 @@
     </row>
     <row r="32" spans="2:32" s="69" customFormat="1">
       <c r="B32" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C32" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D32" s="58" t="s">
         <v>99</v>
@@ -5291,10 +5296,10 @@
       <c r="G32" s="61"/>
       <c r="H32" s="58"/>
       <c r="I32" s="58" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J32" s="58" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="K32" s="58">
         <v>6</v>
@@ -5302,29 +5307,29 @@
       <c r="L32" s="58"/>
       <c r="M32" s="58"/>
       <c r="N32" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O32" s="62"/>
       <c r="P32" s="63"/>
       <c r="Q32" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R32" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S32" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T32" s="60" t="s">
         <v>85</v>
       </c>
       <c r="U32" s="61"/>
       <c r="V32" s="61" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="W32" s="94"/>
       <c r="X32" s="94" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="Y32" s="94">
         <v>6</v>
@@ -5332,54 +5337,54 @@
       <c r="Z32" s="66"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="AC32" s="58"/>
     </row>
     <row r="33" spans="2:34" s="6" customFormat="1">
       <c r="B33" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C33" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D33" s="81" t="s">
         <v>99</v>
       </c>
       <c r="F33" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="H33" s="94"/>
       <c r="I33" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J33" s="95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K33" s="94"/>
       <c r="L33" s="94"/>
       <c r="M33" s="94"/>
       <c r="N33" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O33" s="94"/>
       <c r="P33" s="94"/>
       <c r="Q33" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R33" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S33" s="94"/>
       <c r="T33" s="95" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="V33" s="98"/>
       <c r="W33" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X33" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y33" s="94"/>
       <c r="Z33" s="94"/>
@@ -5394,48 +5399,48 @@
     </row>
     <row r="34" spans="2:34" s="6" customFormat="1">
       <c r="B34" s="58" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C34" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D34" s="81" t="s">
         <v>99</v>
       </c>
       <c r="F34" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H34" s="94"/>
       <c r="I34" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J34" s="95" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K34" s="94"/>
       <c r="L34" s="94"/>
       <c r="M34" s="94"/>
       <c r="N34" s="96" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="O34" s="94"/>
       <c r="P34" s="94"/>
       <c r="Q34" s="97" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R34" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S34" s="94"/>
       <c r="T34" s="95" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="V34" s="98"/>
       <c r="W34" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X34" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y34" s="94"/>
       <c r="Z34" s="94"/>
@@ -5450,23 +5455,23 @@
     </row>
     <row r="35" spans="2:34">
       <c r="B35" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C35" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D35" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F35" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="H35" s="93"/>
       <c r="I35" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J35" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K35" s="58">
         <v>1</v>
@@ -5474,23 +5479,23 @@
       <c r="L35" s="94"/>
       <c r="M35" s="93"/>
       <c r="N35" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q35" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R35" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T35" s="60" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="V35" s="58"/>
       <c r="W35" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="X35" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="Y35" s="94">
         <v>1</v>
@@ -5502,23 +5507,23 @@
     </row>
     <row r="36" spans="2:34">
       <c r="B36" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C36" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D36" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F36" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H36" s="93"/>
       <c r="I36" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="58" t="s">
         <v>110</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>111</v>
       </c>
       <c r="K36" s="58">
         <v>1</v>
@@ -5526,23 +5531,23 @@
       <c r="L36" s="94"/>
       <c r="M36" s="93"/>
       <c r="N36" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q36" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R36" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T36" s="60" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="V36" s="58"/>
       <c r="W36" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="X36" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="X36" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="Y36" s="94">
         <v>1</v>
@@ -5554,23 +5559,23 @@
     </row>
     <row r="37" spans="2:34">
       <c r="B37" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C37" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D37" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F37" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H37" s="93"/>
       <c r="I37" s="93" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="J37" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="K37" s="94">
         <v>3</v>
@@ -5578,23 +5583,23 @@
       <c r="L37" s="94"/>
       <c r="M37" s="93"/>
       <c r="N37" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q37" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R37" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T37" s="60" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="V37" s="58"/>
       <c r="W37" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="X37" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="Y37" s="94">
         <v>3</v>
@@ -5606,45 +5611,45 @@
     </row>
     <row r="38" spans="2:34">
       <c r="B38" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C38" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D38" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F38" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="H38" s="93"/>
       <c r="I38" s="93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J38" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K38" s="94"/>
       <c r="L38" s="94"/>
       <c r="M38" s="93"/>
       <c r="N38" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q38" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R38" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T38" s="60" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="V38" s="58"/>
       <c r="W38" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X38" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y38" s="94"/>
       <c r="Z38" s="66"/>
@@ -5654,45 +5659,45 @@
     </row>
     <row r="39" spans="2:34">
       <c r="B39" s="81" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C39" s="59" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D39" s="58" t="s">
         <v>99</v>
       </c>
       <c r="F39" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H39" s="93"/>
       <c r="I39" s="93" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="J39" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="K39" s="94"/>
       <c r="L39" s="94"/>
       <c r="M39" s="93"/>
       <c r="N39" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q39" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R39" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T39" s="60" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="V39" s="58"/>
       <c r="W39" s="94" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="X39" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y39" s="94"/>
       <c r="Z39" s="66"/>
@@ -5702,23 +5707,23 @@
     </row>
     <row r="40" spans="2:34">
       <c r="B40" s="100" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="C40" s="101" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="D40" s="102" t="s">
         <v>99</v>
       </c>
       <c r="F40" s="103" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H40" s="104"/>
       <c r="I40" s="104" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="102" t="s">
         <v>110</v>
-      </c>
-      <c r="J40" s="102" t="s">
-        <v>111</v>
       </c>
       <c r="K40" s="102">
         <v>1</v>
@@ -5726,23 +5731,23 @@
       <c r="L40" s="105"/>
       <c r="M40" s="104"/>
       <c r="N40" s="58" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="Q40" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R40" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T40" s="60" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="V40" s="58"/>
       <c r="W40" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="94" t="s">
         <v>110</v>
-      </c>
-      <c r="X40" s="94" t="s">
-        <v>111</v>
       </c>
       <c r="Y40" s="94">
         <v>1</v>
@@ -5766,23 +5771,23 @@
       <c r="L41" s="108"/>
       <c r="M41" s="106"/>
       <c r="N41" s="109" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="Q41" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R41" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T41" s="109" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="V41" s="93"/>
       <c r="W41" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X41" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y41" s="94">
         <v>2</v>
@@ -5806,23 +5811,23 @@
       <c r="L42" s="108"/>
       <c r="M42" s="106"/>
       <c r="N42" s="109" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="Q42" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R42" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T42" s="109" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="V42" s="93"/>
       <c r="W42" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X42" s="94" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="Y42" s="94">
         <v>2</v>
@@ -5847,20 +5852,20 @@
       <c r="M43" s="106"/>
       <c r="N43" s="110"/>
       <c r="Q43" s="81" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="R43" s="86" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="T43" s="109" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="V43" s="93"/>
       <c r="W43" s="94" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="X43" s="94" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="Y43" s="94"/>
       <c r="Z43" s="111"/>
@@ -6140,15 +6145,16 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6197,25 +6203,39 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6230,25 +6250,10 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
@@ -4,17 +4,19 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" activeTab="3"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
     <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId5"/>
+    <sheet name="Mapeamento (2)" sheetId="18" r:id="rId5"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mapeamento!$B$3:$AC$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mapeamento (2)'!$B$3:$AC$40</definedName>
   </definedNames>
   <calcPr calcId="125725"/>
 </workbook>
@@ -105,8 +107,46 @@
 </comments>
 </file>
 
+<file path=xl/comments3.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="593" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="186">
   <si>
     <t>Schema</t>
   </si>
@@ -1755,7 +1795,7 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="164">
+  <cellXfs count="168">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1930,12 +1970,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
@@ -1962,9 +1996,6 @@
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -2059,15 +2090,66 @@
     <xf numFmtId="0" fontId="10" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2077,62 +2159,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2152,57 +2228,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2223,6 +2248,33 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2392,7 +2444,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2415,14 +2467,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2465,7 +2517,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
+              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2488,14 +2540,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
+            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
+            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2868,28 +2920,28 @@
     </row>
     <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
     <row r="9" spans="2:10">
-      <c r="B9" s="121" t="s">
+      <c r="B9" s="113" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-      <c r="I9" s="122"/>
-      <c r="J9" s="123"/>
+      <c r="C9" s="114"/>
+      <c r="D9" s="114"/>
+      <c r="E9" s="114"/>
+      <c r="F9" s="114"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="114"/>
+      <c r="I9" s="114"/>
+      <c r="J9" s="115"/>
     </row>
     <row r="10" spans="2:10">
-      <c r="B10" s="124"/>
-      <c r="C10" s="125"/>
-      <c r="D10" s="125"/>
-      <c r="E10" s="125"/>
-      <c r="F10" s="125"/>
-      <c r="G10" s="125"/>
-      <c r="H10" s="125"/>
-      <c r="I10" s="125"/>
-      <c r="J10" s="126"/>
+      <c r="B10" s="116"/>
+      <c r="C10" s="117"/>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="117"/>
+      <c r="G10" s="117"/>
+      <c r="H10" s="117"/>
+      <c r="I10" s="117"/>
+      <c r="J10" s="118"/>
     </row>
     <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
@@ -2898,17 +2950,17 @@
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="127" t="s">
+      <c r="D11" s="119" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="127"/>
-      <c r="F11" s="127"/>
-      <c r="G11" s="127" t="s">
+      <c r="E11" s="119"/>
+      <c r="F11" s="119"/>
+      <c r="G11" s="119" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="127"/>
-      <c r="I11" s="127"/>
-      <c r="J11" s="128"/>
+      <c r="H11" s="119"/>
+      <c r="I11" s="119"/>
+      <c r="J11" s="120"/>
     </row>
     <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
@@ -2917,93 +2969,86 @@
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="129" t="s">
+      <c r="D12" s="121" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="130"/>
-      <c r="F12" s="131"/>
-      <c r="G12" s="132" t="s">
+      <c r="E12" s="122"/>
+      <c r="F12" s="123"/>
+      <c r="G12" s="124" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="132"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="133"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="124"/>
+      <c r="J12" s="125"/>
     </row>
     <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="118"/>
-      <c r="E13" s="119"/>
-      <c r="F13" s="120"/>
-      <c r="G13" s="115"/>
-      <c r="H13" s="116"/>
-      <c r="I13" s="116"/>
-      <c r="J13" s="117"/>
+      <c r="D13" s="107"/>
+      <c r="E13" s="108"/>
+      <c r="F13" s="109"/>
+      <c r="G13" s="110"/>
+      <c r="H13" s="111"/>
+      <c r="I13" s="111"/>
+      <c r="J13" s="112"/>
     </row>
     <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="112"/>
-      <c r="E14" s="112"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="115"/>
-      <c r="H14" s="116"/>
-      <c r="I14" s="116"/>
-      <c r="J14" s="117"/>
+      <c r="D14" s="126"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="126"/>
+      <c r="G14" s="110"/>
+      <c r="H14" s="111"/>
+      <c r="I14" s="111"/>
+      <c r="J14" s="112"/>
     </row>
     <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="112"/>
-      <c r="E15" s="112"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="115"/>
-      <c r="H15" s="116"/>
-      <c r="I15" s="116"/>
-      <c r="J15" s="117"/>
+      <c r="D15" s="126"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="126"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="111"/>
+      <c r="I15" s="111"/>
+      <c r="J15" s="112"/>
     </row>
     <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="112"/>
-      <c r="E16" s="112"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="115"/>
-      <c r="H16" s="116"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="117"/>
+      <c r="D16" s="126"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="126"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="111"/>
+      <c r="J16" s="112"/>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="112"/>
-      <c r="E17" s="112"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="113"/>
-      <c r="H17" s="113"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="114"/>
+      <c r="D17" s="126"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="126"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="127"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="112"/>
-      <c r="E18" s="112"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="113"/>
-      <c r="H18" s="113"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="114"/>
+      <c r="D18" s="126"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="126"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="127"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3014,6 +3059,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3071,17 +3123,17 @@
     </row>
     <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
     <row r="6" spans="2:10">
-      <c r="B6" s="141" t="s">
+      <c r="B6" s="134" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="141"/>
-      <c r="D6" s="141"/>
-      <c r="E6" s="141"/>
-      <c r="F6" s="141"/>
-      <c r="G6" s="141"/>
-      <c r="H6" s="141"/>
-      <c r="I6" s="141"/>
-      <c r="J6" s="141"/>
+      <c r="C6" s="134"/>
+      <c r="D6" s="134"/>
+      <c r="E6" s="134"/>
+      <c r="F6" s="134"/>
+      <c r="G6" s="134"/>
+      <c r="H6" s="134"/>
+      <c r="I6" s="134"/>
+      <c r="J6" s="134"/>
     </row>
     <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
@@ -3090,41 +3142,41 @@
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="141" t="s">
+      <c r="D7" s="134" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="141"/>
-      <c r="F7" s="141"/>
-      <c r="G7" s="141"/>
-      <c r="H7" s="141"/>
-      <c r="I7" s="141"/>
-      <c r="J7" s="141"/>
+      <c r="E7" s="134"/>
+      <c r="F7" s="134"/>
+      <c r="G7" s="134"/>
+      <c r="H7" s="134"/>
+      <c r="I7" s="134"/>
+      <c r="J7" s="134"/>
     </row>
     <row r="8" spans="2:10">
-      <c r="B8" s="79" t="s">
+      <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="150"/>
-      <c r="E8" s="150"/>
-      <c r="F8" s="150"/>
-      <c r="G8" s="150"/>
-      <c r="H8" s="150"/>
-      <c r="I8" s="150"/>
-      <c r="J8" s="150"/>
+      <c r="D8" s="135"/>
+      <c r="E8" s="135"/>
+      <c r="F8" s="135"/>
+      <c r="G8" s="135"/>
+      <c r="H8" s="135"/>
+      <c r="I8" s="135"/>
+      <c r="J8" s="135"/>
     </row>
     <row r="9" spans="2:10">
-      <c r="B9" s="79" t="s">
+      <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="155"/>
-      <c r="E9" s="156"/>
-      <c r="F9" s="156"/>
-      <c r="G9" s="156"/>
-      <c r="H9" s="156"/>
-      <c r="I9" s="156"/>
-      <c r="J9" s="156"/>
+      <c r="D9" s="143"/>
+      <c r="E9" s="144"/>
+      <c r="F9" s="144"/>
+      <c r="G9" s="144"/>
+      <c r="H9" s="144"/>
+      <c r="I9" s="144"/>
+      <c r="J9" s="144"/>
     </row>
     <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
@@ -3138,17 +3190,17 @@
       <c r="J10" s="4"/>
     </row>
     <row r="11" spans="2:10">
-      <c r="B11" s="145" t="s">
+      <c r="B11" s="137" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="146"/>
-      <c r="D11" s="146"/>
-      <c r="E11" s="146"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="146"/>
-      <c r="H11" s="146"/>
-      <c r="I11" s="146"/>
-      <c r="J11" s="146"/>
+      <c r="C11" s="138"/>
+      <c r="D11" s="138"/>
+      <c r="E11" s="138"/>
+      <c r="F11" s="138"/>
+      <c r="G11" s="138"/>
+      <c r="H11" s="138"/>
+      <c r="I11" s="138"/>
+      <c r="J11" s="138"/>
     </row>
     <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
@@ -3160,51 +3212,51 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="152" t="s">
+      <c r="E12" s="139" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="154"/>
-      <c r="G12" s="152" t="s">
+      <c r="F12" s="141"/>
+      <c r="G12" s="139" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="153"/>
-      <c r="I12" s="153"/>
-      <c r="J12" s="154"/>
+      <c r="H12" s="140"/>
+      <c r="I12" s="140"/>
+      <c r="J12" s="141"/>
     </row>
     <row r="13" spans="2:10">
-      <c r="B13" s="80"/>
+      <c r="B13" s="77"/>
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="142"/>
-      <c r="F13" s="143"/>
-      <c r="G13" s="144"/>
-      <c r="H13" s="144"/>
-      <c r="I13" s="144"/>
-      <c r="J13" s="144"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="130"/>
+      <c r="G13" s="142"/>
+      <c r="H13" s="142"/>
+      <c r="I13" s="142"/>
+      <c r="J13" s="142"/>
     </row>
     <row r="14" spans="2:10">
-      <c r="B14" s="80"/>
+      <c r="B14" s="77"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="143"/>
-      <c r="G14" s="144"/>
-      <c r="H14" s="144"/>
-      <c r="I14" s="144"/>
-      <c r="J14" s="144"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="130"/>
+      <c r="G14" s="142"/>
+      <c r="H14" s="142"/>
+      <c r="I14" s="142"/>
+      <c r="J14" s="142"/>
     </row>
     <row r="15" spans="2:10">
-      <c r="B15" s="80"/>
+      <c r="B15" s="77"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="142"/>
-      <c r="F15" s="143"/>
-      <c r="G15" s="144"/>
-      <c r="H15" s="144"/>
-      <c r="I15" s="144"/>
-      <c r="J15" s="144"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="130"/>
+      <c r="G15" s="142"/>
+      <c r="H15" s="142"/>
+      <c r="I15" s="142"/>
+      <c r="J15" s="142"/>
     </row>
     <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="2"/>
@@ -3218,11 +3270,11 @@
       <c r="J16" s="2"/>
     </row>
     <row r="17" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B17" s="145" t="s">
+      <c r="B17" s="137" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="146"/>
-      <c r="D17" s="146"/>
+      <c r="C17" s="138"/>
+      <c r="D17" s="138"/>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" s="39" t="s">
@@ -3268,17 +3320,17 @@
       <c r="J22" s="2"/>
     </row>
     <row r="23" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B23" s="141" t="s">
+      <c r="B23" s="134" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="141"/>
-      <c r="D23" s="141"/>
-      <c r="E23" s="141"/>
-      <c r="F23" s="141"/>
-      <c r="G23" s="141"/>
-      <c r="H23" s="141"/>
-      <c r="I23" s="141"/>
-      <c r="J23" s="141"/>
+      <c r="C23" s="134"/>
+      <c r="D23" s="134"/>
+      <c r="E23" s="134"/>
+      <c r="F23" s="134"/>
+      <c r="G23" s="134"/>
+      <c r="H23" s="134"/>
+      <c r="I23" s="134"/>
+      <c r="J23" s="134"/>
     </row>
     <row r="24" spans="2:10">
       <c r="B24" s="44" t="s">
@@ -3290,99 +3342,111 @@
       <c r="D24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="151" t="s">
+      <c r="E24" s="136" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="151"/>
-      <c r="G24" s="151" t="s">
+      <c r="F24" s="136"/>
+      <c r="G24" s="136" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="151"/>
-      <c r="I24" s="151"/>
-      <c r="J24" s="151"/>
+      <c r="H24" s="136"/>
+      <c r="I24" s="136"/>
+      <c r="J24" s="136"/>
     </row>
     <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="140"/>
-      <c r="F25" s="140"/>
-      <c r="G25" s="140"/>
-      <c r="H25" s="140"/>
-      <c r="I25" s="140"/>
-      <c r="J25" s="140"/>
+      <c r="E25" s="145"/>
+      <c r="F25" s="145"/>
+      <c r="G25" s="145"/>
+      <c r="H25" s="145"/>
+      <c r="I25" s="145"/>
+      <c r="J25" s="145"/>
     </row>
     <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="140"/>
-      <c r="F26" s="140"/>
-      <c r="G26" s="140"/>
-      <c r="H26" s="140"/>
-      <c r="I26" s="140"/>
-      <c r="J26" s="140"/>
+      <c r="E26" s="145"/>
+      <c r="F26" s="145"/>
+      <c r="G26" s="145"/>
+      <c r="H26" s="145"/>
+      <c r="I26" s="145"/>
+      <c r="J26" s="145"/>
     </row>
     <row r="27" spans="2:10">
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="140"/>
-      <c r="F27" s="140"/>
-      <c r="G27" s="140"/>
-      <c r="H27" s="140"/>
-      <c r="I27" s="140"/>
-      <c r="J27" s="140"/>
+      <c r="E27" s="145"/>
+      <c r="F27" s="145"/>
+      <c r="G27" s="145"/>
+      <c r="H27" s="145"/>
+      <c r="I27" s="145"/>
+      <c r="J27" s="145"/>
     </row>
     <row r="29" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B29" s="134" t="s">
+      <c r="B29" s="146" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="135"/>
-      <c r="D29" s="135"/>
-      <c r="E29" s="135"/>
-      <c r="F29" s="135"/>
-      <c r="G29" s="135"/>
-      <c r="H29" s="135"/>
-      <c r="I29" s="135"/>
-      <c r="J29" s="136"/>
+      <c r="C29" s="147"/>
+      <c r="D29" s="147"/>
+      <c r="E29" s="147"/>
+      <c r="F29" s="147"/>
+      <c r="G29" s="147"/>
+      <c r="H29" s="147"/>
+      <c r="I29" s="147"/>
+      <c r="J29" s="148"/>
     </row>
     <row r="30" spans="2:10">
-      <c r="B30" s="88" t="s">
+      <c r="B30" s="85" t="s">
         <v>152</v>
       </c>
-      <c r="C30" s="89" t="s">
+      <c r="C30" s="86" t="s">
         <v>153</v>
       </c>
-      <c r="D30" s="89" t="s">
+      <c r="D30" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="137" t="s">
+      <c r="E30" s="149" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="138"/>
-      <c r="G30" s="137" t="s">
+      <c r="F30" s="150"/>
+      <c r="G30" s="149" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="139"/>
-      <c r="I30" s="139"/>
-      <c r="J30" s="138"/>
+      <c r="H30" s="151"/>
+      <c r="I30" s="151"/>
+      <c r="J30" s="150"/>
     </row>
     <row r="31" spans="2:10">
-      <c r="B31" s="90" t="s">
+      <c r="B31" s="87" t="s">
         <v>156</v>
       </c>
-      <c r="C31" s="91"/>
-      <c r="D31" s="92"/>
-      <c r="E31" s="142"/>
-      <c r="F31" s="143"/>
-      <c r="G31" s="147"/>
-      <c r="H31" s="148"/>
-      <c r="I31" s="148"/>
-      <c r="J31" s="149"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="89"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="130"/>
+      <c r="G31" s="131"/>
+      <c r="H31" s="132"/>
+      <c r="I31" s="132"/>
+      <c r="J31" s="133"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="B6:J6"/>
@@ -3399,18 +3463,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3446,11 +3498,11 @@
   </sheetPr>
   <dimension ref="B1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
@@ -3495,39 +3547,39 @@
       <c r="T1" s="48"/>
     </row>
     <row r="2" spans="2:32" ht="25.5" customHeight="1">
-      <c r="B2" s="157" t="s">
+      <c r="B2" s="152" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="158"/>
-      <c r="D2" s="158"/>
-      <c r="E2" s="158"/>
-      <c r="F2" s="158"/>
-      <c r="G2" s="158"/>
-      <c r="H2" s="158"/>
-      <c r="I2" s="158"/>
-      <c r="J2" s="158"/>
-      <c r="K2" s="158"/>
-      <c r="L2" s="158"/>
-      <c r="M2" s="158"/>
-      <c r="N2" s="159" t="s">
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="159"/>
-      <c r="P2" s="160"/>
-      <c r="Q2" s="161" t="s">
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="162"/>
-      <c r="S2" s="162"/>
-      <c r="T2" s="162"/>
-      <c r="U2" s="162"/>
-      <c r="V2" s="162"/>
-      <c r="W2" s="162"/>
-      <c r="X2" s="162"/>
-      <c r="Y2" s="162"/>
-      <c r="Z2" s="162"/>
-      <c r="AA2" s="162"/>
-      <c r="AB2" s="163"/>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
@@ -3616,34 +3668,34 @@
       </c>
       <c r="AC3" s="54"/>
     </row>
-    <row r="4" spans="2:32" s="67" customFormat="1" ht="12">
-      <c r="B4" s="82"/>
-      <c r="C4" s="83"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="68" t="s">
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B4" s="79"/>
+      <c r="C4" s="80"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="79"/>
+      <c r="K4" s="79"/>
+      <c r="L4" s="79"/>
+      <c r="M4" s="79"/>
+      <c r="N4" s="66" t="s">
         <v>104</v>
       </c>
       <c r="O4" s="62"/>
       <c r="P4" s="63"/>
-      <c r="Q4" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R4" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S4" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T4" s="74" t="s">
+      <c r="Q4" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="72" t="s">
         <v>81</v>
       </c>
       <c r="U4" s="61"/>
@@ -3651,47 +3703,47 @@
       <c r="W4" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="X4" s="72" t="s">
+      <c r="X4" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y4" s="66">
+      <c r="Y4" s="64">
         <v>100</v>
       </c>
-      <c r="Z4" s="66"/>
+      <c r="Z4" s="64"/>
       <c r="AA4" s="58"/>
       <c r="AB4" s="62" t="s">
         <v>127</v>
       </c>
-      <c r="AC4" s="66"/>
-    </row>
-    <row r="5" spans="2:32" s="69" customFormat="1" ht="12">
-      <c r="B5" s="82"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="68" t="s">
+      <c r="AC4" s="64"/>
+    </row>
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
+      <c r="B5" s="79"/>
+      <c r="C5" s="80"/>
+      <c r="D5" s="79"/>
+      <c r="E5" s="79"/>
+      <c r="F5" s="79"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="79"/>
+      <c r="I5" s="79"/>
+      <c r="J5" s="79"/>
+      <c r="K5" s="79"/>
+      <c r="L5" s="79"/>
+      <c r="M5" s="79"/>
+      <c r="N5" s="66" t="s">
         <v>105</v>
       </c>
       <c r="O5" s="62"/>
       <c r="P5" s="63"/>
-      <c r="Q5" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R5" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S5" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T5" s="74" t="s">
+      <c r="Q5" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="72" t="s">
         <v>86</v>
       </c>
       <c r="U5" s="61"/>
@@ -3699,20 +3751,20 @@
       <c r="W5" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X5" s="72" t="s">
+      <c r="X5" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y5" s="66">
+      <c r="Y5" s="64">
         <v>1</v>
       </c>
-      <c r="Z5" s="66"/>
+      <c r="Z5" s="64"/>
       <c r="AA5" s="58"/>
       <c r="AB5" s="62" t="s">
         <v>128</v>
       </c>
-      <c r="AC5" s="66"/>
-    </row>
-    <row r="6" spans="2:32" s="77" customFormat="1">
+      <c r="AC5" s="64"/>
+    </row>
+    <row r="6" spans="2:32" s="74" customFormat="1">
       <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
@@ -3744,10 +3796,10 @@
       </c>
       <c r="O6" s="62"/>
       <c r="P6" s="63"/>
-      <c r="Q6" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R6" s="86" t="s">
+      <c r="Q6" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="83" t="s">
         <v>122</v>
       </c>
       <c r="S6" s="59" t="s">
@@ -3761,50 +3813,50 @@
       <c r="W6" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X6" s="72" t="s">
+      <c r="X6" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y6" s="66">
+      <c r="Y6" s="64">
         <v>1</v>
       </c>
-      <c r="Z6" s="66"/>
+      <c r="Z6" s="64"/>
       <c r="AA6" s="58"/>
       <c r="AB6" s="62" t="s">
         <v>171</v>
       </c>
       <c r="AC6" s="58"/>
-      <c r="AD6" s="76"/>
-      <c r="AE6" s="76"/>
-      <c r="AF6" s="76"/>
-    </row>
-    <row r="7" spans="2:32" s="77" customFormat="1" ht="24">
-      <c r="B7" s="82"/>
-      <c r="C7" s="83"/>
-      <c r="D7" s="84"/>
-      <c r="E7" s="84"/>
-      <c r="F7" s="84"/>
-      <c r="G7" s="84"/>
-      <c r="H7" s="84"/>
-      <c r="I7" s="84"/>
-      <c r="J7" s="84"/>
-      <c r="K7" s="84"/>
-      <c r="L7" s="84"/>
-      <c r="M7" s="84"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+    </row>
+    <row r="7" spans="2:32" s="74" customFormat="1" ht="24">
+      <c r="B7" s="79"/>
+      <c r="C7" s="80"/>
+      <c r="D7" s="81"/>
+      <c r="E7" s="81"/>
+      <c r="F7" s="81"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="81"/>
+      <c r="K7" s="81"/>
+      <c r="L7" s="81"/>
+      <c r="M7" s="81"/>
       <c r="N7" s="58" t="s">
         <v>147</v>
       </c>
       <c r="O7" s="62"/>
       <c r="P7" s="63"/>
-      <c r="Q7" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R7" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S7" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T7" s="70" t="s">
+      <c r="Q7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="U7" s="58"/>
@@ -3812,24 +3864,24 @@
       <c r="W7" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X7" s="72" t="s">
+      <c r="X7" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y7" s="66">
+      <c r="Y7" s="64">
         <v>1</v>
       </c>
-      <c r="Z7" s="66"/>
+      <c r="Z7" s="64"/>
       <c r="AA7" s="58"/>
       <c r="AB7" s="62" t="s">
         <v>144</v>
       </c>
       <c r="AC7" s="58"/>
-      <c r="AD7" s="76"/>
-      <c r="AE7" s="76"/>
-      <c r="AF7" s="76"/>
-    </row>
-    <row r="8" spans="2:32" s="73" customFormat="1" ht="12">
-      <c r="B8" s="81" t="s">
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+    </row>
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B8" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C8" s="59" t="s">
@@ -3852,26 +3904,26 @@
       <c r="J8" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K8" s="66">
+      <c r="K8" s="64">
         <v>10</v>
       </c>
-      <c r="L8" s="66"/>
+      <c r="L8" s="64"/>
       <c r="M8" s="58"/>
       <c r="N8" s="58" t="s">
         <v>158</v>
       </c>
       <c r="O8" s="62"/>
       <c r="P8" s="63"/>
-      <c r="Q8" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R8" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S8" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T8" s="74" t="s">
+      <c r="Q8" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="60" t="s">
         <v>82</v>
       </c>
       <c r="U8" s="61"/>
@@ -3879,21 +3931,21 @@
       <c r="W8" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X8" s="72" t="s">
+      <c r="X8" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y8" s="66">
+      <c r="Y8" s="64">
         <v>10</v>
       </c>
-      <c r="Z8" s="66"/>
+      <c r="Z8" s="64"/>
       <c r="AA8" s="58"/>
       <c r="AB8" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="AC8" s="66"/>
-    </row>
-    <row r="9" spans="2:32" s="73" customFormat="1" ht="12">
-      <c r="B9" s="81" t="s">
+      <c r="AC8" s="64"/>
+    </row>
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B9" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C9" s="59" t="s">
@@ -3916,26 +3968,26 @@
       <c r="J9" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="K9" s="66">
+      <c r="K9" s="64">
         <v>11</v>
       </c>
-      <c r="L9" s="66"/>
+      <c r="L9" s="64"/>
       <c r="M9" s="58"/>
       <c r="N9" s="58" t="s">
         <v>158</v>
       </c>
       <c r="O9" s="62"/>
       <c r="P9" s="63"/>
-      <c r="Q9" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R9" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S9" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T9" s="74" t="s">
+      <c r="Q9" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="60" t="s">
         <v>88</v>
       </c>
       <c r="U9" s="61"/>
@@ -3943,21 +3995,21 @@
       <c r="W9" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X9" s="72" t="s">
+      <c r="X9" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y9" s="66">
+      <c r="Y9" s="64">
         <v>11</v>
       </c>
-      <c r="Z9" s="66"/>
+      <c r="Z9" s="64"/>
       <c r="AA9" s="58"/>
       <c r="AB9" s="62" t="s">
         <v>130</v>
       </c>
-      <c r="AC9" s="66"/>
-    </row>
-    <row r="10" spans="2:32" s="67" customFormat="1" ht="12">
-      <c r="B10" s="81" t="s">
+      <c r="AC9" s="64"/>
+    </row>
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B10" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C10" s="59" t="s">
@@ -3990,16 +4042,16 @@
       </c>
       <c r="O10" s="62"/>
       <c r="P10" s="63"/>
-      <c r="Q10" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R10" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S10" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T10" s="64" t="s">
+      <c r="Q10" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="60" t="s">
         <v>83</v>
       </c>
       <c r="U10" s="61"/>
@@ -4007,21 +4059,21 @@
       <c r="W10" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X10" s="65" t="s">
+      <c r="X10" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="66">
+      <c r="Y10" s="58">
         <v>2</v>
       </c>
-      <c r="Z10" s="66"/>
+      <c r="Z10" s="64"/>
       <c r="AA10" s="58"/>
       <c r="AB10" s="62" t="s">
         <v>124</v>
       </c>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="2:32" s="73" customFormat="1" ht="12">
-      <c r="B11" s="81" t="s">
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B11" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C11" s="59" t="s">
@@ -4044,26 +4096,26 @@
       <c r="J11" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="66">
+      <c r="K11" s="64">
         <v>4</v>
       </c>
-      <c r="L11" s="66"/>
+      <c r="L11" s="64"/>
       <c r="M11" s="58"/>
       <c r="N11" s="58" t="s">
         <v>158</v>
       </c>
       <c r="O11" s="62"/>
       <c r="P11" s="63"/>
-      <c r="Q11" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R11" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S11" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T11" s="75" t="s">
+      <c r="Q11" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="60" t="s">
         <v>89</v>
       </c>
       <c r="U11" s="61"/>
@@ -4071,21 +4123,21 @@
       <c r="W11" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X11" s="72" t="s">
+      <c r="X11" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="66">
+      <c r="Y11" s="64">
         <v>4</v>
       </c>
-      <c r="Z11" s="66"/>
+      <c r="Z11" s="64"/>
       <c r="AA11" s="58"/>
       <c r="AB11" s="62" t="s">
         <v>131</v>
       </c>
-      <c r="AC11" s="66"/>
-    </row>
-    <row r="12" spans="2:32" s="67" customFormat="1" ht="12">
-      <c r="B12" s="81" t="s">
+      <c r="AC11" s="64"/>
+    </row>
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B12" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C12" s="59" t="s">
@@ -4118,13 +4170,13 @@
       </c>
       <c r="O12" s="62"/>
       <c r="P12" s="63"/>
-      <c r="Q12" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R12" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S12" s="86" t="s">
+      <c r="Q12" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="83" t="s">
         <v>122</v>
       </c>
       <c r="T12" s="60" t="s">
@@ -4135,21 +4187,21 @@
       <c r="W12" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X12" s="65" t="s">
+      <c r="X12" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y12" s="66">
+      <c r="Y12" s="58">
         <v>4</v>
       </c>
-      <c r="Z12" s="66"/>
+      <c r="Z12" s="64"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="62" t="s">
         <v>123</v>
       </c>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="2:32" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B13" s="81" t="s">
+    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B13" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C13" s="59" t="s">
@@ -4182,16 +4234,16 @@
       </c>
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
-      <c r="Q13" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R13" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S13" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T13" s="74" t="s">
+      <c r="Q13" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="60" t="s">
         <v>90</v>
       </c>
       <c r="U13" s="58"/>
@@ -4199,47 +4251,47 @@
       <c r="W13" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X13" s="72" t="s">
+      <c r="X13" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y13" s="66">
+      <c r="Y13" s="58">
         <v>1</v>
       </c>
-      <c r="Z13" s="66"/>
+      <c r="Z13" s="64"/>
       <c r="AA13" s="58"/>
       <c r="AB13" s="62" t="s">
         <v>132</v>
       </c>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="2:32" s="77" customFormat="1">
-      <c r="B14" s="83"/>
-      <c r="C14" s="83"/>
-      <c r="D14" s="84"/>
-      <c r="E14" s="84"/>
-      <c r="F14" s="85"/>
-      <c r="G14" s="84"/>
-      <c r="H14" s="84"/>
-      <c r="I14" s="84"/>
-      <c r="J14" s="84"/>
-      <c r="K14" s="84"/>
-      <c r="L14" s="84"/>
-      <c r="M14" s="84"/>
+    <row r="14" spans="2:32" s="74" customFormat="1">
+      <c r="B14" s="80"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="81"/>
+      <c r="K14" s="81"/>
+      <c r="L14" s="81"/>
+      <c r="M14" s="81"/>
       <c r="N14" s="58" t="s">
         <v>148</v>
       </c>
       <c r="O14" s="62"/>
       <c r="P14" s="63"/>
-      <c r="Q14" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R14" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S14" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T14" s="70" t="s">
+      <c r="Q14" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="68" t="s">
         <v>91</v>
       </c>
       <c r="U14" s="58"/>
@@ -4247,50 +4299,50 @@
       <c r="W14" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X14" s="72" t="s">
+      <c r="X14" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="Y14" s="66">
+      <c r="Y14" s="64">
         <v>3</v>
       </c>
-      <c r="Z14" s="66"/>
+      <c r="Z14" s="64"/>
       <c r="AA14" s="58"/>
       <c r="AB14" s="62" t="s">
         <v>150</v>
       </c>
       <c r="AC14" s="58"/>
-      <c r="AD14" s="76"/>
-      <c r="AE14" s="76"/>
-      <c r="AF14" s="76"/>
-    </row>
-    <row r="15" spans="2:32" s="77" customFormat="1">
-      <c r="B15" s="83"/>
-      <c r="C15" s="83"/>
-      <c r="D15" s="84"/>
-      <c r="E15" s="84"/>
-      <c r="F15" s="85"/>
-      <c r="G15" s="84"/>
-      <c r="H15" s="84"/>
-      <c r="I15" s="84"/>
-      <c r="J15" s="84"/>
-      <c r="K15" s="84"/>
-      <c r="L15" s="84"/>
-      <c r="M15" s="84"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+    </row>
+    <row r="15" spans="2:32" s="74" customFormat="1">
+      <c r="B15" s="80"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="81"/>
+      <c r="E15" s="81"/>
+      <c r="F15" s="82"/>
+      <c r="G15" s="81"/>
+      <c r="H15" s="81"/>
+      <c r="I15" s="81"/>
+      <c r="J15" s="81"/>
+      <c r="K15" s="81"/>
+      <c r="L15" s="81"/>
+      <c r="M15" s="81"/>
       <c r="N15" s="58" t="s">
         <v>159</v>
       </c>
       <c r="O15" s="62"/>
       <c r="P15" s="63"/>
-      <c r="Q15" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R15" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S15" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T15" s="70" t="s">
+      <c r="Q15" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="68" t="s">
         <v>92</v>
       </c>
       <c r="U15" s="58"/>
@@ -4298,13 +4350,13 @@
       <c r="W15" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X15" s="72" t="s">
+      <c r="X15" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="Y15" s="66">
+      <c r="Y15" s="64">
         <v>6</v>
       </c>
-      <c r="Z15" s="66">
+      <c r="Z15" s="64">
         <v>2</v>
       </c>
       <c r="AA15" s="58"/>
@@ -4312,38 +4364,38 @@
         <v>145</v>
       </c>
       <c r="AC15" s="58"/>
-      <c r="AD15" s="76"/>
-      <c r="AE15" s="76"/>
-      <c r="AF15" s="76"/>
-    </row>
-    <row r="16" spans="2:32" s="76" customFormat="1" ht="12.75" customHeight="1">
-      <c r="B16" s="82"/>
-      <c r="C16" s="83"/>
-      <c r="D16" s="84"/>
-      <c r="E16" s="84"/>
-      <c r="F16" s="85"/>
-      <c r="G16" s="84"/>
-      <c r="H16" s="84"/>
-      <c r="I16" s="84"/>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="68" t="s">
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+    </row>
+    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="81"/>
+      <c r="E16" s="81"/>
+      <c r="F16" s="82"/>
+      <c r="G16" s="81"/>
+      <c r="H16" s="81"/>
+      <c r="I16" s="81"/>
+      <c r="J16" s="81"/>
+      <c r="K16" s="81"/>
+      <c r="L16" s="81"/>
+      <c r="M16" s="81"/>
+      <c r="N16" s="66" t="s">
         <v>149</v>
       </c>
       <c r="O16" s="62"/>
       <c r="P16" s="63"/>
-      <c r="Q16" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R16" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S16" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T16" s="74" t="s">
+      <c r="Q16" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="72" t="s">
         <v>93</v>
       </c>
       <c r="U16" s="58"/>
@@ -4351,19 +4403,19 @@
       <c r="W16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X16" s="72" t="s">
+      <c r="X16" s="70" t="s">
         <v>106</v>
       </c>
-      <c r="Y16" s="66"/>
-      <c r="Z16" s="66"/>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="62" t="s">
         <v>133</v>
       </c>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" spans="2:32" s="77" customFormat="1">
-      <c r="B17" s="81" t="s">
+    <row r="17" spans="2:32" s="74" customFormat="1">
+      <c r="B17" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C17" s="59" t="s">
@@ -4396,16 +4448,16 @@
       </c>
       <c r="O17" s="62"/>
       <c r="P17" s="63"/>
-      <c r="Q17" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R17" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S17" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T17" s="74" t="s">
+      <c r="Q17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="72" t="s">
         <v>94</v>
       </c>
       <c r="U17" s="58"/>
@@ -4413,24 +4465,24 @@
       <c r="W17" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X17" s="72" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y17" s="66">
+      <c r="X17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17" s="58">
         <v>12</v>
       </c>
-      <c r="Z17" s="66"/>
+      <c r="Z17" s="58"/>
       <c r="AA17" s="58"/>
       <c r="AB17" s="62" t="s">
         <v>142</v>
       </c>
       <c r="AC17" s="58"/>
-      <c r="AD17" s="76"/>
-      <c r="AE17" s="76"/>
-      <c r="AF17" s="76"/>
-    </row>
-    <row r="18" spans="2:32" s="77" customFormat="1">
-      <c r="B18" s="81" t="s">
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+    </row>
+    <row r="18" spans="2:32" s="74" customFormat="1">
+      <c r="B18" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C18" s="59" t="s">
@@ -4465,16 +4517,16 @@
       </c>
       <c r="O18" s="62"/>
       <c r="P18" s="63"/>
-      <c r="Q18" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R18" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S18" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T18" s="74" t="s">
+      <c r="Q18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="72" t="s">
         <v>95</v>
       </c>
       <c r="U18" s="58"/>
@@ -4482,13 +4534,13 @@
       <c r="W18" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X18" s="72" t="s">
+      <c r="X18" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y18" s="66">
+      <c r="Y18" s="58">
         <v>8</v>
       </c>
-      <c r="Z18" s="66">
+      <c r="Z18" s="58">
         <v>2</v>
       </c>
       <c r="AA18" s="58"/>
@@ -4496,12 +4548,12 @@
         <v>134</v>
       </c>
       <c r="AC18" s="58"/>
-      <c r="AD18" s="76"/>
-      <c r="AE18" s="76"/>
-      <c r="AF18" s="76"/>
-    </row>
-    <row r="19" spans="2:32" s="77" customFormat="1">
-      <c r="B19" s="81" t="s">
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+    </row>
+    <row r="19" spans="2:32" s="74" customFormat="1">
+      <c r="B19" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C19" s="59" t="s">
@@ -4534,16 +4586,16 @@
       </c>
       <c r="O19" s="62"/>
       <c r="P19" s="63"/>
-      <c r="Q19" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R19" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S19" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T19" s="74" t="s">
+      <c r="Q19" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" s="72" t="s">
         <v>74</v>
       </c>
       <c r="U19" s="58"/>
@@ -4551,24 +4603,24 @@
       <c r="W19" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X19" s="72" t="s">
+      <c r="X19" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y19" s="66">
+      <c r="Y19" s="58">
         <v>5</v>
       </c>
-      <c r="Z19" s="66"/>
+      <c r="Z19" s="58"/>
       <c r="AA19" s="58"/>
       <c r="AB19" s="62" t="s">
         <v>135</v>
       </c>
       <c r="AC19" s="58"/>
-      <c r="AD19" s="76"/>
-      <c r="AE19" s="76"/>
-      <c r="AF19" s="76"/>
-    </row>
-    <row r="20" spans="2:32" s="77" customFormat="1">
-      <c r="B20" s="81" t="s">
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+    </row>
+    <row r="20" spans="2:32" s="74" customFormat="1">
+      <c r="B20" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C20" s="59" t="s">
@@ -4600,17 +4652,17 @@
         <v>158</v>
       </c>
       <c r="O20" s="62"/>
-      <c r="P20" s="78"/>
-      <c r="Q20" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R20" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S20" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T20" s="74" t="s">
+      <c r="P20" s="75"/>
+      <c r="Q20" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="72" t="s">
         <v>75</v>
       </c>
       <c r="U20" s="58"/>
@@ -4618,24 +4670,24 @@
       <c r="W20" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X20" s="72" t="s">
+      <c r="X20" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y20" s="66">
+      <c r="Y20" s="58">
         <v>10</v>
       </c>
-      <c r="Z20" s="66"/>
+      <c r="Z20" s="58"/>
       <c r="AA20" s="58"/>
       <c r="AB20" s="62" t="s">
         <v>137</v>
       </c>
       <c r="AC20" s="58"/>
-      <c r="AD20" s="76"/>
-      <c r="AE20" s="76"/>
-      <c r="AF20" s="76"/>
-    </row>
-    <row r="21" spans="2:32" s="77" customFormat="1">
-      <c r="B21" s="81" t="s">
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+    </row>
+    <row r="21" spans="2:32" s="74" customFormat="1">
+      <c r="B21" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C21" s="59" t="s">
@@ -4668,16 +4720,16 @@
       </c>
       <c r="O21" s="62"/>
       <c r="P21" s="63"/>
-      <c r="Q21" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R21" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S21" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T21" s="74" t="s">
+      <c r="Q21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="72" t="s">
         <v>76</v>
       </c>
       <c r="U21" s="58"/>
@@ -4685,24 +4737,24 @@
       <c r="W21" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X21" s="72" t="s">
+      <c r="X21" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y21" s="66">
+      <c r="Y21" s="58">
         <v>2</v>
       </c>
-      <c r="Z21" s="66"/>
+      <c r="Z21" s="58"/>
       <c r="AA21" s="58"/>
       <c r="AB21" s="62" t="s">
         <v>136</v>
       </c>
       <c r="AC21" s="58"/>
-      <c r="AD21" s="76"/>
-      <c r="AE21" s="76"/>
-      <c r="AF21" s="76"/>
-    </row>
-    <row r="22" spans="2:32" s="77" customFormat="1">
-      <c r="B22" s="81" t="s">
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+    </row>
+    <row r="22" spans="2:32" s="74" customFormat="1">
+      <c r="B22" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C22" s="59" t="s">
@@ -4735,16 +4787,16 @@
       </c>
       <c r="O22" s="62"/>
       <c r="P22" s="63"/>
-      <c r="Q22" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R22" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S22" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T22" s="74" t="s">
+      <c r="Q22" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="72" t="s">
         <v>77</v>
       </c>
       <c r="U22" s="58"/>
@@ -4752,24 +4804,24 @@
       <c r="W22" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X22" s="72" t="s">
+      <c r="X22" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y22" s="66">
+      <c r="Y22" s="58">
         <v>15</v>
       </c>
-      <c r="Z22" s="66"/>
+      <c r="Z22" s="58"/>
       <c r="AA22" s="58"/>
       <c r="AB22" s="62" t="s">
         <v>138</v>
       </c>
       <c r="AC22" s="58"/>
-      <c r="AD22" s="76"/>
-      <c r="AE22" s="76"/>
-      <c r="AF22" s="76"/>
-    </row>
-    <row r="23" spans="2:32" s="77" customFormat="1">
-      <c r="B23" s="81" t="s">
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+    </row>
+    <row r="23" spans="2:32" s="74" customFormat="1">
+      <c r="B23" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C23" s="59" t="s">
@@ -4802,16 +4854,16 @@
       </c>
       <c r="O23" s="62"/>
       <c r="P23" s="63"/>
-      <c r="Q23" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R23" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S23" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T23" s="74" t="s">
+      <c r="Q23" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="72" t="s">
         <v>78</v>
       </c>
       <c r="U23" s="58"/>
@@ -4819,24 +4871,24 @@
       <c r="W23" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X23" s="72" t="s">
+      <c r="X23" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y23" s="66">
+      <c r="Y23" s="58">
         <v>2</v>
       </c>
-      <c r="Z23" s="66"/>
+      <c r="Z23" s="58"/>
       <c r="AA23" s="58"/>
       <c r="AB23" s="62" t="s">
         <v>139</v>
       </c>
       <c r="AC23" s="58"/>
-      <c r="AD23" s="76"/>
-      <c r="AE23" s="76"/>
-      <c r="AF23" s="76"/>
-    </row>
-    <row r="24" spans="2:32" s="77" customFormat="1">
-      <c r="B24" s="81" t="s">
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+    </row>
+    <row r="24" spans="2:32" s="74" customFormat="1">
+      <c r="B24" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C24" s="59" t="s">
@@ -4869,16 +4921,16 @@
       </c>
       <c r="O24" s="62"/>
       <c r="P24" s="63"/>
-      <c r="Q24" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R24" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S24" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T24" s="74" t="s">
+      <c r="Q24" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="72" t="s">
         <v>79</v>
       </c>
       <c r="U24" s="58"/>
@@ -4886,24 +4938,24 @@
       <c r="W24" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X24" s="72" t="s">
+      <c r="X24" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y24" s="66">
-        <v>3</v>
-      </c>
-      <c r="Z24" s="66"/>
+      <c r="Y24" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="58"/>
       <c r="AA24" s="58"/>
       <c r="AB24" s="62" t="s">
         <v>140</v>
       </c>
       <c r="AC24" s="58"/>
-      <c r="AD24" s="76"/>
-      <c r="AE24" s="76"/>
-      <c r="AF24" s="76"/>
-    </row>
-    <row r="25" spans="2:32" s="77" customFormat="1" ht="15" customHeight="1">
-      <c r="B25" s="81" t="s">
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+    </row>
+    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C25" s="59" t="s">
@@ -4936,16 +4988,16 @@
       </c>
       <c r="O25" s="62"/>
       <c r="P25" s="63"/>
-      <c r="Q25" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R25" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S25" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T25" s="74" t="s">
+      <c r="Q25" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="62" t="s">
         <v>96</v>
       </c>
       <c r="U25" s="58"/>
@@ -4953,35 +5005,35 @@
       <c r="W25" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X25" s="72" t="s">
+      <c r="X25" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y25" s="66">
+      <c r="Y25" s="58">
         <v>10</v>
       </c>
-      <c r="Z25" s="66"/>
+      <c r="Z25" s="58"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="62" t="s">
         <v>141</v>
       </c>
       <c r="AC25" s="58"/>
-      <c r="AD25" s="76"/>
-      <c r="AE25" s="76"/>
-      <c r="AF25" s="76"/>
-    </row>
-    <row r="26" spans="2:32" s="73" customFormat="1" ht="65.25" customHeight="1">
-      <c r="B26" s="82"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="84"/>
-      <c r="E26" s="84"/>
-      <c r="F26" s="85"/>
-      <c r="G26" s="87"/>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
-      <c r="J26" s="84"/>
-      <c r="K26" s="84"/>
-      <c r="L26" s="84"/>
-      <c r="M26" s="84"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+    </row>
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="65.25" customHeight="1">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="81"/>
+      <c r="E26" s="81"/>
+      <c r="F26" s="82"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="81"/>
+      <c r="K26" s="81"/>
+      <c r="L26" s="81"/>
+      <c r="M26" s="81"/>
       <c r="N26" s="55" t="s">
         <v>160</v>
       </c>
@@ -4990,13 +5042,13 @@
       <c r="Q26" s="58" t="s">
         <v>120</v>
       </c>
-      <c r="R26" s="86" t="s">
+      <c r="R26" s="83" t="s">
         <v>122</v>
       </c>
       <c r="S26" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="T26" s="71" t="s">
+      <c r="T26" s="69" t="s">
         <v>97</v>
       </c>
       <c r="U26" s="61"/>
@@ -5004,47 +5056,47 @@
       <c r="W26" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X26" s="72" t="s">
+      <c r="X26" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y26" s="66">
+      <c r="Y26" s="64">
         <v>30</v>
       </c>
-      <c r="Z26" s="66"/>
+      <c r="Z26" s="64"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="62" t="s">
         <v>126</v>
       </c>
       <c r="AC26" s="58"/>
     </row>
-    <row r="27" spans="2:32" s="77" customFormat="1" ht="36">
-      <c r="B27" s="82"/>
-      <c r="C27" s="83"/>
-      <c r="D27" s="84"/>
-      <c r="E27" s="84"/>
-      <c r="F27" s="85"/>
-      <c r="G27" s="84"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
-      <c r="J27" s="84"/>
-      <c r="K27" s="84"/>
-      <c r="L27" s="84"/>
-      <c r="M27" s="84"/>
+    <row r="27" spans="2:32" s="74" customFormat="1" ht="36">
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="81"/>
+      <c r="E27" s="81"/>
+      <c r="F27" s="82"/>
+      <c r="G27" s="81"/>
+      <c r="H27" s="81"/>
+      <c r="I27" s="81"/>
+      <c r="J27" s="81"/>
+      <c r="K27" s="81"/>
+      <c r="L27" s="81"/>
+      <c r="M27" s="81"/>
       <c r="N27" s="55" t="s">
         <v>161</v>
       </c>
       <c r="O27" s="62"/>
       <c r="P27" s="63"/>
-      <c r="Q27" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R27" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S27" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T27" s="74" t="s">
+      <c r="Q27" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="72" t="s">
         <v>98</v>
       </c>
       <c r="U27" s="58"/>
@@ -5052,50 +5104,50 @@
       <c r="W27" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X27" s="72" t="s">
+      <c r="X27" s="70" t="s">
         <v>110</v>
       </c>
-      <c r="Y27" s="66">
+      <c r="Y27" s="64">
         <v>15</v>
       </c>
-      <c r="Z27" s="66"/>
+      <c r="Z27" s="64"/>
       <c r="AA27" s="58"/>
       <c r="AB27" s="62" t="s">
         <v>143</v>
       </c>
       <c r="AC27" s="58"/>
-      <c r="AD27" s="76"/>
-      <c r="AE27" s="76"/>
-      <c r="AF27" s="76"/>
-    </row>
-    <row r="28" spans="2:32" s="77" customFormat="1">
-      <c r="B28" s="83"/>
-      <c r="C28" s="83"/>
-      <c r="D28" s="84"/>
-      <c r="E28" s="84"/>
-      <c r="F28" s="85"/>
-      <c r="G28" s="84"/>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
-      <c r="J28" s="84"/>
-      <c r="K28" s="84"/>
-      <c r="L28" s="84"/>
-      <c r="M28" s="84"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+    </row>
+    <row r="28" spans="2:32" s="74" customFormat="1">
+      <c r="B28" s="80"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="81"/>
+      <c r="E28" s="81"/>
+      <c r="F28" s="82"/>
+      <c r="G28" s="81"/>
+      <c r="H28" s="81"/>
+      <c r="I28" s="81"/>
+      <c r="J28" s="81"/>
+      <c r="K28" s="81"/>
+      <c r="L28" s="81"/>
+      <c r="M28" s="81"/>
       <c r="N28" s="58" t="s">
         <v>159</v>
       </c>
       <c r="O28" s="62"/>
       <c r="P28" s="63"/>
-      <c r="Q28" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R28" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S28" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T28" s="70" t="s">
+      <c r="Q28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="68" t="s">
         <v>84</v>
       </c>
       <c r="U28" s="58"/>
@@ -5103,13 +5155,13 @@
       <c r="W28" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X28" s="72" t="s">
+      <c r="X28" s="70" t="s">
         <v>108</v>
       </c>
-      <c r="Y28" s="66">
+      <c r="Y28" s="64">
         <v>6</v>
       </c>
-      <c r="Z28" s="66">
+      <c r="Z28" s="64">
         <v>2</v>
       </c>
       <c r="AA28" s="58"/>
@@ -5117,12 +5169,12 @@
         <v>146</v>
       </c>
       <c r="AC28" s="58"/>
-      <c r="AD28" s="76"/>
-      <c r="AE28" s="76"/>
-      <c r="AF28" s="76"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
     </row>
     <row r="29" spans="2:32">
-      <c r="B29" s="81" t="s">
+      <c r="B29" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C29" s="59" t="s">
@@ -5134,8 +5186,8 @@
       <c r="F29" s="60" t="s">
         <v>166</v>
       </c>
-      <c r="H29" s="93"/>
-      <c r="I29" s="93" t="s">
+      <c r="H29" s="90"/>
+      <c r="I29" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J29" s="58" t="s">
@@ -5144,15 +5196,15 @@
       <c r="K29" s="58">
         <v>1</v>
       </c>
-      <c r="L29" s="94"/>
-      <c r="M29" s="93"/>
+      <c r="L29" s="91"/>
+      <c r="M29" s="90"/>
       <c r="N29" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q29" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R29" s="86" t="s">
+      <c r="Q29" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="83" t="s">
         <v>122</v>
       </c>
       <c r="T29" s="60" t="s">
@@ -5168,13 +5220,13 @@
       <c r="Y29" s="58">
         <v>1</v>
       </c>
-      <c r="Z29" s="66"/>
+      <c r="Z29" s="64"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
     </row>
     <row r="30" spans="2:32">
-      <c r="B30" s="81" t="s">
+      <c r="B30" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="59" t="s">
@@ -5186,25 +5238,25 @@
       <c r="F30" s="60" t="s">
         <v>169</v>
       </c>
-      <c r="H30" s="93"/>
-      <c r="I30" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="94" t="s">
+      <c r="H30" s="90"/>
+      <c r="I30" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="94">
+      <c r="K30" s="91">
         <v>3</v>
       </c>
-      <c r="L30" s="94"/>
-      <c r="M30" s="93"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="90"/>
       <c r="N30" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q30" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R30" s="86" t="s">
+      <c r="Q30" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="83" t="s">
         <v>122</v>
       </c>
       <c r="T30" s="60" t="s">
@@ -5214,19 +5266,19 @@
       <c r="W30" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X30" s="94" t="s">
+      <c r="X30" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="Y30" s="94">
+      <c r="Y30" s="91">
         <v>3</v>
       </c>
-      <c r="Z30" s="66"/>
+      <c r="Z30" s="64"/>
       <c r="AA30" s="58"/>
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
     </row>
     <row r="31" spans="2:32">
-      <c r="B31" s="81" t="s">
+      <c r="B31" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="59" t="s">
@@ -5238,8 +5290,8 @@
       <c r="F31" s="60" t="s">
         <v>168</v>
       </c>
-      <c r="H31" s="93"/>
-      <c r="I31" s="93" t="s">
+      <c r="H31" s="90"/>
+      <c r="I31" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J31" s="58" t="s">
@@ -5248,37 +5300,37 @@
       <c r="K31" s="58">
         <v>10</v>
       </c>
-      <c r="L31" s="94"/>
-      <c r="M31" s="93"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="90"/>
       <c r="N31" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q31" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R31" s="86" t="s">
+      <c r="Q31" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="83" t="s">
         <v>122</v>
       </c>
       <c r="T31" s="60" t="s">
         <v>168</v>
       </c>
       <c r="V31" s="58"/>
-      <c r="W31" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X31" s="94" t="s">
+      <c r="W31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y31" s="94">
+      <c r="Y31" s="58">
         <v>10</v>
       </c>
-      <c r="Z31" s="66"/>
+      <c r="Z31" s="64"/>
       <c r="AA31" s="58"/>
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
     </row>
-    <row r="32" spans="2:32" s="69" customFormat="1">
-      <c r="B32" s="81" t="s">
+    <row r="32" spans="2:32" s="67" customFormat="1">
+      <c r="B32" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C32" s="59" t="s">
@@ -5311,30 +5363,30 @@
       </c>
       <c r="O32" s="62"/>
       <c r="P32" s="63"/>
-      <c r="Q32" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R32" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S32" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T32" s="60" t="s">
+      <c r="Q32" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" s="58" t="s">
         <v>85</v>
       </c>
       <c r="U32" s="61"/>
       <c r="V32" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="W32" s="94"/>
-      <c r="X32" s="94" t="s">
+      <c r="W32" s="91"/>
+      <c r="X32" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y32" s="94">
+      <c r="Y32" s="58">
         <v>6</v>
       </c>
-      <c r="Z32" s="66"/>
+      <c r="Z32" s="64"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58" t="s">
         <v>125</v>
@@ -5348,54 +5400,54 @@
       <c r="C33" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="81" t="s">
+      <c r="D33" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="F33" s="95" t="s">
+      <c r="F33" s="92" t="s">
         <v>173</v>
       </c>
-      <c r="H33" s="94"/>
-      <c r="I33" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="95" t="s">
+      <c r="H33" s="91"/>
+      <c r="I33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="94"/>
-      <c r="L33" s="94"/>
-      <c r="M33" s="94"/>
-      <c r="N33" s="96" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="91"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="O33" s="94"/>
-      <c r="P33" s="94"/>
-      <c r="Q33" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="R33" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S33" s="94"/>
-      <c r="T33" s="95" t="s">
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" s="91"/>
+      <c r="T33" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="V33" s="98"/>
-      <c r="W33" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X33" s="94" t="s">
+      <c r="V33" s="95"/>
+      <c r="W33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="Y33" s="94"/>
-      <c r="Z33" s="94"/>
-      <c r="AA33" s="94"/>
-      <c r="AB33" s="94"/>
-      <c r="AC33" s="94"/>
-      <c r="AD33" s="99"/>
-      <c r="AE33" s="99"/>
-      <c r="AF33" s="99"/>
-      <c r="AG33" s="99"/>
-      <c r="AH33" s="99"/>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
     </row>
     <row r="34" spans="2:34" s="6" customFormat="1">
       <c r="B34" s="58" t="s">
@@ -5404,57 +5456,57 @@
       <c r="C34" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="81" t="s">
+      <c r="D34" s="78" t="s">
         <v>99</v>
       </c>
-      <c r="F34" s="95" t="s">
+      <c r="F34" s="92" t="s">
         <v>174</v>
       </c>
-      <c r="H34" s="94"/>
-      <c r="I34" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="95" t="s">
+      <c r="H34" s="91"/>
+      <c r="I34" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="94"/>
-      <c r="L34" s="94"/>
-      <c r="M34" s="94"/>
-      <c r="N34" s="96" t="s">
+      <c r="K34" s="91"/>
+      <c r="L34" s="91"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="93" t="s">
         <v>158</v>
       </c>
-      <c r="O34" s="94"/>
-      <c r="P34" s="94"/>
-      <c r="Q34" s="97" t="s">
-        <v>120</v>
-      </c>
-      <c r="R34" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="S34" s="94"/>
-      <c r="T34" s="95" t="s">
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="91"/>
+      <c r="T34" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="V34" s="98"/>
-      <c r="W34" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X34" s="94" t="s">
+      <c r="V34" s="95"/>
+      <c r="W34" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="Y34" s="94"/>
-      <c r="Z34" s="94"/>
-      <c r="AA34" s="94"/>
-      <c r="AB34" s="94"/>
-      <c r="AC34" s="94"/>
-      <c r="AD34" s="99"/>
-      <c r="AE34" s="99"/>
-      <c r="AF34" s="99"/>
-      <c r="AG34" s="99"/>
-      <c r="AH34" s="99"/>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="96"/>
     </row>
     <row r="35" spans="2:34">
-      <c r="B35" s="81" t="s">
+      <c r="B35" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="59" t="s">
@@ -5466,8 +5518,8 @@
       <c r="F35" s="60" t="s">
         <v>164</v>
       </c>
-      <c r="H35" s="93"/>
-      <c r="I35" s="93" t="s">
+      <c r="H35" s="90"/>
+      <c r="I35" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J35" s="58" t="s">
@@ -5476,37 +5528,37 @@
       <c r="K35" s="58">
         <v>1</v>
       </c>
-      <c r="L35" s="94"/>
-      <c r="M35" s="93"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="90"/>
       <c r="N35" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q35" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R35" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T35" s="60" t="s">
+      <c r="Q35" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="58" t="s">
         <v>164</v>
       </c>
       <c r="V35" s="58"/>
-      <c r="W35" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X35" s="94" t="s">
+      <c r="W35" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y35" s="94">
+      <c r="Y35" s="58">
         <v>1</v>
       </c>
-      <c r="Z35" s="66"/>
+      <c r="Z35" s="64"/>
       <c r="AA35" s="58"/>
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
     </row>
     <row r="36" spans="2:34">
-      <c r="B36" s="81" t="s">
+      <c r="B36" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C36" s="59" t="s">
@@ -5518,8 +5570,8 @@
       <c r="F36" s="60" t="s">
         <v>165</v>
       </c>
-      <c r="H36" s="93"/>
-      <c r="I36" s="93" t="s">
+      <c r="H36" s="90"/>
+      <c r="I36" s="90" t="s">
         <v>109</v>
       </c>
       <c r="J36" s="58" t="s">
@@ -5528,37 +5580,37 @@
       <c r="K36" s="58">
         <v>1</v>
       </c>
-      <c r="L36" s="94"/>
-      <c r="M36" s="93"/>
+      <c r="L36" s="91"/>
+      <c r="M36" s="90"/>
       <c r="N36" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q36" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R36" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T36" s="60" t="s">
+      <c r="Q36" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T36" s="58" t="s">
         <v>165</v>
       </c>
       <c r="V36" s="58"/>
-      <c r="W36" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X36" s="94" t="s">
+      <c r="W36" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X36" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="Y36" s="94">
+      <c r="Y36" s="58">
         <v>1</v>
       </c>
-      <c r="Z36" s="66"/>
+      <c r="Z36" s="64"/>
       <c r="AA36" s="58"/>
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
     </row>
     <row r="37" spans="2:34">
-      <c r="B37" s="81" t="s">
+      <c r="B37" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="59" t="s">
@@ -5570,47 +5622,47 @@
       <c r="F37" s="60" t="s">
         <v>170</v>
       </c>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="94" t="s">
+      <c r="H37" s="90"/>
+      <c r="I37" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="94">
+      <c r="K37" s="91">
         <v>3</v>
       </c>
-      <c r="L37" s="94"/>
-      <c r="M37" s="93"/>
+      <c r="L37" s="91"/>
+      <c r="M37" s="90"/>
       <c r="N37" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q37" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T37" s="60" t="s">
+      <c r="Q37" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T37" s="58" t="s">
         <v>170</v>
       </c>
       <c r="V37" s="58"/>
-      <c r="W37" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X37" s="94" t="s">
+      <c r="W37" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37" s="91" t="s">
         <v>110</v>
       </c>
-      <c r="Y37" s="94">
+      <c r="Y37" s="91">
         <v>3</v>
       </c>
-      <c r="Z37" s="66"/>
+      <c r="Z37" s="64"/>
       <c r="AA37" s="58"/>
       <c r="AB37" s="58"/>
       <c r="AC37" s="58"/>
     </row>
     <row r="38" spans="2:34">
-      <c r="B38" s="81" t="s">
+      <c r="B38" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C38" s="59" t="s">
@@ -5622,43 +5674,43 @@
       <c r="F38" s="60" t="s">
         <v>163</v>
       </c>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="94" t="s">
+      <c r="H38" s="90"/>
+      <c r="I38" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="94"/>
-      <c r="L38" s="94"/>
-      <c r="M38" s="93"/>
+      <c r="K38" s="91"/>
+      <c r="L38" s="91"/>
+      <c r="M38" s="90"/>
       <c r="N38" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q38" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="60" t="s">
+      <c r="Q38" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="58" t="s">
         <v>163</v>
       </c>
       <c r="V38" s="58"/>
-      <c r="W38" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X38" s="94" t="s">
+      <c r="W38" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="Y38" s="94"/>
-      <c r="Z38" s="66"/>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="64"/>
       <c r="AA38" s="58"/>
       <c r="AB38" s="58"/>
       <c r="AC38" s="58"/>
     </row>
     <row r="39" spans="2:34">
-      <c r="B39" s="81" t="s">
+      <c r="B39" s="78" t="s">
         <v>121</v>
       </c>
       <c r="C39" s="59" t="s">
@@ -5670,208 +5722,208 @@
       <c r="F39" s="60" t="s">
         <v>162</v>
       </c>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="94" t="s">
+      <c r="H39" s="90"/>
+      <c r="I39" s="90" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="94"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="93"/>
+      <c r="K39" s="91"/>
+      <c r="L39" s="91"/>
+      <c r="M39" s="90"/>
       <c r="N39" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q39" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R39" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="60" t="s">
+      <c r="Q39" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R39" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="58" t="s">
         <v>162</v>
       </c>
       <c r="V39" s="58"/>
-      <c r="W39" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X39" s="94" t="s">
+      <c r="W39" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="Y39" s="94"/>
-      <c r="Z39" s="66"/>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="64"/>
       <c r="AA39" s="58"/>
       <c r="AB39" s="58"/>
       <c r="AC39" s="58"/>
     </row>
     <row r="40" spans="2:34">
-      <c r="B40" s="100" t="s">
+      <c r="B40" s="97" t="s">
         <v>121</v>
       </c>
-      <c r="C40" s="101" t="s">
-        <v>120</v>
-      </c>
-      <c r="D40" s="102" t="s">
+      <c r="C40" s="98" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="99" t="s">
         <v>99</v>
       </c>
-      <c r="F40" s="103" t="s">
+      <c r="F40" s="100" t="s">
         <v>167</v>
       </c>
-      <c r="H40" s="104"/>
-      <c r="I40" s="104" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" s="102" t="s">
+      <c r="H40" s="101"/>
+      <c r="I40" s="101" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="K40" s="102">
+      <c r="K40" s="99">
         <v>1</v>
       </c>
-      <c r="L40" s="105"/>
-      <c r="M40" s="104"/>
+      <c r="L40" s="102"/>
+      <c r="M40" s="101"/>
       <c r="N40" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="Q40" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R40" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T40" s="60" t="s">
+      <c r="Q40" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T40" s="58" t="s">
         <v>167</v>
       </c>
       <c r="V40" s="58"/>
-      <c r="W40" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="X40" s="94" t="s">
+      <c r="W40" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="Y40" s="94">
+      <c r="Y40" s="99">
         <v>1</v>
       </c>
-      <c r="Z40" s="66"/>
+      <c r="Z40" s="64"/>
       <c r="AA40" s="58"/>
       <c r="AB40" s="58"/>
       <c r="AC40" s="58"/>
     </row>
     <row r="41" spans="2:34">
-      <c r="B41" s="106"/>
-      <c r="C41" s="106"/>
-      <c r="D41" s="107"/>
-      <c r="E41" s="107"/>
-      <c r="F41" s="107"/>
-      <c r="G41" s="106"/>
-      <c r="H41" s="106"/>
-      <c r="I41" s="106"/>
-      <c r="J41" s="108"/>
-      <c r="K41" s="108"/>
-      <c r="L41" s="108"/>
-      <c r="M41" s="106"/>
-      <c r="N41" s="109" t="s">
+      <c r="B41" s="103"/>
+      <c r="C41" s="103"/>
+      <c r="D41" s="104"/>
+      <c r="E41" s="104"/>
+      <c r="F41" s="104"/>
+      <c r="G41" s="103"/>
+      <c r="H41" s="103"/>
+      <c r="I41" s="103"/>
+      <c r="J41" s="105"/>
+      <c r="K41" s="105"/>
+      <c r="L41" s="105"/>
+      <c r="M41" s="103"/>
+      <c r="N41" s="58" t="s">
         <v>175</v>
       </c>
-      <c r="Q41" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R41" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T41" s="109" t="s">
+      <c r="Q41" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T41" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="V41" s="93"/>
-      <c r="W41" s="94" t="s">
+      <c r="V41" s="90"/>
+      <c r="W41" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="X41" s="94" t="s">
+      <c r="X41" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="Y41" s="94">
+      <c r="Y41" s="91">
         <v>2</v>
       </c>
-      <c r="Z41" s="111"/>
-      <c r="AA41" s="93"/>
-      <c r="AB41" s="93"/>
-      <c r="AC41" s="93"/>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
     </row>
     <row r="42" spans="2:34">
-      <c r="B42" s="106"/>
-      <c r="C42" s="106"/>
-      <c r="D42" s="107"/>
-      <c r="E42" s="107"/>
-      <c r="F42" s="107"/>
-      <c r="G42" s="106"/>
-      <c r="H42" s="106"/>
-      <c r="I42" s="106"/>
-      <c r="J42" s="108"/>
-      <c r="K42" s="108"/>
-      <c r="L42" s="108"/>
-      <c r="M42" s="106"/>
-      <c r="N42" s="109" t="s">
+      <c r="B42" s="103"/>
+      <c r="C42" s="103"/>
+      <c r="D42" s="104"/>
+      <c r="E42" s="104"/>
+      <c r="F42" s="104"/>
+      <c r="G42" s="103"/>
+      <c r="H42" s="103"/>
+      <c r="I42" s="103"/>
+      <c r="J42" s="105"/>
+      <c r="K42" s="105"/>
+      <c r="L42" s="105"/>
+      <c r="M42" s="103"/>
+      <c r="N42" s="58" t="s">
         <v>176</v>
       </c>
-      <c r="Q42" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R42" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T42" s="109" t="s">
+      <c r="Q42" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R42" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="V42" s="93"/>
-      <c r="W42" s="94" t="s">
+      <c r="V42" s="90"/>
+      <c r="W42" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="X42" s="94" t="s">
+      <c r="X42" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="Y42" s="94">
+      <c r="Y42" s="91">
         <v>2</v>
       </c>
-      <c r="Z42" s="111"/>
-      <c r="AA42" s="93"/>
-      <c r="AB42" s="93"/>
-      <c r="AC42" s="93"/>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
     </row>
     <row r="43" spans="2:34">
-      <c r="B43" s="106"/>
-      <c r="C43" s="106"/>
-      <c r="D43" s="107"/>
-      <c r="E43" s="107"/>
-      <c r="F43" s="107"/>
-      <c r="G43" s="106"/>
-      <c r="H43" s="106"/>
-      <c r="I43" s="106"/>
-      <c r="J43" s="108"/>
-      <c r="K43" s="108"/>
-      <c r="L43" s="108"/>
-      <c r="M43" s="106"/>
-      <c r="N43" s="110"/>
-      <c r="Q43" s="81" t="s">
-        <v>120</v>
-      </c>
-      <c r="R43" s="86" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="109" t="s">
+      <c r="B43" s="103"/>
+      <c r="C43" s="103"/>
+      <c r="D43" s="104"/>
+      <c r="E43" s="104"/>
+      <c r="F43" s="104"/>
+      <c r="G43" s="103"/>
+      <c r="H43" s="103"/>
+      <c r="I43" s="103"/>
+      <c r="J43" s="105"/>
+      <c r="K43" s="105"/>
+      <c r="L43" s="105"/>
+      <c r="M43" s="103"/>
+      <c r="N43" s="58"/>
+      <c r="Q43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="V43" s="93"/>
-      <c r="W43" s="94" t="s">
+      <c r="V43" s="90"/>
+      <c r="W43" s="91" t="s">
         <v>172</v>
       </c>
-      <c r="X43" s="94" t="s">
+      <c r="X43" s="99" t="s">
         <v>106</v>
       </c>
-      <c r="Y43" s="94"/>
-      <c r="Z43" s="111"/>
-      <c r="AA43" s="93"/>
-      <c r="AB43" s="93"/>
-      <c r="AC43" s="93"/>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -5891,9 +5943,2518 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
+  <dimension ref="B1:AH43"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="47" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="2:32" ht="25.5" customHeight="1">
+      <c r="B2" s="152" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="153"/>
+      <c r="D2" s="153"/>
+      <c r="E2" s="153"/>
+      <c r="F2" s="153"/>
+      <c r="G2" s="153"/>
+      <c r="H2" s="153"/>
+      <c r="I2" s="153"/>
+      <c r="J2" s="153"/>
+      <c r="K2" s="153"/>
+      <c r="L2" s="153"/>
+      <c r="M2" s="153"/>
+      <c r="N2" s="154" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="154"/>
+      <c r="P2" s="155"/>
+      <c r="Q2" s="156" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="157"/>
+      <c r="S2" s="157"/>
+      <c r="T2" s="157"/>
+      <c r="U2" s="157"/>
+      <c r="V2" s="157"/>
+      <c r="W2" s="157"/>
+      <c r="X2" s="157"/>
+      <c r="Y2" s="157"/>
+      <c r="Z2" s="157"/>
+      <c r="AA2" s="157"/>
+      <c r="AB2" s="158"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="62" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="64">
+        <v>100</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="64">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="64"/>
+    </row>
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
+      <c r="B5" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="62" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="64">
+        <v>1</v>
+      </c>
+      <c r="L5" s="64"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="64"/>
+    </row>
+    <row r="6" spans="2:32" s="74" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="64">
+        <v>1</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+    </row>
+    <row r="7" spans="2:32" s="74" customFormat="1">
+      <c r="B7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="64">
+        <v>1</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+    </row>
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="162" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="64">
+        <v>10</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" s="64">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="64"/>
+    </row>
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="162" t="s">
+        <v>88</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="64">
+        <v>11</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" s="64">
+        <v>11</v>
+      </c>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="64"/>
+    </row>
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="162" t="s">
+        <v>83</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="58">
+        <v>2</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="58"/>
+    </row>
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="162" t="s">
+        <v>89</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="64">
+        <v>4</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="64">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="64"/>
+    </row>
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="162" t="s">
+        <v>73</v>
+      </c>
+      <c r="G12" s="61"/>
+      <c r="H12" s="61"/>
+      <c r="I12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K12" s="58">
+        <v>4</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U12" s="61"/>
+      <c r="V12" s="61"/>
+      <c r="W12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y12" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F13" s="162" t="s">
+        <v>90</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K13" s="58">
+        <v>1</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y13" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="58"/>
+    </row>
+    <row r="14" spans="2:32" s="74" customFormat="1">
+      <c r="B14" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="64">
+        <v>3</v>
+      </c>
+      <c r="L14" s="64"/>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="64">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="64"/>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+    </row>
+    <row r="15" spans="2:32" s="74" customFormat="1">
+      <c r="B15" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="58" t="s">
+        <v>92</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K15" s="64">
+        <v>6</v>
+      </c>
+      <c r="L15" s="64">
+        <v>2</v>
+      </c>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y15" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z15" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="58"/>
+      <c r="AD15" s="73"/>
+      <c r="AE15" s="73"/>
+      <c r="AF15" s="73"/>
+    </row>
+    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58"/>
+      <c r="F16" s="62" t="s">
+        <v>93</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="62" t="s">
+        <v>106</v>
+      </c>
+      <c r="K16" s="64"/>
+      <c r="L16" s="64"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y16" s="64"/>
+      <c r="Z16" s="64"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="58"/>
+    </row>
+    <row r="17" spans="2:32" s="74" customFormat="1">
+      <c r="B17" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="62" t="s">
+        <v>94</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="58">
+        <v>12</v>
+      </c>
+      <c r="L17" s="58"/>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17" s="58">
+        <v>12</v>
+      </c>
+      <c r="Z17" s="58"/>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+    </row>
+    <row r="18" spans="2:32" s="74" customFormat="1">
+      <c r="B18" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="62" t="s">
+        <v>95</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K18" s="58">
+        <v>8</v>
+      </c>
+      <c r="L18" s="58">
+        <v>2</v>
+      </c>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>8</v>
+      </c>
+      <c r="Z18" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+    </row>
+    <row r="19" spans="2:32" s="74" customFormat="1">
+      <c r="B19" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="62" t="s">
+        <v>74</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="58">
+        <v>5</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O19" s="62"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+    </row>
+    <row r="20" spans="2:32" s="74" customFormat="1">
+      <c r="B20" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="62" t="s">
+        <v>75</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="58">
+        <v>10</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O20" s="62"/>
+      <c r="P20" s="75"/>
+      <c r="Q20" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y20" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+    </row>
+    <row r="21" spans="2:32" s="74" customFormat="1">
+      <c r="B21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="62" t="s">
+        <v>76</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="58">
+        <v>2</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+    </row>
+    <row r="22" spans="2:32" s="74" customFormat="1">
+      <c r="B22" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="62" t="s">
+        <v>77</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="58">
+        <v>15</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" s="58">
+        <v>15</v>
+      </c>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+    </row>
+    <row r="23" spans="2:32" s="74" customFormat="1">
+      <c r="B23" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="62" t="s">
+        <v>78</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="58">
+        <v>2</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+    </row>
+    <row r="24" spans="2:32" s="74" customFormat="1">
+      <c r="B24" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>79</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K24" s="58">
+        <v>5</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y24" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+    </row>
+    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="B25" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G25" s="58"/>
+      <c r="H25" s="58"/>
+      <c r="I25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K25" s="58">
+        <v>10</v>
+      </c>
+      <c r="L25" s="58"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="U25" s="58"/>
+      <c r="V25" s="58"/>
+      <c r="W25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y25" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z25" s="58"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="58"/>
+      <c r="AD25" s="73"/>
+      <c r="AE25" s="73"/>
+      <c r="AF25" s="73"/>
+    </row>
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B26" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="58" t="s">
+        <v>97</v>
+      </c>
+      <c r="G26" s="61"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="64">
+        <v>30</v>
+      </c>
+      <c r="L26" s="64"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S26" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T26" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="U26" s="61"/>
+      <c r="V26" s="61"/>
+      <c r="W26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X26" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="64">
+        <v>30</v>
+      </c>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="58"/>
+    </row>
+    <row r="27" spans="2:32" s="74" customFormat="1">
+      <c r="B27" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="62" t="s">
+        <v>98</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="62" t="s">
+        <v>110</v>
+      </c>
+      <c r="K27" s="64">
+        <v>15</v>
+      </c>
+      <c r="L27" s="64"/>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y27" s="64">
+        <v>15</v>
+      </c>
+      <c r="Z27" s="64"/>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+    </row>
+    <row r="28" spans="2:32" s="74" customFormat="1">
+      <c r="B28" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="58"/>
+      <c r="F28" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="G28" s="58"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="62" t="s">
+        <v>108</v>
+      </c>
+      <c r="K28" s="64">
+        <v>6</v>
+      </c>
+      <c r="L28" s="64">
+        <v>2</v>
+      </c>
+      <c r="M28" s="58"/>
+      <c r="N28" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O28" s="62"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S28" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U28" s="58"/>
+      <c r="V28" s="58"/>
+      <c r="W28" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y28" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z28" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="58"/>
+      <c r="AD28" s="73"/>
+      <c r="AE28" s="73"/>
+      <c r="AF28" s="73"/>
+    </row>
+    <row r="29" spans="2:32">
+      <c r="B29" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="163"/>
+      <c r="F29" s="162" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="164"/>
+      <c r="H29" s="58"/>
+      <c r="I29" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J29" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K29" s="58">
+        <v>1</v>
+      </c>
+      <c r="L29" s="64"/>
+      <c r="M29" s="159"/>
+      <c r="N29" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q29" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="V29" s="58"/>
+      <c r="W29" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X29" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y29" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+    </row>
+    <row r="30" spans="2:32">
+      <c r="B30" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="58"/>
+      <c r="E30" s="163"/>
+      <c r="F30" s="162" t="s">
+        <v>169</v>
+      </c>
+      <c r="G30" s="164"/>
+      <c r="H30" s="58"/>
+      <c r="I30" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="160" t="s">
+        <v>108</v>
+      </c>
+      <c r="K30" s="160">
+        <v>3</v>
+      </c>
+      <c r="L30" s="64"/>
+      <c r="M30" s="159"/>
+      <c r="N30" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q30" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T30" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="V30" s="58"/>
+      <c r="W30" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y30" s="91">
+        <v>3</v>
+      </c>
+      <c r="Z30" s="64"/>
+      <c r="AA30" s="58"/>
+      <c r="AB30" s="58"/>
+      <c r="AC30" s="58"/>
+    </row>
+    <row r="31" spans="2:32">
+      <c r="B31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="58"/>
+      <c r="E31" s="163"/>
+      <c r="F31" s="162" t="s">
+        <v>168</v>
+      </c>
+      <c r="G31" s="164"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K31" s="58">
+        <v>10</v>
+      </c>
+      <c r="L31" s="64"/>
+      <c r="M31" s="159"/>
+      <c r="N31" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q31" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T31" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="V31" s="58"/>
+      <c r="W31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y31" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z31" s="64"/>
+      <c r="AA31" s="58"/>
+      <c r="AB31" s="58"/>
+      <c r="AC31" s="58"/>
+    </row>
+    <row r="32" spans="2:32" s="67" customFormat="1">
+      <c r="B32" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F32" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G32" s="61"/>
+      <c r="H32" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I32" s="160"/>
+      <c r="J32" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K32" s="58">
+        <v>6</v>
+      </c>
+      <c r="L32" s="64"/>
+      <c r="M32" s="58"/>
+      <c r="N32" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O32" s="62"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S32" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="U32" s="61"/>
+      <c r="V32" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="W32" s="91"/>
+      <c r="X32" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y32" s="58">
+        <v>6</v>
+      </c>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+    </row>
+    <row r="33" spans="2:34" s="6" customFormat="1">
+      <c r="B33" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="78"/>
+      <c r="E33" s="165"/>
+      <c r="F33" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G33" s="165"/>
+      <c r="H33" s="78"/>
+      <c r="I33" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="160"/>
+      <c r="L33" s="160"/>
+      <c r="M33" s="160"/>
+      <c r="N33" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O33" s="91"/>
+      <c r="P33" s="91"/>
+      <c r="Q33" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S33" s="91"/>
+      <c r="T33" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="V33" s="95"/>
+      <c r="W33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="91"/>
+      <c r="AA33" s="91"/>
+      <c r="AB33" s="91"/>
+      <c r="AC33" s="91"/>
+      <c r="AD33" s="96"/>
+      <c r="AE33" s="96"/>
+      <c r="AF33" s="96"/>
+      <c r="AG33" s="96"/>
+      <c r="AH33" s="96"/>
+    </row>
+    <row r="34" spans="2:34" s="6" customFormat="1">
+      <c r="B34" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="78"/>
+      <c r="E34" s="165"/>
+      <c r="F34" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G34" s="165"/>
+      <c r="H34" s="78"/>
+      <c r="I34" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J34" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K34" s="160"/>
+      <c r="L34" s="160"/>
+      <c r="M34" s="160"/>
+      <c r="N34" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="O34" s="91"/>
+      <c r="P34" s="91"/>
+      <c r="Q34" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S34" s="91"/>
+      <c r="T34" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="V34" s="95"/>
+      <c r="W34" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X34" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y34" s="91"/>
+      <c r="Z34" s="91"/>
+      <c r="AA34" s="91"/>
+      <c r="AB34" s="91"/>
+      <c r="AC34" s="91"/>
+      <c r="AD34" s="96"/>
+      <c r="AE34" s="96"/>
+      <c r="AF34" s="96"/>
+      <c r="AG34" s="96"/>
+      <c r="AH34" s="96"/>
+    </row>
+    <row r="35" spans="2:34">
+      <c r="B35" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="58"/>
+      <c r="E35" s="163"/>
+      <c r="F35" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G35" s="164"/>
+      <c r="H35" s="58"/>
+      <c r="I35" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J35" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K35" s="58">
+        <v>1</v>
+      </c>
+      <c r="L35" s="64"/>
+      <c r="M35" s="159"/>
+      <c r="N35" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q35" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="V35" s="58"/>
+      <c r="W35" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X35" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y35" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="64"/>
+      <c r="AA35" s="58"/>
+      <c r="AB35" s="58"/>
+      <c r="AC35" s="58"/>
+    </row>
+    <row r="36" spans="2:34">
+      <c r="B36" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C36" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D36" s="58"/>
+      <c r="E36" s="163"/>
+      <c r="F36" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G36" s="164"/>
+      <c r="H36" s="58"/>
+      <c r="I36" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K36" s="58">
+        <v>1</v>
+      </c>
+      <c r="L36" s="64"/>
+      <c r="M36" s="159"/>
+      <c r="N36" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q36" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R36" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T36" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="V36" s="58"/>
+      <c r="W36" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X36" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y36" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="64"/>
+      <c r="AA36" s="58"/>
+      <c r="AB36" s="58"/>
+      <c r="AC36" s="58"/>
+    </row>
+    <row r="37" spans="2:34">
+      <c r="B37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="58"/>
+      <c r="E37" s="163"/>
+      <c r="F37" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G37" s="164"/>
+      <c r="H37" s="58"/>
+      <c r="I37" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="160" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="160">
+        <v>3</v>
+      </c>
+      <c r="L37" s="64"/>
+      <c r="M37" s="159"/>
+      <c r="N37" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q37" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T37" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="V37" s="58"/>
+      <c r="W37" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X37" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="91">
+        <v>3</v>
+      </c>
+      <c r="Z37" s="64"/>
+      <c r="AA37" s="58"/>
+      <c r="AB37" s="58"/>
+      <c r="AC37" s="58"/>
+    </row>
+    <row r="38" spans="2:34">
+      <c r="B38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="163"/>
+      <c r="F38" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G38" s="164"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="K38" s="160"/>
+      <c r="L38" s="64"/>
+      <c r="M38" s="159"/>
+      <c r="N38" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q38" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R38" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T38" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="V38" s="58"/>
+      <c r="W38" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X38" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y38" s="91"/>
+      <c r="Z38" s="64"/>
+      <c r="AA38" s="58"/>
+      <c r="AB38" s="58"/>
+      <c r="AC38" s="58"/>
+    </row>
+    <row r="39" spans="2:34">
+      <c r="B39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="163"/>
+      <c r="F39" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G39" s="164"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="160" t="s">
+        <v>106</v>
+      </c>
+      <c r="K39" s="160"/>
+      <c r="L39" s="64"/>
+      <c r="M39" s="159"/>
+      <c r="N39" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q39" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R39" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T39" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="V39" s="58"/>
+      <c r="W39" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X39" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y39" s="91"/>
+      <c r="Z39" s="64"/>
+      <c r="AA39" s="58"/>
+      <c r="AB39" s="58"/>
+      <c r="AC39" s="58"/>
+    </row>
+    <row r="40" spans="2:34">
+      <c r="B40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="99"/>
+      <c r="E40" s="163"/>
+      <c r="F40" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G40" s="164"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="160" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="99">
+        <v>1</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="161"/>
+      <c r="N40" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q40" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R40" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T40" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="V40" s="58"/>
+      <c r="W40" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X40" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y40" s="99">
+        <v>1</v>
+      </c>
+      <c r="Z40" s="64"/>
+      <c r="AA40" s="58"/>
+      <c r="AB40" s="58"/>
+      <c r="AC40" s="58"/>
+    </row>
+    <row r="41" spans="2:34">
+      <c r="B41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="166"/>
+      <c r="E41" s="166"/>
+      <c r="F41" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G41" s="159"/>
+      <c r="H41" s="159"/>
+      <c r="I41" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="J41" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="160">
+        <v>2</v>
+      </c>
+      <c r="L41" s="167"/>
+      <c r="M41" s="159"/>
+      <c r="N41" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q41" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R41" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T41" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="V41" s="90"/>
+      <c r="W41" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="X41" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y41" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z41" s="106"/>
+      <c r="AA41" s="90"/>
+      <c r="AB41" s="90"/>
+      <c r="AC41" s="90"/>
+    </row>
+    <row r="42" spans="2:34">
+      <c r="B42" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="166"/>
+      <c r="E42" s="166"/>
+      <c r="F42" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G42" s="159"/>
+      <c r="H42" s="159"/>
+      <c r="I42" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="J42" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="160">
+        <v>2</v>
+      </c>
+      <c r="L42" s="167"/>
+      <c r="M42" s="159"/>
+      <c r="N42" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q42" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R42" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T42" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="V42" s="90"/>
+      <c r="W42" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="X42" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y42" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z42" s="106"/>
+      <c r="AA42" s="90"/>
+      <c r="AB42" s="90"/>
+      <c r="AC42" s="90"/>
+    </row>
+    <row r="43" spans="2:34">
+      <c r="B43" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="166"/>
+      <c r="E43" s="166"/>
+      <c r="F43" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G43" s="159"/>
+      <c r="H43" s="159"/>
+      <c r="I43" s="160" t="s">
+        <v>172</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="K43" s="160"/>
+      <c r="L43" s="167"/>
+      <c r="M43" s="159"/>
+      <c r="N43" s="58" t="s">
+        <v>158</v>
+      </c>
+      <c r="Q43" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R43" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="V43" s="90"/>
+      <c r="W43" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="X43" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y43" s="91"/>
+      <c r="Z43" s="106"/>
+      <c r="AA43" s="90"/>
+      <c r="AB43" s="90"/>
+      <c r="AC43" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="B1:Y23"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C18" sqref="C18:C19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
@@ -6145,16 +8706,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101009C760C40915C1B4C80AF9710AA8AB9B3" ma:contentTypeVersion="0" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="1f63d70067374de11fdd4aac465032ce">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="4aeb20c0e3442673af7ee10786458764">
     <xsd:element name="properties">
@@ -6203,39 +8763,25 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+</file>
+
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E5002F17-DDF0-456D-BB3D-9ED669B817C5}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -6250,10 +8796,25 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps4.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5CC0FFEF-7561-4BD7-8EDC-026FC663513F}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" firstSheet="1" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mapeamento!$B$3:$AC$40</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mapeamento (2)'!$B$3:$AC$40</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -1225,8 +1225,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="27" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -2093,6 +2093,51 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2102,15 +2147,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2150,14 +2186,29 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
@@ -2165,6 +2216,15 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2174,21 +2234,12 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2198,36 +2249,12 @@
     <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2248,33 +2275,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2299,7 +2299,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2329,7 +2329,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2396,7 +2396,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2444,7 +2444,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2467,14 +2467,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2517,7 +2517,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2540,14 +2540,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns="" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2561,6 +2561,52 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>2</xdr:col>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>2</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>19</xdr:col>
+          <xdr:colOff>514350</xdr:colOff>
+          <xdr:row>13</xdr:row>
+          <xdr:rowOff>38100</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s15362"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2650,6 +2696,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2684,6 +2731,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2859,7 +2907,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2867,7 +2915,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
@@ -2876,7 +2924,7 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>180</v>
       </c>
@@ -2884,7 +2932,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>185</v>
       </c>
@@ -2892,22 +2940,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C4" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:10">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C6" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -2918,137 +2966,144 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
-    <row r="9" spans="2:10">
-      <c r="B9" s="113" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B9" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="114"/>
-      <c r="D9" s="114"/>
-      <c r="E9" s="114"/>
-      <c r="F9" s="114"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="114"/>
-      <c r="J9" s="115"/>
-    </row>
-    <row r="10" spans="2:10">
-      <c r="B10" s="116"/>
-      <c r="C10" s="117"/>
-      <c r="D10" s="117"/>
-      <c r="E10" s="117"/>
-      <c r="F10" s="117"/>
-      <c r="G10" s="117"/>
-      <c r="H10" s="117"/>
-      <c r="I10" s="117"/>
-      <c r="J10" s="118"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1">
+      <c r="C9" s="126"/>
+      <c r="D9" s="126"/>
+      <c r="E9" s="126"/>
+      <c r="F9" s="126"/>
+      <c r="G9" s="126"/>
+      <c r="H9" s="126"/>
+      <c r="I9" s="126"/>
+      <c r="J9" s="127"/>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B10" s="128"/>
+      <c r="C10" s="129"/>
+      <c r="D10" s="129"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="129"/>
+      <c r="G10" s="129"/>
+      <c r="H10" s="129"/>
+      <c r="I10" s="129"/>
+      <c r="J10" s="130"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B11" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="119" t="s">
+      <c r="D11" s="131" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="119"/>
-      <c r="F11" s="119"/>
-      <c r="G11" s="119" t="s">
+      <c r="E11" s="131"/>
+      <c r="F11" s="131"/>
+      <c r="G11" s="131" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="119"/>
-      <c r="I11" s="119"/>
-      <c r="J11" s="120"/>
-    </row>
-    <row r="12" spans="2:10">
+      <c r="H11" s="131"/>
+      <c r="I11" s="131"/>
+      <c r="J11" s="132"/>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="121" t="s">
+      <c r="D12" s="133" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="122"/>
-      <c r="F12" s="123"/>
-      <c r="G12" s="124" t="s">
+      <c r="E12" s="134"/>
+      <c r="F12" s="135"/>
+      <c r="G12" s="136" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="124"/>
-      <c r="I12" s="124"/>
-      <c r="J12" s="125"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="136"/>
+      <c r="I12" s="136"/>
+      <c r="J12" s="137"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="107"/>
-      <c r="E13" s="108"/>
-      <c r="F13" s="109"/>
-      <c r="G13" s="110"/>
-      <c r="H13" s="111"/>
-      <c r="I13" s="111"/>
-      <c r="J13" s="112"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="D13" s="122"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="119"/>
+      <c r="H13" s="120"/>
+      <c r="I13" s="120"/>
+      <c r="J13" s="121"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="126"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="126"/>
-      <c r="G14" s="110"/>
-      <c r="H14" s="111"/>
-      <c r="I14" s="111"/>
-      <c r="J14" s="112"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="D14" s="116"/>
+      <c r="E14" s="116"/>
+      <c r="F14" s="116"/>
+      <c r="G14" s="119"/>
+      <c r="H14" s="120"/>
+      <c r="I14" s="120"/>
+      <c r="J14" s="121"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="126"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="126"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="111"/>
-      <c r="I15" s="111"/>
-      <c r="J15" s="112"/>
-    </row>
-    <row r="16" spans="2:10">
+      <c r="D15" s="116"/>
+      <c r="E15" s="116"/>
+      <c r="F15" s="116"/>
+      <c r="G15" s="119"/>
+      <c r="H15" s="120"/>
+      <c r="I15" s="120"/>
+      <c r="J15" s="121"/>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="126"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="126"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="111"/>
-      <c r="J16" s="112"/>
-    </row>
-    <row r="17" spans="2:10">
+      <c r="D16" s="116"/>
+      <c r="E16" s="116"/>
+      <c r="F16" s="116"/>
+      <c r="G16" s="119"/>
+      <c r="H16" s="120"/>
+      <c r="I16" s="120"/>
+      <c r="J16" s="121"/>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="126"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="126"/>
-      <c r="G17" s="127"/>
-      <c r="H17" s="127"/>
-      <c r="I17" s="127"/>
-      <c r="J17" s="128"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="D17" s="116"/>
+      <c r="E17" s="116"/>
+      <c r="F17" s="116"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+      <c r="I17" s="117"/>
+      <c r="J17" s="118"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="126"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="126"/>
-      <c r="G18" s="127"/>
-      <c r="H18" s="127"/>
-      <c r="I18" s="127"/>
-      <c r="J18" s="128"/>
+      <c r="D18" s="116"/>
+      <c r="E18" s="116"/>
+      <c r="F18" s="116"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+      <c r="I18" s="117"/>
+      <c r="J18" s="118"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3059,13 +3114,6 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3075,7 +3123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3083,7 +3131,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -3092,7 +3140,7 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18">
+    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
       <c r="C2" s="12" t="s">
         <v>183</v>
       </c>
@@ -3101,7 +3149,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15">
+    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
       <c r="C3" s="12" t="s">
         <v>184</v>
       </c>
@@ -3110,7 +3158,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -3121,64 +3169,64 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
-    <row r="6" spans="2:10">
-      <c r="B6" s="134" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B6" s="145" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="134"/>
-      <c r="D6" s="134"/>
-      <c r="E6" s="134"/>
-      <c r="F6" s="134"/>
-      <c r="G6" s="134"/>
-      <c r="H6" s="134"/>
-      <c r="I6" s="134"/>
-      <c r="J6" s="134"/>
-    </row>
-    <row r="7" spans="2:10">
+      <c r="C6" s="145"/>
+      <c r="D6" s="145"/>
+      <c r="E6" s="145"/>
+      <c r="F6" s="145"/>
+      <c r="G6" s="145"/>
+      <c r="H6" s="145"/>
+      <c r="I6" s="145"/>
+      <c r="J6" s="145"/>
+    </row>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="134" t="s">
+      <c r="D7" s="145" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="134"/>
-      <c r="F7" s="134"/>
-      <c r="G7" s="134"/>
-      <c r="H7" s="134"/>
-      <c r="I7" s="134"/>
-      <c r="J7" s="134"/>
-    </row>
-    <row r="8" spans="2:10">
+      <c r="E7" s="145"/>
+      <c r="F7" s="145"/>
+      <c r="G7" s="145"/>
+      <c r="H7" s="145"/>
+      <c r="I7" s="145"/>
+      <c r="J7" s="145"/>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="135"/>
-      <c r="E8" s="135"/>
-      <c r="F8" s="135"/>
-      <c r="G8" s="135"/>
-      <c r="H8" s="135"/>
-      <c r="I8" s="135"/>
-      <c r="J8" s="135"/>
-    </row>
-    <row r="9" spans="2:10">
+      <c r="D8" s="154"/>
+      <c r="E8" s="154"/>
+      <c r="F8" s="154"/>
+      <c r="G8" s="154"/>
+      <c r="H8" s="154"/>
+      <c r="I8" s="154"/>
+      <c r="J8" s="154"/>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="143"/>
-      <c r="E9" s="144"/>
-      <c r="F9" s="144"/>
-      <c r="G9" s="144"/>
-      <c r="H9" s="144"/>
-      <c r="I9" s="144"/>
-      <c r="J9" s="144"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1">
+      <c r="D9" s="159"/>
+      <c r="E9" s="160"/>
+      <c r="F9" s="160"/>
+      <c r="G9" s="160"/>
+      <c r="H9" s="160"/>
+      <c r="I9" s="160"/>
+      <c r="J9" s="160"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3189,20 +3237,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10">
-      <c r="B11" s="137" t="s">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="B11" s="149" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="138"/>
-      <c r="D11" s="138"/>
-      <c r="E11" s="138"/>
-      <c r="F11" s="138"/>
-      <c r="G11" s="138"/>
-      <c r="H11" s="138"/>
-      <c r="I11" s="138"/>
-      <c r="J11" s="138"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1">
+      <c r="C11" s="150"/>
+      <c r="D11" s="150"/>
+      <c r="E11" s="150"/>
+      <c r="F11" s="150"/>
+      <c r="G11" s="150"/>
+      <c r="H11" s="150"/>
+      <c r="I11" s="150"/>
+      <c r="J11" s="150"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B12" s="40" t="s">
         <v>60</v>
       </c>
@@ -3212,53 +3260,53 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="139" t="s">
+      <c r="E12" s="156" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="141"/>
-      <c r="G12" s="139" t="s">
+      <c r="F12" s="158"/>
+      <c r="G12" s="156" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="140"/>
-      <c r="I12" s="140"/>
-      <c r="J12" s="141"/>
-    </row>
-    <row r="13" spans="2:10">
+      <c r="H12" s="157"/>
+      <c r="I12" s="157"/>
+      <c r="J12" s="158"/>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="77"/>
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="129"/>
-      <c r="F13" s="130"/>
-      <c r="G13" s="142"/>
-      <c r="H13" s="142"/>
-      <c r="I13" s="142"/>
-      <c r="J13" s="142"/>
-    </row>
-    <row r="14" spans="2:10">
+      <c r="E13" s="146"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="148"/>
+      <c r="H13" s="148"/>
+      <c r="I13" s="148"/>
+      <c r="J13" s="148"/>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="77"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="130"/>
-      <c r="G14" s="142"/>
-      <c r="H14" s="142"/>
-      <c r="I14" s="142"/>
-      <c r="J14" s="142"/>
-    </row>
-    <row r="15" spans="2:10">
+      <c r="E14" s="146"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="148"/>
+      <c r="H14" s="148"/>
+      <c r="I14" s="148"/>
+      <c r="J14" s="148"/>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15" s="77"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="130"/>
-      <c r="G15" s="142"/>
-      <c r="H15" s="142"/>
-      <c r="I15" s="142"/>
-      <c r="J15" s="142"/>
-    </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1">
+      <c r="E15" s="146"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="148"/>
+      <c r="H15" s="148"/>
+      <c r="I15" s="148"/>
+      <c r="J15" s="148"/>
+    </row>
+    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3269,14 +3317,14 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="25.5" customHeight="1">
-      <c r="B17" s="137" t="s">
+    <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B17" s="149" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="138"/>
-      <c r="D17" s="138"/>
-    </row>
-    <row r="18" spans="2:10">
+      <c r="C17" s="150"/>
+      <c r="D17" s="150"/>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B18" s="39" t="s">
         <v>61</v>
       </c>
@@ -3287,28 +3335,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B20" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3319,20 +3367,20 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B23" s="134" t="s">
+    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B23" s="145" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="134"/>
-      <c r="D23" s="134"/>
-      <c r="E23" s="134"/>
-      <c r="F23" s="134"/>
-      <c r="G23" s="134"/>
-      <c r="H23" s="134"/>
-      <c r="I23" s="134"/>
-      <c r="J23" s="134"/>
-    </row>
-    <row r="24" spans="2:10">
+      <c r="C23" s="145"/>
+      <c r="D23" s="145"/>
+      <c r="E23" s="145"/>
+      <c r="F23" s="145"/>
+      <c r="G23" s="145"/>
+      <c r="H23" s="145"/>
+      <c r="I23" s="145"/>
+      <c r="J23" s="145"/>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B24" s="44" t="s">
         <v>66</v>
       </c>
@@ -3342,64 +3390,64 @@
       <c r="D24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="136" t="s">
+      <c r="E24" s="155" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="136"/>
-      <c r="G24" s="136" t="s">
+      <c r="F24" s="155"/>
+      <c r="G24" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="136"/>
-      <c r="I24" s="136"/>
-      <c r="J24" s="136"/>
-    </row>
-    <row r="25" spans="2:10">
+      <c r="H24" s="155"/>
+      <c r="I24" s="155"/>
+      <c r="J24" s="155"/>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="145"/>
-      <c r="F25" s="145"/>
-      <c r="G25" s="145"/>
-      <c r="H25" s="145"/>
-      <c r="I25" s="145"/>
-      <c r="J25" s="145"/>
-    </row>
-    <row r="26" spans="2:10">
+      <c r="E25" s="144"/>
+      <c r="F25" s="144"/>
+      <c r="G25" s="144"/>
+      <c r="H25" s="144"/>
+      <c r="I25" s="144"/>
+      <c r="J25" s="144"/>
+    </row>
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="145"/>
-      <c r="F26" s="145"/>
-      <c r="G26" s="145"/>
-      <c r="H26" s="145"/>
-      <c r="I26" s="145"/>
-      <c r="J26" s="145"/>
-    </row>
-    <row r="27" spans="2:10">
+      <c r="E26" s="144"/>
+      <c r="F26" s="144"/>
+      <c r="G26" s="144"/>
+      <c r="H26" s="144"/>
+      <c r="I26" s="144"/>
+      <c r="J26" s="144"/>
+    </row>
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="145"/>
-      <c r="F27" s="145"/>
-      <c r="G27" s="145"/>
-      <c r="H27" s="145"/>
-      <c r="I27" s="145"/>
-      <c r="J27" s="145"/>
-    </row>
-    <row r="29" spans="2:10" ht="12.75" customHeight="1">
-      <c r="B29" s="146" t="s">
+      <c r="E27" s="144"/>
+      <c r="F27" s="144"/>
+      <c r="G27" s="144"/>
+      <c r="H27" s="144"/>
+      <c r="I27" s="144"/>
+      <c r="J27" s="144"/>
+    </row>
+    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="138" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="147"/>
-      <c r="D29" s="147"/>
-      <c r="E29" s="147"/>
-      <c r="F29" s="147"/>
-      <c r="G29" s="147"/>
-      <c r="H29" s="147"/>
-      <c r="I29" s="147"/>
-      <c r="J29" s="148"/>
-    </row>
-    <row r="30" spans="2:10">
+      <c r="C29" s="139"/>
+      <c r="D29" s="139"/>
+      <c r="E29" s="139"/>
+      <c r="F29" s="139"/>
+      <c r="G29" s="139"/>
+      <c r="H29" s="139"/>
+      <c r="I29" s="139"/>
+      <c r="J29" s="140"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="85" t="s">
         <v>152</v>
       </c>
@@ -3409,44 +3457,32 @@
       <c r="D30" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="149" t="s">
+      <c r="E30" s="141" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="150"/>
-      <c r="G30" s="149" t="s">
+      <c r="F30" s="142"/>
+      <c r="G30" s="141" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="151"/>
-      <c r="I30" s="151"/>
-      <c r="J30" s="150"/>
-    </row>
-    <row r="31" spans="2:10">
+      <c r="H30" s="143"/>
+      <c r="I30" s="143"/>
+      <c r="J30" s="142"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="87" t="s">
         <v>156</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="89"/>
-      <c r="E31" s="129"/>
-      <c r="F31" s="130"/>
-      <c r="G31" s="131"/>
-      <c r="H31" s="132"/>
-      <c r="I31" s="132"/>
-      <c r="J31" s="133"/>
+      <c r="E31" s="146"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="151"/>
+      <c r="H31" s="152"/>
+      <c r="I31" s="152"/>
+      <c r="J31" s="153"/>
     </row>
   </sheetData>
   <mergeCells count="28">
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B17:D17"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="B6:J6"/>
@@ -3463,6 +3499,18 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="E27:F27"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B17:D17"/>
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3473,26 +3521,51 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <legacyDrawing r:id="rId1"/>
+  <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <oleObjects>
-    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId2"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>2</xdr:col>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>2</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>19</xdr:col>
+                <xdr:colOff>514350</xdr:colOff>
+                <xdr:row>13</xdr:row>
+                <xdr:rowOff>38100</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3505,7 +3578,7 @@
       <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3541,50 +3614,50 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
     </row>
-    <row r="2" spans="2:32" ht="25.5" customHeight="1">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="2:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="167"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="22.5">
+    <row r="3" spans="2:32" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -3668,7 +3741,7 @@
       </c>
       <c r="AC3" s="54"/>
     </row>
-    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="79"/>
@@ -3716,7 +3789,7 @@
       </c>
       <c r="AC4" s="64"/>
     </row>
-    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="79"/>
       <c r="C5" s="80"/>
       <c r="D5" s="79"/>
@@ -3764,7 +3837,7 @@
       </c>
       <c r="AC5" s="64"/>
     </row>
-    <row r="6" spans="2:32" s="74" customFormat="1">
+    <row r="6" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
@@ -3829,7 +3902,7 @@
       <c r="AE6" s="73"/>
       <c r="AF6" s="73"/>
     </row>
-    <row r="7" spans="2:32" s="74" customFormat="1" ht="24">
+    <row r="7" spans="2:32" s="74" customFormat="1" ht="24" x14ac:dyDescent="0.2">
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="81"/>
@@ -3880,7 +3953,7 @@
       <c r="AE7" s="73"/>
       <c r="AF7" s="73"/>
     </row>
-    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="78" t="s">
         <v>121</v>
       </c>
@@ -3944,7 +4017,7 @@
       </c>
       <c r="AC8" s="64"/>
     </row>
-    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="78" t="s">
         <v>121</v>
       </c>
@@ -4008,7 +4081,7 @@
       </c>
       <c r="AC9" s="64"/>
     </row>
-    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="78" t="s">
         <v>121</v>
       </c>
@@ -4072,7 +4145,7 @@
       </c>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="78" t="s">
         <v>121</v>
       </c>
@@ -4136,7 +4209,7 @@
       </c>
       <c r="AC11" s="64"/>
     </row>
-    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="78" t="s">
         <v>121</v>
       </c>
@@ -4200,7 +4273,7 @@
       </c>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="78" t="s">
         <v>121</v>
       </c>
@@ -4264,7 +4337,7 @@
       </c>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="2:32" s="74" customFormat="1">
+    <row r="14" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
@@ -4315,7 +4388,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
     </row>
-    <row r="15" spans="2:32" s="74" customFormat="1">
+    <row r="15" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -4368,7 +4441,7 @@
       <c r="AE15" s="73"/>
       <c r="AF15" s="73"/>
     </row>
-    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -4414,7 +4487,7 @@
       </c>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" spans="2:32" s="74" customFormat="1">
+    <row r="17" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="78" t="s">
         <v>121</v>
       </c>
@@ -4481,7 +4554,7 @@
       <c r="AE17" s="73"/>
       <c r="AF17" s="73"/>
     </row>
-    <row r="18" spans="2:32" s="74" customFormat="1">
+    <row r="18" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="78" t="s">
         <v>121</v>
       </c>
@@ -4552,7 +4625,7 @@
       <c r="AE18" s="73"/>
       <c r="AF18" s="73"/>
     </row>
-    <row r="19" spans="2:32" s="74" customFormat="1">
+    <row r="19" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="78" t="s">
         <v>121</v>
       </c>
@@ -4619,7 +4692,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
     </row>
-    <row r="20" spans="2:32" s="74" customFormat="1">
+    <row r="20" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="78" t="s">
         <v>121</v>
       </c>
@@ -4686,7 +4759,7 @@
       <c r="AE20" s="73"/>
       <c r="AF20" s="73"/>
     </row>
-    <row r="21" spans="2:32" s="74" customFormat="1">
+    <row r="21" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="78" t="s">
         <v>121</v>
       </c>
@@ -4753,7 +4826,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
     </row>
-    <row r="22" spans="2:32" s="74" customFormat="1">
+    <row r="22" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="78" t="s">
         <v>121</v>
       </c>
@@ -4820,7 +4893,7 @@
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
     </row>
-    <row r="23" spans="2:32" s="74" customFormat="1">
+    <row r="23" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="78" t="s">
         <v>121</v>
       </c>
@@ -4887,7 +4960,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
     </row>
-    <row r="24" spans="2:32" s="74" customFormat="1">
+    <row r="24" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="78" t="s">
         <v>121</v>
       </c>
@@ -4954,7 +5027,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
     </row>
-    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="78" t="s">
         <v>121</v>
       </c>
@@ -5021,7 +5094,7 @@
       <c r="AE25" s="73"/>
       <c r="AF25" s="73"/>
     </row>
-    <row r="26" spans="2:32" s="71" customFormat="1" ht="65.25" customHeight="1">
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5069,7 +5142,7 @@
       </c>
       <c r="AC26" s="58"/>
     </row>
-    <row r="27" spans="2:32" s="74" customFormat="1" ht="36">
+    <row r="27" spans="2:32" s="74" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5120,7 +5193,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
     </row>
-    <row r="28" spans="2:32" s="74" customFormat="1">
+    <row r="28" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5173,7 +5246,7 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="78" t="s">
         <v>121</v>
       </c>
@@ -5225,7 +5298,7 @@
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="78" t="s">
         <v>121</v>
       </c>
@@ -5277,7 +5350,7 @@
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" s="78" t="s">
         <v>121</v>
       </c>
@@ -5329,7 +5402,7 @@
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
     </row>
-    <row r="32" spans="2:32" s="67" customFormat="1">
+    <row r="32" spans="2:32" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="78" t="s">
         <v>121</v>
       </c>
@@ -5393,7 +5466,7 @@
       </c>
       <c r="AC32" s="58"/>
     </row>
-    <row r="33" spans="2:34" s="6" customFormat="1">
+    <row r="33" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="58" t="s">
         <v>121</v>
       </c>
@@ -5449,7 +5522,7 @@
       <c r="AG33" s="96"/>
       <c r="AH33" s="96"/>
     </row>
-    <row r="34" spans="2:34" s="6" customFormat="1">
+    <row r="34" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="58" t="s">
         <v>121</v>
       </c>
@@ -5505,7 +5578,7 @@
       <c r="AG34" s="96"/>
       <c r="AH34" s="96"/>
     </row>
-    <row r="35" spans="2:34">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" s="78" t="s">
         <v>121</v>
       </c>
@@ -5557,7 +5630,7 @@
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
     </row>
-    <row r="36" spans="2:34">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="78" t="s">
         <v>121</v>
       </c>
@@ -5609,7 +5682,7 @@
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
     </row>
-    <row r="37" spans="2:34">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B37" s="78" t="s">
         <v>121</v>
       </c>
@@ -5661,7 +5734,7 @@
       <c r="AB37" s="58"/>
       <c r="AC37" s="58"/>
     </row>
-    <row r="38" spans="2:34">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" s="78" t="s">
         <v>121</v>
       </c>
@@ -5709,7 +5782,7 @@
       <c r="AB38" s="58"/>
       <c r="AC38" s="58"/>
     </row>
-    <row r="39" spans="2:34">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" s="78" t="s">
         <v>121</v>
       </c>
@@ -5757,7 +5830,7 @@
       <c r="AB39" s="58"/>
       <c r="AC39" s="58"/>
     </row>
-    <row r="40" spans="2:34">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="97" t="s">
         <v>121</v>
       </c>
@@ -5809,7 +5882,7 @@
       <c r="AB40" s="58"/>
       <c r="AC40" s="58"/>
     </row>
-    <row r="41" spans="2:34">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="103"/>
       <c r="C41" s="103"/>
       <c r="D41" s="104"/>
@@ -5849,7 +5922,7 @@
       <c r="AB41" s="90"/>
       <c r="AC41" s="90"/>
     </row>
-    <row r="42" spans="2:34">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="103"/>
       <c r="C42" s="103"/>
       <c r="D42" s="104"/>
@@ -5889,7 +5962,7 @@
       <c r="AB42" s="90"/>
       <c r="AC42" s="90"/>
     </row>
-    <row r="43" spans="2:34">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="103"/>
       <c r="C43" s="103"/>
       <c r="D43" s="104"/>
@@ -5939,20 +6012,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="B1:AH43"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -5988,50 +6061,50 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32">
+    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
     </row>
-    <row r="2" spans="2:32" ht="25.5" customHeight="1">
-      <c r="B2" s="152" t="s">
+    <row r="2" spans="2:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B2" s="161" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="153"/>
-      <c r="D2" s="153"/>
-      <c r="E2" s="153"/>
-      <c r="F2" s="153"/>
-      <c r="G2" s="153"/>
-      <c r="H2" s="153"/>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="154" t="s">
+      <c r="C2" s="162"/>
+      <c r="D2" s="162"/>
+      <c r="E2" s="162"/>
+      <c r="F2" s="162"/>
+      <c r="G2" s="162"/>
+      <c r="H2" s="162"/>
+      <c r="I2" s="162"/>
+      <c r="J2" s="162"/>
+      <c r="K2" s="162"/>
+      <c r="L2" s="162"/>
+      <c r="M2" s="162"/>
+      <c r="N2" s="163" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="154"/>
-      <c r="P2" s="155"/>
-      <c r="Q2" s="156" t="s">
+      <c r="O2" s="163"/>
+      <c r="P2" s="164"/>
+      <c r="Q2" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="157"/>
-      <c r="S2" s="157"/>
-      <c r="T2" s="157"/>
-      <c r="U2" s="157"/>
-      <c r="V2" s="157"/>
-      <c r="W2" s="157"/>
-      <c r="X2" s="157"/>
-      <c r="Y2" s="157"/>
-      <c r="Z2" s="157"/>
-      <c r="AA2" s="157"/>
-      <c r="AB2" s="158"/>
+      <c r="R2" s="166"/>
+      <c r="S2" s="166"/>
+      <c r="T2" s="166"/>
+      <c r="U2" s="166"/>
+      <c r="V2" s="166"/>
+      <c r="W2" s="166"/>
+      <c r="X2" s="166"/>
+      <c r="Y2" s="166"/>
+      <c r="Z2" s="166"/>
+      <c r="AA2" s="166"/>
+      <c r="AB2" s="167"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="22.5">
+    <row r="3" spans="2:32" ht="22.5" x14ac:dyDescent="0.2">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -6115,7 +6188,7 @@
       </c>
       <c r="AC3" s="54"/>
     </row>
-    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B4" s="58" t="s">
         <v>121</v>
       </c>
@@ -6173,7 +6246,7 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="64"/>
     </row>
-    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B5" s="58" t="s">
         <v>121</v>
       </c>
@@ -6231,7 +6304,7 @@
       <c r="AB5" s="62"/>
       <c r="AC5" s="64"/>
     </row>
-    <row r="6" spans="2:32" s="74" customFormat="1">
+    <row r="6" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
@@ -6292,7 +6365,7 @@
       <c r="AE6" s="73"/>
       <c r="AF6" s="73"/>
     </row>
-    <row r="7" spans="2:32" s="74" customFormat="1">
+    <row r="7" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B7" s="58" t="s">
         <v>121</v>
       </c>
@@ -6353,7 +6426,7 @@
       <c r="AE7" s="73"/>
       <c r="AF7" s="73"/>
     </row>
-    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B8" s="58" t="s">
         <v>121</v>
       </c>
@@ -6364,7 +6437,7 @@
       <c r="E8" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="162" t="s">
+      <c r="F8" s="110" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="61"/>
@@ -6413,7 +6486,7 @@
       <c r="AB8" s="62"/>
       <c r="AC8" s="64"/>
     </row>
-    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B9" s="58" t="s">
         <v>121</v>
       </c>
@@ -6424,7 +6497,7 @@
       <c r="E9" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="162" t="s">
+      <c r="F9" s="110" t="s">
         <v>88</v>
       </c>
       <c r="G9" s="61"/>
@@ -6473,7 +6546,7 @@
       <c r="AB9" s="62"/>
       <c r="AC9" s="64"/>
     </row>
-    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B10" s="58" t="s">
         <v>121</v>
       </c>
@@ -6484,7 +6557,7 @@
       <c r="E10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="162" t="s">
+      <c r="F10" s="110" t="s">
         <v>83</v>
       </c>
       <c r="G10" s="61"/>
@@ -6533,7 +6606,7 @@
       <c r="AB10" s="62"/>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B11" s="58" t="s">
         <v>121</v>
       </c>
@@ -6544,7 +6617,7 @@
       <c r="E11" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="162" t="s">
+      <c r="F11" s="110" t="s">
         <v>89</v>
       </c>
       <c r="G11" s="61"/>
@@ -6593,7 +6666,7 @@
       <c r="AB11" s="62"/>
       <c r="AC11" s="64"/>
     </row>
-    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B12" s="58" t="s">
         <v>121</v>
       </c>
@@ -6604,7 +6677,7 @@
       <c r="E12" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="162" t="s">
+      <c r="F12" s="110" t="s">
         <v>73</v>
       </c>
       <c r="G12" s="61"/>
@@ -6653,7 +6726,7 @@
       <c r="AB12" s="62"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="58" t="s">
         <v>121</v>
       </c>
@@ -6664,7 +6737,7 @@
       <c r="E13" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F13" s="162" t="s">
+      <c r="F13" s="110" t="s">
         <v>90</v>
       </c>
       <c r="G13" s="58"/>
@@ -6713,7 +6786,7 @@
       <c r="AB13" s="62"/>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="2:32" s="74" customFormat="1">
+    <row r="14" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B14" s="58" t="s">
         <v>121</v>
       </c>
@@ -6774,7 +6847,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
     </row>
-    <row r="15" spans="2:32" s="74" customFormat="1">
+    <row r="15" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B15" s="58" t="s">
         <v>121</v>
       </c>
@@ -6839,7 +6912,7 @@
       <c r="AE15" s="73"/>
       <c r="AF15" s="73"/>
     </row>
-    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="58" t="s">
         <v>121</v>
       </c>
@@ -6893,7 +6966,7 @@
       <c r="AB16" s="62"/>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" spans="2:32" s="74" customFormat="1">
+    <row r="17" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B17" s="58" t="s">
         <v>121</v>
       </c>
@@ -6956,7 +7029,7 @@
       <c r="AE17" s="73"/>
       <c r="AF17" s="73"/>
     </row>
-    <row r="18" spans="2:32" s="74" customFormat="1">
+    <row r="18" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B18" s="58" t="s">
         <v>121</v>
       </c>
@@ -7023,7 +7096,7 @@
       <c r="AE18" s="73"/>
       <c r="AF18" s="73"/>
     </row>
-    <row r="19" spans="2:32" s="74" customFormat="1">
+    <row r="19" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B19" s="58" t="s">
         <v>121</v>
       </c>
@@ -7086,7 +7159,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
     </row>
-    <row r="20" spans="2:32" s="74" customFormat="1">
+    <row r="20" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B20" s="58" t="s">
         <v>121</v>
       </c>
@@ -7149,7 +7222,7 @@
       <c r="AE20" s="73"/>
       <c r="AF20" s="73"/>
     </row>
-    <row r="21" spans="2:32" s="74" customFormat="1">
+    <row r="21" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B21" s="58" t="s">
         <v>121</v>
       </c>
@@ -7212,7 +7285,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
     </row>
-    <row r="22" spans="2:32" s="74" customFormat="1">
+    <row r="22" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B22" s="58" t="s">
         <v>121</v>
       </c>
@@ -7275,7 +7348,7 @@
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
     </row>
-    <row r="23" spans="2:32" s="74" customFormat="1">
+    <row r="23" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B23" s="58" t="s">
         <v>121</v>
       </c>
@@ -7338,7 +7411,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
     </row>
-    <row r="24" spans="2:32" s="74" customFormat="1">
+    <row r="24" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B24" s="58" t="s">
         <v>121</v>
       </c>
@@ -7401,7 +7474,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
     </row>
-    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1">
+    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B25" s="58" t="s">
         <v>121</v>
       </c>
@@ -7464,7 +7537,7 @@
       <c r="AE25" s="73"/>
       <c r="AF25" s="73"/>
     </row>
-    <row r="26" spans="2:32" s="71" customFormat="1" ht="12">
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="B26" s="58" t="s">
         <v>121</v>
       </c>
@@ -7522,7 +7595,7 @@
       <c r="AB26" s="62"/>
       <c r="AC26" s="58"/>
     </row>
-    <row r="27" spans="2:32" s="74" customFormat="1">
+    <row r="27" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B27" s="58" t="s">
         <v>121</v>
       </c>
@@ -7583,7 +7656,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
     </row>
-    <row r="28" spans="2:32" s="74" customFormat="1">
+    <row r="28" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B28" s="58" t="s">
         <v>121</v>
       </c>
@@ -7648,7 +7721,7 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
     </row>
-    <row r="29" spans="2:32">
+    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B29" s="58" t="s">
         <v>121</v>
       </c>
@@ -7656,11 +7729,11 @@
         <v>120</v>
       </c>
       <c r="D29" s="58"/>
-      <c r="E29" s="163"/>
-      <c r="F29" s="162" t="s">
+      <c r="E29" s="111"/>
+      <c r="F29" s="110" t="s">
         <v>166</v>
       </c>
-      <c r="G29" s="164"/>
+      <c r="G29" s="112"/>
       <c r="H29" s="58"/>
       <c r="I29" s="61" t="s">
         <v>109</v>
@@ -7672,7 +7745,7 @@
         <v>1</v>
       </c>
       <c r="L29" s="64"/>
-      <c r="M29" s="159"/>
+      <c r="M29" s="107"/>
       <c r="N29" s="58" t="s">
         <v>158</v>
       </c>
@@ -7700,7 +7773,7 @@
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
     </row>
-    <row r="30" spans="2:32">
+    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B30" s="58" t="s">
         <v>121</v>
       </c>
@@ -7708,23 +7781,23 @@
         <v>120</v>
       </c>
       <c r="D30" s="58"/>
-      <c r="E30" s="163"/>
-      <c r="F30" s="162" t="s">
+      <c r="E30" s="111"/>
+      <c r="F30" s="110" t="s">
         <v>169</v>
       </c>
-      <c r="G30" s="164"/>
+      <c r="G30" s="112"/>
       <c r="H30" s="58"/>
       <c r="I30" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J30" s="160" t="s">
+      <c r="J30" s="108" t="s">
         <v>108</v>
       </c>
-      <c r="K30" s="160">
+      <c r="K30" s="108">
         <v>3</v>
       </c>
       <c r="L30" s="64"/>
-      <c r="M30" s="159"/>
+      <c r="M30" s="107"/>
       <c r="N30" s="58" t="s">
         <v>158</v>
       </c>
@@ -7752,7 +7825,7 @@
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
     </row>
-    <row r="31" spans="2:32">
+    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
       <c r="B31" s="58" t="s">
         <v>121</v>
       </c>
@@ -7760,13 +7833,13 @@
         <v>120</v>
       </c>
       <c r="D31" s="58"/>
-      <c r="E31" s="163"/>
-      <c r="F31" s="162" t="s">
+      <c r="E31" s="111"/>
+      <c r="F31" s="110" t="s">
         <v>168</v>
       </c>
-      <c r="G31" s="164"/>
+      <c r="G31" s="112"/>
       <c r="H31" s="58"/>
-      <c r="I31" s="160" t="s">
+      <c r="I31" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J31" s="58" t="s">
@@ -7776,7 +7849,7 @@
         <v>10</v>
       </c>
       <c r="L31" s="64"/>
-      <c r="M31" s="159"/>
+      <c r="M31" s="107"/>
       <c r="N31" s="58" t="s">
         <v>158</v>
       </c>
@@ -7804,7 +7877,7 @@
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
     </row>
-    <row r="32" spans="2:32" s="67" customFormat="1">
+    <row r="32" spans="2:32" s="67" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B32" s="58" t="s">
         <v>121</v>
       </c>
@@ -7822,7 +7895,7 @@
       <c r="H32" s="61" t="s">
         <v>111</v>
       </c>
-      <c r="I32" s="160"/>
+      <c r="I32" s="108"/>
       <c r="J32" s="58" t="s">
         <v>108</v>
       </c>
@@ -7864,7 +7937,7 @@
       <c r="AB32" s="58"/>
       <c r="AC32" s="58"/>
     </row>
-    <row r="33" spans="2:34" s="6" customFormat="1">
+    <row r="33" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B33" s="58" t="s">
         <v>121</v>
       </c>
@@ -7872,21 +7945,21 @@
         <v>120</v>
       </c>
       <c r="D33" s="78"/>
-      <c r="E33" s="165"/>
+      <c r="E33" s="113"/>
       <c r="F33" s="58" t="s">
         <v>173</v>
       </c>
-      <c r="G33" s="165"/>
+      <c r="G33" s="113"/>
       <c r="H33" s="78"/>
-      <c r="I33" s="160" t="s">
+      <c r="I33" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J33" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="160"/>
-      <c r="L33" s="160"/>
-      <c r="M33" s="160"/>
+      <c r="K33" s="108"/>
+      <c r="L33" s="108"/>
+      <c r="M33" s="108"/>
       <c r="N33" s="58" t="s">
         <v>158</v>
       </c>
@@ -7920,7 +7993,7 @@
       <c r="AG33" s="96"/>
       <c r="AH33" s="96"/>
     </row>
-    <row r="34" spans="2:34" s="6" customFormat="1">
+    <row r="34" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B34" s="58" t="s">
         <v>121</v>
       </c>
@@ -7928,21 +8001,21 @@
         <v>120</v>
       </c>
       <c r="D34" s="78"/>
-      <c r="E34" s="165"/>
+      <c r="E34" s="113"/>
       <c r="F34" s="58" t="s">
         <v>174</v>
       </c>
-      <c r="G34" s="165"/>
+      <c r="G34" s="113"/>
       <c r="H34" s="78"/>
-      <c r="I34" s="160" t="s">
+      <c r="I34" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J34" s="92" t="s">
         <v>106</v>
       </c>
-      <c r="K34" s="160"/>
-      <c r="L34" s="160"/>
-      <c r="M34" s="160"/>
+      <c r="K34" s="108"/>
+      <c r="L34" s="108"/>
+      <c r="M34" s="108"/>
       <c r="N34" s="58" t="s">
         <v>158</v>
       </c>
@@ -7976,7 +8049,7 @@
       <c r="AG34" s="96"/>
       <c r="AH34" s="96"/>
     </row>
-    <row r="35" spans="2:34">
+    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B35" s="58" t="s">
         <v>121</v>
       </c>
@@ -7984,13 +8057,13 @@
         <v>120</v>
       </c>
       <c r="D35" s="58"/>
-      <c r="E35" s="163"/>
+      <c r="E35" s="111"/>
       <c r="F35" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="G35" s="164"/>
+      <c r="G35" s="112"/>
       <c r="H35" s="58"/>
-      <c r="I35" s="160" t="s">
+      <c r="I35" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J35" s="58" t="s">
@@ -8000,7 +8073,7 @@
         <v>1</v>
       </c>
       <c r="L35" s="64"/>
-      <c r="M35" s="159"/>
+      <c r="M35" s="107"/>
       <c r="N35" s="58" t="s">
         <v>158</v>
       </c>
@@ -8028,7 +8101,7 @@
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
     </row>
-    <row r="36" spans="2:34">
+    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B36" s="58" t="s">
         <v>121</v>
       </c>
@@ -8036,13 +8109,13 @@
         <v>120</v>
       </c>
       <c r="D36" s="58"/>
-      <c r="E36" s="163"/>
+      <c r="E36" s="111"/>
       <c r="F36" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="G36" s="164"/>
+      <c r="G36" s="112"/>
       <c r="H36" s="58"/>
-      <c r="I36" s="160" t="s">
+      <c r="I36" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J36" s="58" t="s">
@@ -8052,7 +8125,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="64"/>
-      <c r="M36" s="159"/>
+      <c r="M36" s="107"/>
       <c r="N36" s="58" t="s">
         <v>158</v>
       </c>
@@ -8080,7 +8153,7 @@
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
     </row>
-    <row r="37" spans="2:34">
+    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B37" s="58" t="s">
         <v>121</v>
       </c>
@@ -8088,23 +8161,23 @@
         <v>120</v>
       </c>
       <c r="D37" s="58"/>
-      <c r="E37" s="163"/>
+      <c r="E37" s="111"/>
       <c r="F37" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G37" s="164"/>
+      <c r="G37" s="112"/>
       <c r="H37" s="58"/>
-      <c r="I37" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="160" t="s">
+      <c r="I37" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J37" s="108" t="s">
         <v>110</v>
       </c>
-      <c r="K37" s="160">
+      <c r="K37" s="108">
         <v>3</v>
       </c>
       <c r="L37" s="64"/>
-      <c r="M37" s="159"/>
+      <c r="M37" s="107"/>
       <c r="N37" s="58" t="s">
         <v>158</v>
       </c>
@@ -8132,7 +8205,7 @@
       <c r="AB37" s="58"/>
       <c r="AC37" s="58"/>
     </row>
-    <row r="38" spans="2:34">
+    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B38" s="58" t="s">
         <v>121</v>
       </c>
@@ -8140,21 +8213,21 @@
         <v>120</v>
       </c>
       <c r="D38" s="58"/>
-      <c r="E38" s="163"/>
+      <c r="E38" s="111"/>
       <c r="F38" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="G38" s="164"/>
+      <c r="G38" s="112"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="160" t="s">
+      <c r="I38" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="K38" s="160"/>
+      <c r="K38" s="108"/>
       <c r="L38" s="64"/>
-      <c r="M38" s="159"/>
+      <c r="M38" s="107"/>
       <c r="N38" s="58" t="s">
         <v>158</v>
       </c>
@@ -8180,7 +8253,7 @@
       <c r="AB38" s="58"/>
       <c r="AC38" s="58"/>
     </row>
-    <row r="39" spans="2:34">
+    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B39" s="58" t="s">
         <v>121</v>
       </c>
@@ -8188,21 +8261,21 @@
         <v>120</v>
       </c>
       <c r="D39" s="58"/>
-      <c r="E39" s="163"/>
+      <c r="E39" s="111"/>
       <c r="F39" s="58" t="s">
         <v>162</v>
       </c>
-      <c r="G39" s="164"/>
+      <c r="G39" s="112"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="160" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="160" t="s">
+      <c r="I39" s="108" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="108" t="s">
         <v>106</v>
       </c>
-      <c r="K39" s="160"/>
+      <c r="K39" s="108"/>
       <c r="L39" s="64"/>
-      <c r="M39" s="159"/>
+      <c r="M39" s="107"/>
       <c r="N39" s="58" t="s">
         <v>158</v>
       </c>
@@ -8228,7 +8301,7 @@
       <c r="AB39" s="58"/>
       <c r="AC39" s="58"/>
     </row>
-    <row r="40" spans="2:34">
+    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B40" s="58" t="s">
         <v>121</v>
       </c>
@@ -8236,13 +8309,13 @@
         <v>120</v>
       </c>
       <c r="D40" s="99"/>
-      <c r="E40" s="163"/>
+      <c r="E40" s="111"/>
       <c r="F40" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="G40" s="164"/>
+      <c r="G40" s="112"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="160" t="s">
+      <c r="I40" s="108" t="s">
         <v>109</v>
       </c>
       <c r="J40" s="99" t="s">
@@ -8252,7 +8325,7 @@
         <v>1</v>
       </c>
       <c r="L40" s="64"/>
-      <c r="M40" s="161"/>
+      <c r="M40" s="109"/>
       <c r="N40" s="58" t="s">
         <v>158</v>
       </c>
@@ -8280,31 +8353,31 @@
       <c r="AB40" s="58"/>
       <c r="AC40" s="58"/>
     </row>
-    <row r="41" spans="2:34">
+    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B41" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="166"/>
-      <c r="E41" s="166"/>
+      <c r="D41" s="114"/>
+      <c r="E41" s="114"/>
       <c r="F41" s="58" t="s">
         <v>177</v>
       </c>
-      <c r="G41" s="159"/>
-      <c r="H41" s="159"/>
-      <c r="I41" s="160" t="s">
+      <c r="G41" s="107"/>
+      <c r="H41" s="107"/>
+      <c r="I41" s="108" t="s">
         <v>172</v>
       </c>
       <c r="J41" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="K41" s="160">
+      <c r="K41" s="108">
         <v>2</v>
       </c>
-      <c r="L41" s="167"/>
-      <c r="M41" s="159"/>
+      <c r="L41" s="115"/>
+      <c r="M41" s="107"/>
       <c r="N41" s="58" t="s">
         <v>158</v>
       </c>
@@ -8332,31 +8405,31 @@
       <c r="AB41" s="90"/>
       <c r="AC41" s="90"/>
     </row>
-    <row r="42" spans="2:34">
+    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B42" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="166"/>
-      <c r="E42" s="166"/>
+      <c r="D42" s="114"/>
+      <c r="E42" s="114"/>
       <c r="F42" s="58" t="s">
         <v>178</v>
       </c>
-      <c r="G42" s="159"/>
-      <c r="H42" s="159"/>
-      <c r="I42" s="160" t="s">
+      <c r="G42" s="107"/>
+      <c r="H42" s="107"/>
+      <c r="I42" s="108" t="s">
         <v>172</v>
       </c>
       <c r="J42" s="99" t="s">
         <v>110</v>
       </c>
-      <c r="K42" s="160">
+      <c r="K42" s="108">
         <v>2</v>
       </c>
-      <c r="L42" s="167"/>
-      <c r="M42" s="159"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="107"/>
       <c r="N42" s="58" t="s">
         <v>158</v>
       </c>
@@ -8384,29 +8457,29 @@
       <c r="AB42" s="90"/>
       <c r="AC42" s="90"/>
     </row>
-    <row r="43" spans="2:34">
+    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
       <c r="B43" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="166"/>
-      <c r="E43" s="166"/>
+      <c r="D43" s="114"/>
+      <c r="E43" s="114"/>
       <c r="F43" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G43" s="159"/>
-      <c r="H43" s="159"/>
-      <c r="I43" s="160" t="s">
+      <c r="G43" s="107"/>
+      <c r="H43" s="107"/>
+      <c r="I43" s="108" t="s">
         <v>172</v>
       </c>
       <c r="J43" s="58" t="s">
         <v>106</v>
       </c>
-      <c r="K43" s="160"/>
-      <c r="L43" s="167"/>
-      <c r="M43" s="159"/>
+      <c r="K43" s="108"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="107"/>
       <c r="N43" s="58" t="s">
         <v>158</v>
       </c>
@@ -8446,7 +8519,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8456,7 +8529,7 @@
       <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
@@ -8464,7 +8537,7 @@
     <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25">
+    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="18"/>
@@ -8484,7 +8557,7 @@
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
     </row>
-    <row r="2" spans="2:25">
+    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="17"/>
@@ -8504,7 +8577,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="2:25" ht="18">
+    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
       <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
@@ -8529,7 +8602,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="2:25">
+    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="E4" s="13"/>
@@ -8551,7 +8624,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="6" spans="2:25">
+    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
       <c r="B6" s="32" t="s">
         <v>50</v>
       </c>
@@ -8559,7 +8632,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5">
+    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B7" s="27" t="s">
         <v>47</v>
       </c>
@@ -8567,7 +8640,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5">
+    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B8" s="27" t="s">
         <v>45</v>
       </c>
@@ -8575,7 +8648,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5">
+    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
@@ -8583,7 +8656,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5">
+    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
@@ -8591,7 +8664,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5">
+    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
@@ -8599,7 +8672,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5">
+    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B12" s="27" t="s">
         <v>37</v>
       </c>
@@ -8607,7 +8680,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5">
+    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B13" s="27" t="s">
         <v>35</v>
       </c>
@@ -8615,7 +8688,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5">
+    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B14" s="27" t="s">
         <v>33</v>
       </c>
@@ -8623,7 +8696,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5">
+    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B15" s="27" t="s">
         <v>31</v>
       </c>
@@ -8631,7 +8704,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5">
+    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
@@ -8639,7 +8712,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5">
+    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B17" s="27" t="s">
         <v>27</v>
       </c>
@@ -8647,7 +8720,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5">
+    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
@@ -8655,7 +8728,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5">
+    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B19" s="28" t="s">
         <v>23</v>
       </c>
@@ -8663,7 +8736,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5">
+    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
@@ -8671,7 +8744,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5">
+    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
@@ -8679,7 +8752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5">
+    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B22" s="27" t="s">
         <v>17</v>
       </c>
@@ -8687,7 +8760,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5">
+    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
       <c r="B23" s="30" t="s">
         <v>15</v>
       </c>
@@ -8706,12 +8779,7 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8764,7 +8832,12 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8774,9 +8847,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8797,9 +8870,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
+++ b/trunk/Mapeamento P1/Mapeamento Técnico - PRO_APURACAO_TURMA_ONLINE_P1.xlsx
@@ -1,24 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" firstSheet="1" activeTab="2"/>
+    <workbookView xWindow="915" yWindow="165" windowWidth="14700" windowHeight="5535" tabRatio="905" firstSheet="1" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Identificação" sheetId="15" r:id="rId1"/>
     <sheet name="Origens Destinos e Definições" sheetId="10" r:id="rId2"/>
     <sheet name="Desenho do Mapa" sheetId="16" r:id="rId3"/>
-    <sheet name="Mapeamento" sheetId="8" r:id="rId4"/>
-    <sheet name="Mapeamento (2)" sheetId="18" r:id="rId5"/>
-    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId6"/>
+    <sheet name="Mapeamento P1" sheetId="8" r:id="rId4"/>
+    <sheet name="Mapeamento P2 - Fluxo 1" sheetId="18" r:id="rId5"/>
+    <sheet name="Mapeamento P2 - Fluxo 2 - RT" sheetId="19" r:id="rId6"/>
+    <sheet name="Regras de Mapeamento" sheetId="9" r:id="rId7"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">Mapeamento!$B$3:$AC$40</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mapeamento (2)'!$B$3:$AC$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">'Mapeamento P1'!$B$3:$AC$40</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">'Mapeamento P2 - Fluxo 1'!$B$3:$AC$44</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="5" hidden="1">'Mapeamento P2 - Fluxo 2 - RT'!$B$3:$AC$44</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -145,8 +147,46 @@
 </comments>
 </file>
 
+<file path=xl/comments4.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>bajpaia</author>
+  </authors>
+  <commentList>
+    <comment ref="H3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="V3" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>PRIMARY/ FORIEGN</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1106" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1489" uniqueCount="189">
   <si>
     <t>Schema</t>
   </si>
@@ -1221,12 +1261,35 @@
       <t xml:space="preserve"> Apuração Turma Online</t>
     </r>
   </si>
+  <si>
+    <t>IND_DESTINO</t>
+  </si>
+  <si>
+    <t>IF IND_TIPO_CONTRATO IN ('F', 'S')
+          THEN
+            V_DESTINO         := 1;
+ ELSIF IND_TIPO_CONTRATO = 'P'
+          THEN
+            V_DESTINO          := 2;
+END IF;</t>
+  </si>
+  <si>
+    <t>TRUNC(P_DT_COMPETENCIA, 'MM') BETWEEN TRUNC(VAP.DT_INICIO_ALOCACAO, 'MM') AND TRUNC(VAP.DT_FIM_ALOCACAO, 'MM')
+AND NVL(IND_SUBSTITUICAO_PROF, 'N') = 'N'
+AND NVL(QTD_ALUNOS_MATRICULADOS, 0) &gt; 0
+AND IND_PAGAMENTO = 'S'
+AND NVL(IND_PAGAMENTO_ALOCACAO,'S') = 'S' 
+AND TABELA = 'HTV'
+AND TIPO_CURSO IN (4,11)
+AND IND_TIPO_SALARIO = 'H'
+THEN IND_APTO_PAGAMENTO = 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="27" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="27">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1437,7 +1500,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="29">
+  <borders count="30">
     <border>
       <left/>
       <right/>
@@ -1789,13 +1852,24 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="168">
+  <cellXfs count="189">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -2099,12 +2173,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -2117,8 +2185,62 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2129,62 +2251,56 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="19" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" xfId="1" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="18" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="20" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="21" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="22" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="23" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="24" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="15" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="25" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="8" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="26" xfId="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2204,57 +2320,6 @@
     <xf numFmtId="0" fontId="26" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2275,6 +2340,78 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -2299,7 +2436,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2329,7 +2466,7 @@
         <name val="Arial"/>
         <scheme val="none"/>
       </font>
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
@@ -2396,7 +2533,7 @@
           <bgColor rgb="FF0070C0"/>
         </patternFill>
       </fill>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="1" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color indexed="64"/>
@@ -2444,7 +2581,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2467,14 +2604,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2517,7 +2654,7 @@
         <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
           <a:extLst>
             <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" val="0"/>
             </a:ext>
           </a:extLst>
         </a:blip>
@@ -2540,14 +2677,14 @@
         </a:ln>
         <a:extLst>
           <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="">
               <a:solidFill>
                 <a:srgbClr val="FFFFFF"/>
               </a:solidFill>
             </a14:hiddenFill>
           </a:ext>
           <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
+            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" xmlns="" w="9525">
               <a:solidFill>
                 <a:srgbClr val="000000"/>
               </a:solidFill>
@@ -2561,52 +2698,6 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
-      <xdr:twoCellAnchor editAs="oneCell">
-        <xdr:from>
-          <xdr:col>2</xdr:col>
-          <xdr:colOff>0</xdr:colOff>
-          <xdr:row>2</xdr:row>
-          <xdr:rowOff>0</xdr:rowOff>
-        </xdr:from>
-        <xdr:to>
-          <xdr:col>19</xdr:col>
-          <xdr:colOff>514350</xdr:colOff>
-          <xdr:row>13</xdr:row>
-          <xdr:rowOff>38100</xdr:rowOff>
-        </xdr:to>
-        <xdr:sp macro="" textlink="">
-          <xdr:nvSpPr>
-            <xdr:cNvPr id="15362" name="Object 2" hidden="1">
-              <a:extLst>
-                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s15362"/>
-                </a:ext>
-              </a:extLst>
-            </xdr:cNvPr>
-            <xdr:cNvSpPr/>
-          </xdr:nvSpPr>
-          <xdr:spPr>
-            <a:xfrm>
-              <a:off x="0" y="0"/>
-              <a:ext cx="0" cy="0"/>
-            </a:xfrm>
-            <a:prstGeom prst="rect">
-              <a:avLst/>
-            </a:prstGeom>
-          </xdr:spPr>
-        </xdr:sp>
-        <xdr:clientData/>
-      </xdr:twoCellAnchor>
-    </mc:Choice>
-    <mc:Fallback/>
-  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -2696,7 +2787,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -2731,7 +2821,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Escritório">
@@ -2907,7 +2996,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -2915,7 +3004,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="15.42578125" style="11" customWidth="1"/>
@@ -2924,7 +3013,7 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="12" t="s">
         <v>180</v>
       </c>
@@ -2932,7 +3021,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="12" t="s">
         <v>185</v>
       </c>
@@ -2940,22 +3029,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:10">
       <c r="C4" s="12" t="s">
         <v>181</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:10">
       <c r="C5" s="12" t="s">
         <v>182</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:10">
       <c r="C6" s="12" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" ht="13.5" thickBot="1">
       <c r="B7" s="36"/>
       <c r="C7" s="36"/>
       <c r="D7" s="36"/>
@@ -2966,144 +3055,137 @@
       <c r="I7" s="36"/>
       <c r="J7" s="36"/>
     </row>
-    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B9" s="125" t="s">
+    <row r="8" spans="2:10" ht="14.25" thickTop="1" thickBot="1"/>
+    <row r="9" spans="2:10">
+      <c r="B9" s="119" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="126"/>
-      <c r="D9" s="126"/>
-      <c r="E9" s="126"/>
-      <c r="F9" s="126"/>
-      <c r="G9" s="126"/>
-      <c r="H9" s="126"/>
-      <c r="I9" s="126"/>
-      <c r="J9" s="127"/>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B10" s="128"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="130"/>
-    </row>
-    <row r="11" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C9" s="120"/>
+      <c r="D9" s="120"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="120"/>
+      <c r="G9" s="120"/>
+      <c r="H9" s="120"/>
+      <c r="I9" s="120"/>
+      <c r="J9" s="121"/>
+    </row>
+    <row r="10" spans="2:10">
+      <c r="B10" s="122"/>
+      <c r="C10" s="123"/>
+      <c r="D10" s="123"/>
+      <c r="E10" s="123"/>
+      <c r="F10" s="123"/>
+      <c r="G10" s="123"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+    </row>
+    <row r="11" spans="2:10" ht="13.5" thickBot="1">
       <c r="B11" s="37" t="s">
         <v>72</v>
       </c>
       <c r="C11" s="38" t="s">
         <v>71</v>
       </c>
-      <c r="D11" s="131" t="s">
+      <c r="D11" s="125" t="s">
         <v>70</v>
       </c>
-      <c r="E11" s="131"/>
-      <c r="F11" s="131"/>
-      <c r="G11" s="131" t="s">
+      <c r="E11" s="125"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="125" t="s">
         <v>58</v>
       </c>
-      <c r="H11" s="131"/>
-      <c r="I11" s="131"/>
-      <c r="J11" s="132"/>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H11" s="125"/>
+      <c r="I11" s="125"/>
+      <c r="J11" s="126"/>
+    </row>
+    <row r="12" spans="2:10">
       <c r="B12" s="25" t="s">
         <v>112</v>
       </c>
       <c r="C12" s="24">
         <v>41234</v>
       </c>
-      <c r="D12" s="133" t="s">
+      <c r="D12" s="127" t="s">
         <v>113</v>
       </c>
-      <c r="E12" s="134"/>
-      <c r="F12" s="135"/>
-      <c r="G12" s="136" t="s">
+      <c r="E12" s="128"/>
+      <c r="F12" s="129"/>
+      <c r="G12" s="130" t="s">
         <v>114</v>
       </c>
-      <c r="H12" s="136"/>
-      <c r="I12" s="136"/>
-      <c r="J12" s="137"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="130"/>
+      <c r="I12" s="130"/>
+      <c r="J12" s="131"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="23"/>
       <c r="C13" s="22"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="123"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="119"/>
-      <c r="H13" s="120"/>
-      <c r="I13" s="120"/>
-      <c r="J13" s="121"/>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D13" s="113"/>
+      <c r="E13" s="114"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="116"/>
+      <c r="H13" s="117"/>
+      <c r="I13" s="117"/>
+      <c r="J13" s="118"/>
+    </row>
+    <row r="14" spans="2:10">
       <c r="B14" s="21"/>
       <c r="C14" s="20"/>
-      <c r="D14" s="116"/>
-      <c r="E14" s="116"/>
-      <c r="F14" s="116"/>
-      <c r="G14" s="119"/>
-      <c r="H14" s="120"/>
-      <c r="I14" s="120"/>
-      <c r="J14" s="121"/>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D14" s="132"/>
+      <c r="E14" s="132"/>
+      <c r="F14" s="132"/>
+      <c r="G14" s="116"/>
+      <c r="H14" s="117"/>
+      <c r="I14" s="117"/>
+      <c r="J14" s="118"/>
+    </row>
+    <row r="15" spans="2:10">
       <c r="B15" s="21"/>
       <c r="C15" s="20"/>
-      <c r="D15" s="116"/>
-      <c r="E15" s="116"/>
-      <c r="F15" s="116"/>
-      <c r="G15" s="119"/>
-      <c r="H15" s="120"/>
-      <c r="I15" s="120"/>
-      <c r="J15" s="121"/>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D15" s="132"/>
+      <c r="E15" s="132"/>
+      <c r="F15" s="132"/>
+      <c r="G15" s="116"/>
+      <c r="H15" s="117"/>
+      <c r="I15" s="117"/>
+      <c r="J15" s="118"/>
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="21"/>
       <c r="C16" s="20"/>
-      <c r="D16" s="116"/>
-      <c r="E16" s="116"/>
-      <c r="F16" s="116"/>
-      <c r="G16" s="119"/>
-      <c r="H16" s="120"/>
-      <c r="I16" s="120"/>
-      <c r="J16" s="121"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D16" s="132"/>
+      <c r="E16" s="132"/>
+      <c r="F16" s="132"/>
+      <c r="G16" s="116"/>
+      <c r="H16" s="117"/>
+      <c r="I16" s="117"/>
+      <c r="J16" s="118"/>
+    </row>
+    <row r="17" spans="2:10">
       <c r="B17" s="21"/>
       <c r="C17" s="20"/>
-      <c r="D17" s="116"/>
-      <c r="E17" s="116"/>
-      <c r="F17" s="116"/>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-      <c r="I17" s="117"/>
-      <c r="J17" s="118"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D17" s="132"/>
+      <c r="E17" s="132"/>
+      <c r="F17" s="132"/>
+      <c r="G17" s="133"/>
+      <c r="H17" s="133"/>
+      <c r="I17" s="133"/>
+      <c r="J17" s="134"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="21"/>
       <c r="C18" s="20"/>
-      <c r="D18" s="116"/>
-      <c r="E18" s="116"/>
-      <c r="F18" s="116"/>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-      <c r="I18" s="117"/>
-      <c r="J18" s="118"/>
+      <c r="D18" s="132"/>
+      <c r="E18" s="132"/>
+      <c r="F18" s="132"/>
+      <c r="G18" s="133"/>
+      <c r="H18" s="133"/>
+      <c r="I18" s="133"/>
+      <c r="J18" s="134"/>
     </row>
   </sheetData>
   <mergeCells count="17">
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="G13:J13"/>
-    <mergeCell ref="B9:J10"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="G11:J11"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="G12:J12"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="G17:J17"/>
     <mergeCell ref="D18:F18"/>
@@ -3114,6 +3196,13 @@
     <mergeCell ref="G15:J15"/>
     <mergeCell ref="D16:F16"/>
     <mergeCell ref="G16:J16"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="G13:J13"/>
+    <mergeCell ref="B9:J10"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="G11:J11"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="G12:J12"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3123,7 +3212,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3131,7 +3220,7 @@
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.5703125" style="11" customWidth="1"/>
     <col min="2" max="2" width="42.42578125" style="11" bestFit="1" customWidth="1"/>
@@ -3140,7 +3229,7 @@
     <col min="5" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" ht="18" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:10" ht="18">
       <c r="C2" s="12" t="s">
         <v>183</v>
       </c>
@@ -3149,7 +3238,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="15" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:10" ht="15">
       <c r="C3" s="12" t="s">
         <v>184</v>
       </c>
@@ -3158,7 +3247,7 @@
         <v xml:space="preserve"> </v>
       </c>
     </row>
-    <row r="4" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" ht="13.5" thickBot="1">
       <c r="B4" s="36"/>
       <c r="C4" s="36"/>
       <c r="D4" s="36"/>
@@ -3169,64 +3258,64 @@
       <c r="I4" s="36"/>
       <c r="J4" s="36"/>
     </row>
-    <row r="5" spans="2:10" ht="13.5" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B6" s="145" t="s">
+    <row r="5" spans="2:10" ht="13.5" thickTop="1"/>
+    <row r="6" spans="2:10">
+      <c r="B6" s="140" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="145"/>
-      <c r="D6" s="145"/>
-      <c r="E6" s="145"/>
-      <c r="F6" s="145"/>
-      <c r="G6" s="145"/>
-      <c r="H6" s="145"/>
-      <c r="I6" s="145"/>
-      <c r="J6" s="145"/>
-    </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C6" s="140"/>
+      <c r="D6" s="140"/>
+      <c r="E6" s="140"/>
+      <c r="F6" s="140"/>
+      <c r="G6" s="140"/>
+      <c r="H6" s="140"/>
+      <c r="I6" s="140"/>
+      <c r="J6" s="140"/>
+    </row>
+    <row r="7" spans="2:10">
       <c r="B7" s="44" t="s">
         <v>60</v>
       </c>
       <c r="C7" s="44" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="145" t="s">
+      <c r="D7" s="140" t="s">
         <v>2</v>
       </c>
-      <c r="E7" s="145"/>
-      <c r="F7" s="145"/>
-      <c r="G7" s="145"/>
-      <c r="H7" s="145"/>
-      <c r="I7" s="145"/>
-      <c r="J7" s="145"/>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E7" s="140"/>
+      <c r="F7" s="140"/>
+      <c r="G7" s="140"/>
+      <c r="H7" s="140"/>
+      <c r="I7" s="140"/>
+      <c r="J7" s="140"/>
+    </row>
+    <row r="8" spans="2:10">
       <c r="B8" s="76" t="s">
         <v>115</v>
       </c>
       <c r="C8" s="45"/>
-      <c r="D8" s="154"/>
-      <c r="E8" s="154"/>
-      <c r="F8" s="154"/>
-      <c r="G8" s="154"/>
-      <c r="H8" s="154"/>
-      <c r="I8" s="154"/>
-      <c r="J8" s="154"/>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="D8" s="141"/>
+      <c r="E8" s="141"/>
+      <c r="F8" s="141"/>
+      <c r="G8" s="141"/>
+      <c r="H8" s="141"/>
+      <c r="I8" s="141"/>
+      <c r="J8" s="141"/>
+    </row>
+    <row r="9" spans="2:10">
       <c r="B9" s="76" t="s">
         <v>118</v>
       </c>
       <c r="C9" s="45"/>
-      <c r="D9" s="159"/>
-      <c r="E9" s="160"/>
-      <c r="F9" s="160"/>
-      <c r="G9" s="160"/>
-      <c r="H9" s="160"/>
-      <c r="I9" s="160"/>
-      <c r="J9" s="160"/>
-    </row>
-    <row r="10" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="D9" s="149"/>
+      <c r="E9" s="150"/>
+      <c r="F9" s="150"/>
+      <c r="G9" s="150"/>
+      <c r="H9" s="150"/>
+      <c r="I9" s="150"/>
+      <c r="J9" s="150"/>
+    </row>
+    <row r="10" spans="2:10" ht="13.5" thickBot="1">
       <c r="B10" s="5"/>
       <c r="C10" s="4"/>
       <c r="D10" s="4"/>
@@ -3237,20 +3326,20 @@
       <c r="I10" s="4"/>
       <c r="J10" s="4"/>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="149" t="s">
+    <row r="11" spans="2:10">
+      <c r="B11" s="143" t="s">
         <v>12</v>
       </c>
-      <c r="C11" s="150"/>
-      <c r="D11" s="150"/>
-      <c r="E11" s="150"/>
-      <c r="F11" s="150"/>
-      <c r="G11" s="150"/>
-      <c r="H11" s="150"/>
-      <c r="I11" s="150"/>
-      <c r="J11" s="150"/>
-    </row>
-    <row r="12" spans="2:10" ht="23.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="C11" s="144"/>
+      <c r="D11" s="144"/>
+      <c r="E11" s="144"/>
+      <c r="F11" s="144"/>
+      <c r="G11" s="144"/>
+      <c r="H11" s="144"/>
+      <c r="I11" s="144"/>
+      <c r="J11" s="144"/>
+    </row>
+    <row r="12" spans="2:10" ht="23.25" customHeight="1">
       <c r="B12" s="40" t="s">
         <v>60</v>
       </c>
@@ -3260,53 +3349,53 @@
       <c r="D12" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E12" s="156" t="s">
+      <c r="E12" s="145" t="s">
         <v>62</v>
       </c>
-      <c r="F12" s="158"/>
-      <c r="G12" s="156" t="s">
+      <c r="F12" s="147"/>
+      <c r="G12" s="145" t="s">
         <v>56</v>
       </c>
-      <c r="H12" s="157"/>
-      <c r="I12" s="157"/>
-      <c r="J12" s="158"/>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H12" s="146"/>
+      <c r="I12" s="146"/>
+      <c r="J12" s="147"/>
+    </row>
+    <row r="13" spans="2:10">
       <c r="B13" s="77"/>
       <c r="C13" s="7"/>
       <c r="D13" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="E13" s="146"/>
-      <c r="F13" s="147"/>
+      <c r="E13" s="135"/>
+      <c r="F13" s="136"/>
       <c r="G13" s="148"/>
       <c r="H13" s="148"/>
       <c r="I13" s="148"/>
       <c r="J13" s="148"/>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:10">
       <c r="B14" s="77"/>
       <c r="C14" s="7"/>
       <c r="D14" s="1"/>
-      <c r="E14" s="146"/>
-      <c r="F14" s="147"/>
+      <c r="E14" s="135"/>
+      <c r="F14" s="136"/>
       <c r="G14" s="148"/>
       <c r="H14" s="148"/>
       <c r="I14" s="148"/>
       <c r="J14" s="148"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:10">
       <c r="B15" s="77"/>
       <c r="C15" s="7"/>
       <c r="D15" s="1"/>
-      <c r="E15" s="146"/>
-      <c r="F15" s="147"/>
+      <c r="E15" s="135"/>
+      <c r="F15" s="136"/>
       <c r="G15" s="148"/>
       <c r="H15" s="148"/>
       <c r="I15" s="148"/>
       <c r="J15" s="148"/>
     </row>
-    <row r="16" spans="2:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" ht="13.5" thickBot="1">
       <c r="B16" s="2"/>
       <c r="C16" s="2"/>
       <c r="D16" s="2"/>
@@ -3317,14 +3406,14 @@
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
     </row>
-    <row r="17" spans="2:10" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="149" t="s">
+    <row r="17" spans="2:10" ht="25.5" customHeight="1">
+      <c r="B17" s="143" t="s">
         <v>64</v>
       </c>
-      <c r="C17" s="150"/>
-      <c r="D17" s="150"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="144"/>
+      <c r="D17" s="144"/>
+    </row>
+    <row r="18" spans="2:10">
       <c r="B18" s="39" t="s">
         <v>61</v>
       </c>
@@ -3335,28 +3424,28 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:10">
       <c r="B19" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C19" s="10"/>
       <c r="D19" s="9"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:10">
       <c r="B20" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C20" s="10"/>
       <c r="D20" s="9"/>
     </row>
-    <row r="21" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:10" ht="12.75" customHeight="1">
       <c r="B21" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C21" s="10"/>
       <c r="D21" s="9"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:10">
       <c r="B22" s="2"/>
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
@@ -3367,20 +3456,20 @@
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
     </row>
-    <row r="23" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="145" t="s">
+    <row r="23" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B23" s="140" t="s">
         <v>63</v>
       </c>
-      <c r="C23" s="145"/>
-      <c r="D23" s="145"/>
-      <c r="E23" s="145"/>
-      <c r="F23" s="145"/>
-      <c r="G23" s="145"/>
-      <c r="H23" s="145"/>
-      <c r="I23" s="145"/>
-      <c r="J23" s="145"/>
-    </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="140"/>
+      <c r="D23" s="140"/>
+      <c r="E23" s="140"/>
+      <c r="F23" s="140"/>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+      <c r="I23" s="140"/>
+      <c r="J23" s="140"/>
+    </row>
+    <row r="24" spans="2:10">
       <c r="B24" s="44" t="s">
         <v>66</v>
       </c>
@@ -3390,64 +3479,64 @@
       <c r="D24" s="44" t="s">
         <v>68</v>
       </c>
-      <c r="E24" s="155" t="s">
+      <c r="E24" s="142" t="s">
         <v>58</v>
       </c>
-      <c r="F24" s="155"/>
-      <c r="G24" s="155" t="s">
+      <c r="F24" s="142"/>
+      <c r="G24" s="142" t="s">
         <v>56</v>
       </c>
-      <c r="H24" s="155"/>
-      <c r="I24" s="155"/>
-      <c r="J24" s="155"/>
-    </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H24" s="142"/>
+      <c r="I24" s="142"/>
+      <c r="J24" s="142"/>
+    </row>
+    <row r="25" spans="2:10">
       <c r="B25" s="8"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
-      <c r="E25" s="144"/>
-      <c r="F25" s="144"/>
-      <c r="G25" s="144"/>
-      <c r="H25" s="144"/>
-      <c r="I25" s="144"/>
-      <c r="J25" s="144"/>
-    </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E25" s="151"/>
+      <c r="F25" s="151"/>
+      <c r="G25" s="151"/>
+      <c r="H25" s="151"/>
+      <c r="I25" s="151"/>
+      <c r="J25" s="151"/>
+    </row>
+    <row r="26" spans="2:10">
       <c r="B26" s="8"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
-      <c r="E26" s="144"/>
-      <c r="F26" s="144"/>
-      <c r="G26" s="144"/>
-      <c r="H26" s="144"/>
-      <c r="I26" s="144"/>
-      <c r="J26" s="144"/>
-    </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="E26" s="151"/>
+      <c r="F26" s="151"/>
+      <c r="G26" s="151"/>
+      <c r="H26" s="151"/>
+      <c r="I26" s="151"/>
+      <c r="J26" s="151"/>
+    </row>
+    <row r="27" spans="2:10">
       <c r="B27" s="8"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
-      <c r="E27" s="144"/>
-      <c r="F27" s="144"/>
-      <c r="G27" s="144"/>
-      <c r="H27" s="144"/>
-      <c r="I27" s="144"/>
-      <c r="J27" s="144"/>
-    </row>
-    <row r="29" spans="2:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="138" t="s">
+      <c r="E27" s="151"/>
+      <c r="F27" s="151"/>
+      <c r="G27" s="151"/>
+      <c r="H27" s="151"/>
+      <c r="I27" s="151"/>
+      <c r="J27" s="151"/>
+    </row>
+    <row r="29" spans="2:10" ht="12.75" customHeight="1">
+      <c r="B29" s="152" t="s">
         <v>151</v>
       </c>
-      <c r="C29" s="139"/>
-      <c r="D29" s="139"/>
-      <c r="E29" s="139"/>
-      <c r="F29" s="139"/>
-      <c r="G29" s="139"/>
-      <c r="H29" s="139"/>
-      <c r="I29" s="139"/>
-      <c r="J29" s="140"/>
-    </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="C29" s="153"/>
+      <c r="D29" s="153"/>
+      <c r="E29" s="153"/>
+      <c r="F29" s="153"/>
+      <c r="G29" s="153"/>
+      <c r="H29" s="153"/>
+      <c r="I29" s="153"/>
+      <c r="J29" s="154"/>
+    </row>
+    <row r="30" spans="2:10">
       <c r="B30" s="85" t="s">
         <v>152</v>
       </c>
@@ -3457,32 +3546,44 @@
       <c r="D30" s="86" t="s">
         <v>154</v>
       </c>
-      <c r="E30" s="141" t="s">
+      <c r="E30" s="155" t="s">
         <v>155</v>
       </c>
-      <c r="F30" s="142"/>
-      <c r="G30" s="141" t="s">
+      <c r="F30" s="156"/>
+      <c r="G30" s="155" t="s">
         <v>56</v>
       </c>
-      <c r="H30" s="143"/>
-      <c r="I30" s="143"/>
-      <c r="J30" s="142"/>
-    </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
+      <c r="H30" s="157"/>
+      <c r="I30" s="157"/>
+      <c r="J30" s="156"/>
+    </row>
+    <row r="31" spans="2:10">
       <c r="B31" s="87" t="s">
         <v>156</v>
       </c>
       <c r="C31" s="88"/>
       <c r="D31" s="89"/>
-      <c r="E31" s="146"/>
-      <c r="F31" s="147"/>
-      <c r="G31" s="151"/>
-      <c r="H31" s="152"/>
-      <c r="I31" s="152"/>
-      <c r="J31" s="153"/>
+      <c r="E31" s="135"/>
+      <c r="F31" s="136"/>
+      <c r="G31" s="137"/>
+      <c r="H31" s="138"/>
+      <c r="I31" s="138"/>
+      <c r="J31" s="139"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="B29:J29"/>
+    <mergeCell ref="E30:F30"/>
+    <mergeCell ref="G30:J30"/>
+    <mergeCell ref="G27:J27"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="E25:F25"/>
+    <mergeCell ref="G25:J25"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="G14:J14"/>
+    <mergeCell ref="E26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B17:D17"/>
     <mergeCell ref="E31:F31"/>
     <mergeCell ref="G31:J31"/>
     <mergeCell ref="B6:J6"/>
@@ -3499,18 +3600,6 @@
     <mergeCell ref="E12:F12"/>
     <mergeCell ref="D9:J9"/>
     <mergeCell ref="E27:F27"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="G14:J14"/>
-    <mergeCell ref="E26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B17:D17"/>
-    <mergeCell ref="B29:J29"/>
-    <mergeCell ref="E30:F30"/>
-    <mergeCell ref="G30:J30"/>
-    <mergeCell ref="G27:J27"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="E25:F25"/>
-    <mergeCell ref="G25:J25"/>
   </mergeCells>
   <pageMargins left="0.78740157499999996" right="0.78740157499999996" top="0.984251969" bottom="0.984251969" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" scale="72" orientation="landscape" r:id="rId1"/>
@@ -3521,51 +3610,26 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="2" width="3.7109375" customWidth="1"/>
   </cols>
   <sheetData/>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <legacyDrawing r:id="rId1"/>
   <oleObjects>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3">
-          <objectPr defaultSize="0" r:id="rId4">
-            <anchor moveWithCells="1">
-              <from>
-                <xdr:col>2</xdr:col>
-                <xdr:colOff>0</xdr:colOff>
-                <xdr:row>2</xdr:row>
-                <xdr:rowOff>0</xdr:rowOff>
-              </from>
-              <to>
-                <xdr:col>19</xdr:col>
-                <xdr:colOff>514350</xdr:colOff>
-                <xdr:row>13</xdr:row>
-                <xdr:rowOff>38100</xdr:rowOff>
-              </to>
-            </anchor>
-          </objectPr>
-        </oleObject>
-      </mc:Choice>
-      <mc:Fallback>
-        <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId3"/>
-      </mc:Fallback>
-    </mc:AlternateContent>
+    <oleObject progId="Visio.Drawing.11" shapeId="15362" r:id="rId2"/>
   </oleObjects>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -3575,10 +3639,10 @@
       <pane xSplit="3" ySplit="3" topLeftCell="K4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight"/>
+      <selection pane="bottomRight" activeCell="N21" sqref="N21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -3614,50 +3678,50 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32">
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
     </row>
-    <row r="2" spans="2:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="161" t="s">
+    <row r="2" spans="2:32" ht="25.5" customHeight="1">
+      <c r="B2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="165" t="s">
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="167"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="164"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" ht="22.5">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -3741,7 +3805,7 @@
       </c>
       <c r="AC3" s="54"/>
     </row>
-    <row r="4" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B4" s="79"/>
       <c r="C4" s="80"/>
       <c r="D4" s="79"/>
@@ -3789,7 +3853,7 @@
       </c>
       <c r="AC4" s="64"/>
     </row>
-    <row r="5" spans="2:32" s="67" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
       <c r="B5" s="79"/>
       <c r="C5" s="80"/>
       <c r="D5" s="79"/>
@@ -3837,7 +3901,7 @@
       </c>
       <c r="AC5" s="64"/>
     </row>
-    <row r="6" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" s="74" customFormat="1">
       <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
@@ -3902,7 +3966,7 @@
       <c r="AE6" s="73"/>
       <c r="AF6" s="73"/>
     </row>
-    <row r="7" spans="2:32" s="74" customFormat="1" ht="24" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" s="74" customFormat="1" ht="24">
       <c r="B7" s="79"/>
       <c r="C7" s="80"/>
       <c r="D7" s="81"/>
@@ -3953,7 +4017,7 @@
       <c r="AE7" s="73"/>
       <c r="AF7" s="73"/>
     </row>
-    <row r="8" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
       <c r="B8" s="78" t="s">
         <v>121</v>
       </c>
@@ -4017,7 +4081,7 @@
       </c>
       <c r="AC8" s="64"/>
     </row>
-    <row r="9" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" s="71" customFormat="1" ht="12">
       <c r="B9" s="78" t="s">
         <v>121</v>
       </c>
@@ -4081,7 +4145,7 @@
       </c>
       <c r="AC9" s="64"/>
     </row>
-    <row r="10" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B10" s="78" t="s">
         <v>121</v>
       </c>
@@ -4145,7 +4209,7 @@
       </c>
       <c r="AC10" s="58"/>
     </row>
-    <row r="11" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:32" s="71" customFormat="1" ht="12">
       <c r="B11" s="78" t="s">
         <v>121</v>
       </c>
@@ -4209,7 +4273,7 @@
       </c>
       <c r="AC11" s="64"/>
     </row>
-    <row r="12" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B12" s="78" t="s">
         <v>121</v>
       </c>
@@ -4273,7 +4337,7 @@
       </c>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
       <c r="B13" s="78" t="s">
         <v>121</v>
       </c>
@@ -4337,7 +4401,7 @@
       </c>
       <c r="AC13" s="58"/>
     </row>
-    <row r="14" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:32" s="74" customFormat="1">
       <c r="B14" s="80"/>
       <c r="C14" s="80"/>
       <c r="D14" s="81"/>
@@ -4388,7 +4452,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
     </row>
-    <row r="15" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" s="74" customFormat="1">
       <c r="B15" s="80"/>
       <c r="C15" s="80"/>
       <c r="D15" s="81"/>
@@ -4441,7 +4505,7 @@
       <c r="AE15" s="73"/>
       <c r="AF15" s="73"/>
     </row>
-    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
       <c r="B16" s="79"/>
       <c r="C16" s="80"/>
       <c r="D16" s="81"/>
@@ -4487,7 +4551,7 @@
       </c>
       <c r="AC16" s="58"/>
     </row>
-    <row r="17" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:32" s="74" customFormat="1">
       <c r="B17" s="78" t="s">
         <v>121</v>
       </c>
@@ -4554,7 +4618,7 @@
       <c r="AE17" s="73"/>
       <c r="AF17" s="73"/>
     </row>
-    <row r="18" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:32" s="74" customFormat="1">
       <c r="B18" s="78" t="s">
         <v>121</v>
       </c>
@@ -4625,7 +4689,7 @@
       <c r="AE18" s="73"/>
       <c r="AF18" s="73"/>
     </row>
-    <row r="19" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:32" s="74" customFormat="1">
       <c r="B19" s="78" t="s">
         <v>121</v>
       </c>
@@ -4692,7 +4756,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
     </row>
-    <row r="20" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:32" s="74" customFormat="1">
       <c r="B20" s="78" t="s">
         <v>121</v>
       </c>
@@ -4759,7 +4823,7 @@
       <c r="AE20" s="73"/>
       <c r="AF20" s="73"/>
     </row>
-    <row r="21" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:32" s="74" customFormat="1">
       <c r="B21" s="78" t="s">
         <v>121</v>
       </c>
@@ -4826,7 +4890,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
     </row>
-    <row r="22" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:32" s="74" customFormat="1">
       <c r="B22" s="78" t="s">
         <v>121</v>
       </c>
@@ -4893,7 +4957,7 @@
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
     </row>
-    <row r="23" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:32" s="74" customFormat="1">
       <c r="B23" s="78" t="s">
         <v>121</v>
       </c>
@@ -4960,7 +5024,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
     </row>
-    <row r="24" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:32" s="74" customFormat="1">
       <c r="B24" s="78" t="s">
         <v>121</v>
       </c>
@@ -5027,7 +5091,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
     </row>
-    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1">
       <c r="B25" s="78" t="s">
         <v>121</v>
       </c>
@@ -5094,7 +5158,7 @@
       <c r="AE25" s="73"/>
       <c r="AF25" s="73"/>
     </row>
-    <row r="26" spans="2:32" s="71" customFormat="1" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="2:32" s="71" customFormat="1" ht="65.25" customHeight="1">
       <c r="B26" s="79"/>
       <c r="C26" s="80"/>
       <c r="D26" s="81"/>
@@ -5142,7 +5206,7 @@
       </c>
       <c r="AC26" s="58"/>
     </row>
-    <row r="27" spans="2:32" s="74" customFormat="1" ht="36" x14ac:dyDescent="0.2">
+    <row r="27" spans="2:32" s="74" customFormat="1" ht="36">
       <c r="B27" s="79"/>
       <c r="C27" s="80"/>
       <c r="D27" s="81"/>
@@ -5193,7 +5257,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
     </row>
-    <row r="28" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:32" s="74" customFormat="1">
       <c r="B28" s="80"/>
       <c r="C28" s="80"/>
       <c r="D28" s="81"/>
@@ -5246,7 +5310,7 @@
       <c r="AE28" s="73"/>
       <c r="AF28" s="73"/>
     </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="29" spans="2:32">
       <c r="B29" s="78" t="s">
         <v>121</v>
       </c>
@@ -5298,7 +5362,7 @@
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:32">
       <c r="B30" s="78" t="s">
         <v>121</v>
       </c>
@@ -5350,7 +5414,7 @@
       <c r="AB30" s="58"/>
       <c r="AC30" s="58"/>
     </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="31" spans="2:32">
       <c r="B31" s="78" t="s">
         <v>121</v>
       </c>
@@ -5402,7 +5466,7 @@
       <c r="AB31" s="58"/>
       <c r="AC31" s="58"/>
     </row>
-    <row r="32" spans="2:32" s="67" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="2:32" s="67" customFormat="1">
       <c r="B32" s="78" t="s">
         <v>121</v>
       </c>
@@ -5466,7 +5530,7 @@
       </c>
       <c r="AC32" s="58"/>
     </row>
-    <row r="33" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:34" s="6" customFormat="1">
       <c r="B33" s="58" t="s">
         <v>121</v>
       </c>
@@ -5522,7 +5586,7 @@
       <c r="AG33" s="96"/>
       <c r="AH33" s="96"/>
     </row>
-    <row r="34" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="2:34" s="6" customFormat="1">
       <c r="B34" s="58" t="s">
         <v>121</v>
       </c>
@@ -5578,7 +5642,7 @@
       <c r="AG34" s="96"/>
       <c r="AH34" s="96"/>
     </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="35" spans="2:34">
       <c r="B35" s="78" t="s">
         <v>121</v>
       </c>
@@ -5630,7 +5694,7 @@
       <c r="AB35" s="58"/>
       <c r="AC35" s="58"/>
     </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="36" spans="2:34">
       <c r="B36" s="78" t="s">
         <v>121</v>
       </c>
@@ -5682,7 +5746,7 @@
       <c r="AB36" s="58"/>
       <c r="AC36" s="58"/>
     </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="37" spans="2:34">
       <c r="B37" s="78" t="s">
         <v>121</v>
       </c>
@@ -5734,7 +5798,7 @@
       <c r="AB37" s="58"/>
       <c r="AC37" s="58"/>
     </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="38" spans="2:34">
       <c r="B38" s="78" t="s">
         <v>121</v>
       </c>
@@ -5782,7 +5846,7 @@
       <c r="AB38" s="58"/>
       <c r="AC38" s="58"/>
     </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="39" spans="2:34">
       <c r="B39" s="78" t="s">
         <v>121</v>
       </c>
@@ -5830,7 +5894,7 @@
       <c r="AB39" s="58"/>
       <c r="AC39" s="58"/>
     </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="40" spans="2:34">
       <c r="B40" s="97" t="s">
         <v>121</v>
       </c>
@@ -5882,7 +5946,7 @@
       <c r="AB40" s="58"/>
       <c r="AC40" s="58"/>
     </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="41" spans="2:34">
       <c r="B41" s="103"/>
       <c r="C41" s="103"/>
       <c r="D41" s="104"/>
@@ -5922,7 +5986,7 @@
       <c r="AB41" s="90"/>
       <c r="AC41" s="90"/>
     </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="42" spans="2:34">
       <c r="B42" s="103"/>
       <c r="C42" s="103"/>
       <c r="D42" s="104"/>
@@ -5962,7 +6026,7 @@
       <c r="AB42" s="90"/>
       <c r="AC42" s="90"/>
     </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+    <row r="43" spans="2:34">
       <c r="B43" s="103"/>
       <c r="C43" s="103"/>
       <c r="D43" s="104"/>
@@ -6012,20 +6076,20 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:AH43"/>
+  <dimension ref="B1:AH45"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="3" ySplit="3" topLeftCell="D4" activePane="bottomRight" state="frozenSplit"/>
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F39" sqref="F39"/>
+      <selection pane="bottomRight"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
     <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
@@ -6061,50 +6125,50 @@
     <col min="34" max="16384" width="30.5703125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:32">
       <c r="R1" s="48"/>
       <c r="S1" s="48"/>
       <c r="T1" s="48"/>
     </row>
-    <row r="2" spans="2:32" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="161" t="s">
+    <row r="2" spans="2:32" ht="25.5" customHeight="1">
+      <c r="B2" s="158" t="s">
         <v>6</v>
       </c>
-      <c r="C2" s="162"/>
-      <c r="D2" s="162"/>
-      <c r="E2" s="162"/>
-      <c r="F2" s="162"/>
-      <c r="G2" s="162"/>
-      <c r="H2" s="162"/>
-      <c r="I2" s="162"/>
-      <c r="J2" s="162"/>
-      <c r="K2" s="162"/>
-      <c r="L2" s="162"/>
-      <c r="M2" s="162"/>
-      <c r="N2" s="163" t="s">
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="163"/>
-      <c r="P2" s="164"/>
-      <c r="Q2" s="165" t="s">
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="162" t="s">
         <v>12</v>
       </c>
-      <c r="R2" s="166"/>
-      <c r="S2" s="166"/>
-      <c r="T2" s="166"/>
-      <c r="U2" s="166"/>
-      <c r="V2" s="166"/>
-      <c r="W2" s="166"/>
-      <c r="X2" s="166"/>
-      <c r="Y2" s="166"/>
-      <c r="Z2" s="166"/>
-      <c r="AA2" s="166"/>
-      <c r="AB2" s="167"/>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="164"/>
       <c r="AC2" s="34" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="2:32" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:32" ht="22.5">
       <c r="B3" s="49" t="s">
         <v>3</v>
       </c>
@@ -6188,7 +6252,7 @@
       </c>
       <c r="AC3" s="54"/>
     </row>
-    <row r="4" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B4" s="58" t="s">
         <v>121</v>
       </c>
@@ -6197,7 +6261,7 @@
       </c>
       <c r="D4" s="78"/>
       <c r="E4" s="78"/>
-      <c r="F4" s="62" t="s">
+      <c r="F4" s="72" t="s">
         <v>81</v>
       </c>
       <c r="G4" s="78"/>
@@ -6205,7 +6269,7 @@
       <c r="I4" s="61" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="62" t="s">
+      <c r="J4" s="70" t="s">
         <v>110</v>
       </c>
       <c r="K4" s="64">
@@ -6213,9 +6277,7 @@
       </c>
       <c r="L4" s="64"/>
       <c r="M4" s="78"/>
-      <c r="N4" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N4" s="58"/>
       <c r="O4" s="62"/>
       <c r="P4" s="63"/>
       <c r="Q4" s="78" t="s">
@@ -6246,7 +6308,7 @@
       <c r="AB4" s="62"/>
       <c r="AC4" s="64"/>
     </row>
-    <row r="5" spans="2:32" s="67" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
       <c r="B5" s="58" t="s">
         <v>121</v>
       </c>
@@ -6255,7 +6317,7 @@
       </c>
       <c r="D5" s="78"/>
       <c r="E5" s="78"/>
-      <c r="F5" s="62" t="s">
+      <c r="F5" s="72" t="s">
         <v>86</v>
       </c>
       <c r="G5" s="78"/>
@@ -6263,7 +6325,7 @@
       <c r="I5" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J5" s="62" t="s">
+      <c r="J5" s="70" t="s">
         <v>110</v>
       </c>
       <c r="K5" s="64">
@@ -6271,9 +6333,7 @@
       </c>
       <c r="L5" s="64"/>
       <c r="M5" s="78"/>
-      <c r="N5" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N5" s="58"/>
       <c r="O5" s="62"/>
       <c r="P5" s="63"/>
       <c r="Q5" s="78" t="s">
@@ -6304,7 +6364,7 @@
       <c r="AB5" s="62"/>
       <c r="AC5" s="64"/>
     </row>
-    <row r="6" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:32" s="74" customFormat="1">
       <c r="B6" s="58" t="s">
         <v>121</v>
       </c>
@@ -6321,7 +6381,7 @@
       <c r="I6" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J6" s="62" t="s">
+      <c r="J6" s="70" t="s">
         <v>110</v>
       </c>
       <c r="K6" s="64">
@@ -6329,9 +6389,7 @@
       </c>
       <c r="L6" s="64"/>
       <c r="M6" s="58"/>
-      <c r="N6" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N6" s="58"/>
       <c r="O6" s="62"/>
       <c r="P6" s="63"/>
       <c r="Q6" s="78" t="s">
@@ -6365,7 +6423,7 @@
       <c r="AE6" s="73"/>
       <c r="AF6" s="73"/>
     </row>
-    <row r="7" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:32" s="74" customFormat="1">
       <c r="B7" s="58" t="s">
         <v>121</v>
       </c>
@@ -6374,7 +6432,7 @@
       </c>
       <c r="D7" s="58"/>
       <c r="E7" s="58"/>
-      <c r="F7" s="58" t="s">
+      <c r="F7" s="68" t="s">
         <v>87</v>
       </c>
       <c r="G7" s="58"/>
@@ -6382,7 +6440,7 @@
       <c r="I7" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J7" s="62" t="s">
+      <c r="J7" s="70" t="s">
         <v>110</v>
       </c>
       <c r="K7" s="64">
@@ -6390,9 +6448,7 @@
       </c>
       <c r="L7" s="64"/>
       <c r="M7" s="58"/>
-      <c r="N7" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N7" s="58"/>
       <c r="O7" s="62"/>
       <c r="P7" s="63"/>
       <c r="Q7" s="78" t="s">
@@ -6426,7 +6482,7 @@
       <c r="AE7" s="73"/>
       <c r="AF7" s="73"/>
     </row>
-    <row r="8" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
       <c r="B8" s="58" t="s">
         <v>121</v>
       </c>
@@ -6437,7 +6493,7 @@
       <c r="E8" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F8" s="110" t="s">
+      <c r="F8" s="60" t="s">
         <v>82</v>
       </c>
       <c r="G8" s="61"/>
@@ -6453,9 +6509,7 @@
       </c>
       <c r="L8" s="64"/>
       <c r="M8" s="58"/>
-      <c r="N8" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N8" s="58"/>
       <c r="O8" s="62"/>
       <c r="P8" s="63"/>
       <c r="Q8" s="78" t="s">
@@ -6486,7 +6540,7 @@
       <c r="AB8" s="62"/>
       <c r="AC8" s="64"/>
     </row>
-    <row r="9" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B9" s="58" t="s">
         <v>121</v>
       </c>
@@ -6497,8 +6551,8 @@
       <c r="E9" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F9" s="110" t="s">
-        <v>88</v>
+      <c r="F9" s="60" t="s">
+        <v>83</v>
       </c>
       <c r="G9" s="61"/>
       <c r="H9" s="61"/>
@@ -6506,16 +6560,14 @@
         <v>109</v>
       </c>
       <c r="J9" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K9" s="64">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="K9" s="58">
+        <v>2</v>
       </c>
       <c r="L9" s="64"/>
       <c r="M9" s="58"/>
-      <c r="N9" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N9" s="58"/>
       <c r="O9" s="62"/>
       <c r="P9" s="63"/>
       <c r="Q9" s="78" t="s">
@@ -6528,7 +6580,7 @@
         <v>122</v>
       </c>
       <c r="T9" s="60" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="U9" s="61"/>
       <c r="V9" s="61"/>
@@ -6536,17 +6588,17 @@
         <v>109</v>
       </c>
       <c r="X9" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y9" s="64">
-        <v>11</v>
+        <v>108</v>
+      </c>
+      <c r="Y9" s="58">
+        <v>2</v>
       </c>
       <c r="Z9" s="64"/>
       <c r="AA9" s="58"/>
       <c r="AB9" s="62"/>
-      <c r="AC9" s="64"/>
-    </row>
-    <row r="10" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="2:32" s="71" customFormat="1" ht="12">
       <c r="B10" s="58" t="s">
         <v>121</v>
       </c>
@@ -6557,8 +6609,8 @@
       <c r="E10" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F10" s="110" t="s">
-        <v>83</v>
+      <c r="F10" s="60" t="s">
+        <v>89</v>
       </c>
       <c r="G10" s="61"/>
       <c r="H10" s="61"/>
@@ -6568,14 +6620,12 @@
       <c r="J10" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="K10" s="58">
-        <v>2</v>
+      <c r="K10" s="64">
+        <v>4</v>
       </c>
       <c r="L10" s="64"/>
       <c r="M10" s="58"/>
-      <c r="N10" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N10" s="58"/>
       <c r="O10" s="62"/>
       <c r="P10" s="63"/>
       <c r="Q10" s="78" t="s">
@@ -6588,7 +6638,7 @@
         <v>122</v>
       </c>
       <c r="T10" s="60" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="U10" s="61"/>
       <c r="V10" s="61"/>
@@ -6598,15 +6648,15 @@
       <c r="X10" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y10" s="58">
-        <v>2</v>
+      <c r="Y10" s="64">
+        <v>4</v>
       </c>
       <c r="Z10" s="64"/>
       <c r="AA10" s="58"/>
       <c r="AB10" s="62"/>
-      <c r="AC10" s="58"/>
-    </row>
-    <row r="11" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="AC10" s="64"/>
+    </row>
+    <row r="11" spans="2:32" s="65" customFormat="1" ht="12">
       <c r="B11" s="58" t="s">
         <v>121</v>
       </c>
@@ -6617,8 +6667,8 @@
       <c r="E11" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F11" s="110" t="s">
-        <v>89</v>
+      <c r="F11" s="60" t="s">
+        <v>73</v>
       </c>
       <c r="G11" s="61"/>
       <c r="H11" s="61"/>
@@ -6628,14 +6678,12 @@
       <c r="J11" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="K11" s="64">
+      <c r="K11" s="58">
         <v>4</v>
       </c>
       <c r="L11" s="64"/>
       <c r="M11" s="58"/>
-      <c r="N11" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N11" s="58"/>
       <c r="O11" s="62"/>
       <c r="P11" s="63"/>
       <c r="Q11" s="78" t="s">
@@ -6648,7 +6696,7 @@
         <v>122</v>
       </c>
       <c r="T11" s="60" t="s">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="U11" s="61"/>
       <c r="V11" s="61"/>
@@ -6658,15 +6706,15 @@
       <c r="X11" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="Y11" s="64">
+      <c r="Y11" s="58">
         <v>4</v>
       </c>
       <c r="Z11" s="64"/>
       <c r="AA11" s="58"/>
       <c r="AB11" s="62"/>
-      <c r="AC11" s="64"/>
-    </row>
-    <row r="12" spans="2:32" s="65" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
       <c r="B12" s="58" t="s">
         <v>121</v>
       </c>
@@ -6677,25 +6725,23 @@
       <c r="E12" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F12" s="110" t="s">
-        <v>73</v>
-      </c>
-      <c r="G12" s="61"/>
-      <c r="H12" s="61"/>
+      <c r="F12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
       <c r="I12" s="61" t="s">
         <v>109</v>
       </c>
       <c r="J12" s="58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K12" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L12" s="64"/>
       <c r="M12" s="58"/>
-      <c r="N12" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N12" s="58"/>
       <c r="O12" s="62"/>
       <c r="P12" s="63"/>
       <c r="Q12" s="78" t="s">
@@ -6708,25 +6754,25 @@
         <v>122</v>
       </c>
       <c r="T12" s="60" t="s">
-        <v>73</v>
-      </c>
-      <c r="U12" s="61"/>
-      <c r="V12" s="61"/>
+        <v>90</v>
+      </c>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
       <c r="W12" s="61" t="s">
         <v>109</v>
       </c>
       <c r="X12" s="58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y12" s="58">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="Z12" s="64"/>
       <c r="AA12" s="58"/>
       <c r="AB12" s="62"/>
       <c r="AC12" s="58"/>
     </row>
-    <row r="13" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:32" s="74" customFormat="1">
       <c r="B13" s="58" t="s">
         <v>121</v>
       </c>
@@ -6734,28 +6780,24 @@
         <v>120</v>
       </c>
       <c r="D13" s="58"/>
-      <c r="E13" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F13" s="110" t="s">
-        <v>90</v>
+      <c r="E13" s="58"/>
+      <c r="F13" s="68" t="s">
+        <v>91</v>
       </c>
       <c r="G13" s="58"/>
       <c r="H13" s="58"/>
       <c r="I13" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J13" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K13" s="58">
-        <v>1</v>
+      <c r="J13" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="64">
+        <v>3</v>
       </c>
       <c r="L13" s="64"/>
       <c r="M13" s="58"/>
-      <c r="N13" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N13" s="58"/>
       <c r="O13" s="62"/>
       <c r="P13" s="63"/>
       <c r="Q13" s="78" t="s">
@@ -6767,26 +6809,29 @@
       <c r="S13" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T13" s="60" t="s">
-        <v>90</v>
+      <c r="T13" s="68" t="s">
+        <v>91</v>
       </c>
       <c r="U13" s="58"/>
       <c r="V13" s="58"/>
       <c r="W13" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X13" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y13" s="58">
-        <v>1</v>
+      <c r="X13" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="64">
+        <v>3</v>
       </c>
       <c r="Z13" s="64"/>
       <c r="AA13" s="58"/>
       <c r="AB13" s="62"/>
       <c r="AC13" s="58"/>
-    </row>
-    <row r="14" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+    </row>
+    <row r="14" spans="2:32" s="74" customFormat="1">
       <c r="B14" s="58" t="s">
         <v>121</v>
       </c>
@@ -6795,25 +6840,25 @@
       </c>
       <c r="D14" s="58"/>
       <c r="E14" s="58"/>
-      <c r="F14" s="58" t="s">
-        <v>91</v>
+      <c r="F14" s="68" t="s">
+        <v>92</v>
       </c>
       <c r="G14" s="58"/>
       <c r="H14" s="58"/>
       <c r="I14" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J14" s="62" t="s">
+      <c r="J14" s="70" t="s">
         <v>108</v>
       </c>
       <c r="K14" s="64">
-        <v>3</v>
-      </c>
-      <c r="L14" s="64"/>
+        <v>6</v>
+      </c>
+      <c r="L14" s="64">
+        <v>2</v>
+      </c>
       <c r="M14" s="58"/>
-      <c r="N14" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N14" s="58"/>
       <c r="O14" s="62"/>
       <c r="P14" s="63"/>
       <c r="Q14" s="78" t="s">
@@ -6826,7 +6871,7 @@
         <v>122</v>
       </c>
       <c r="T14" s="68" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="U14" s="58"/>
       <c r="V14" s="58"/>
@@ -6837,9 +6882,11 @@
         <v>108</v>
       </c>
       <c r="Y14" s="64">
-        <v>3</v>
-      </c>
-      <c r="Z14" s="64"/>
+        <v>6</v>
+      </c>
+      <c r="Z14" s="64">
+        <v>2</v>
+      </c>
       <c r="AA14" s="58"/>
       <c r="AB14" s="62"/>
       <c r="AC14" s="58"/>
@@ -6847,7 +6894,7 @@
       <c r="AE14" s="73"/>
       <c r="AF14" s="73"/>
     </row>
-    <row r="15" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
       <c r="B15" s="58" t="s">
         <v>121</v>
       </c>
@@ -6856,27 +6903,21 @@
       </c>
       <c r="D15" s="58"/>
       <c r="E15" s="58"/>
-      <c r="F15" s="58" t="s">
-        <v>92</v>
+      <c r="F15" s="72" t="s">
+        <v>93</v>
       </c>
       <c r="G15" s="58"/>
       <c r="H15" s="58"/>
       <c r="I15" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J15" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="K15" s="64">
-        <v>6</v>
-      </c>
-      <c r="L15" s="64">
-        <v>2</v>
-      </c>
+      <c r="J15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
       <c r="M15" s="58"/>
-      <c r="N15" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N15" s="58"/>
       <c r="O15" s="62"/>
       <c r="P15" s="63"/>
       <c r="Q15" s="78" t="s">
@@ -6888,8 +6929,8 @@
       <c r="S15" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T15" s="68" t="s">
-        <v>92</v>
+      <c r="T15" s="72" t="s">
+        <v>93</v>
       </c>
       <c r="U15" s="58"/>
       <c r="V15" s="58"/>
@@ -6897,22 +6938,15 @@
         <v>109</v>
       </c>
       <c r="X15" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y15" s="64">
-        <v>6</v>
-      </c>
-      <c r="Z15" s="64">
-        <v>2</v>
-      </c>
+        <v>106</v>
+      </c>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
       <c r="AA15" s="58"/>
       <c r="AB15" s="62"/>
       <c r="AC15" s="58"/>
-      <c r="AD15" s="73"/>
-      <c r="AE15" s="73"/>
-      <c r="AF15" s="73"/>
-    </row>
-    <row r="16" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+    </row>
+    <row r="16" spans="2:32" s="74" customFormat="1">
       <c r="B16" s="58" t="s">
         <v>121</v>
       </c>
@@ -6920,24 +6954,26 @@
         <v>120</v>
       </c>
       <c r="D16" s="58"/>
-      <c r="E16" s="58"/>
-      <c r="F16" s="62" t="s">
-        <v>93</v>
+      <c r="E16" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="58"/>
       <c r="H16" s="58"/>
       <c r="I16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J16" s="62" t="s">
-        <v>106</v>
-      </c>
-      <c r="K16" s="64"/>
-      <c r="L16" s="64"/>
+      <c r="J16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="58">
+        <v>12</v>
+      </c>
+      <c r="L16" s="58"/>
       <c r="M16" s="58"/>
-      <c r="N16" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N16" s="58"/>
       <c r="O16" s="62"/>
       <c r="P16" s="63"/>
       <c r="Q16" s="78" t="s">
@@ -6950,23 +6986,28 @@
         <v>122</v>
       </c>
       <c r="T16" s="72" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="U16" s="58"/>
       <c r="V16" s="58"/>
       <c r="W16" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X16" s="70" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y16" s="64"/>
-      <c r="Z16" s="64"/>
+      <c r="X16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" s="58">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="58"/>
       <c r="AA16" s="58"/>
       <c r="AB16" s="62"/>
       <c r="AC16" s="58"/>
-    </row>
-    <row r="17" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+    </row>
+    <row r="17" spans="2:34" s="74" customFormat="1">
       <c r="B17" s="58" t="s">
         <v>121</v>
       </c>
@@ -6977,8 +7018,8 @@
       <c r="E17" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F17" s="62" t="s">
-        <v>94</v>
+      <c r="F17" s="72" t="s">
+        <v>95</v>
       </c>
       <c r="G17" s="58"/>
       <c r="H17" s="58"/>
@@ -6989,13 +7030,13 @@
         <v>108</v>
       </c>
       <c r="K17" s="58">
-        <v>12</v>
-      </c>
-      <c r="L17" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="L17" s="58">
+        <v>2</v>
+      </c>
       <c r="M17" s="58"/>
-      <c r="N17" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N17" s="58"/>
       <c r="O17" s="62"/>
       <c r="P17" s="63"/>
       <c r="Q17" s="78" t="s">
@@ -7008,7 +7049,7 @@
         <v>122</v>
       </c>
       <c r="T17" s="72" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U17" s="58"/>
       <c r="V17" s="58"/>
@@ -7019,9 +7060,11 @@
         <v>108</v>
       </c>
       <c r="Y17" s="58">
-        <v>12</v>
-      </c>
-      <c r="Z17" s="58"/>
+        <v>8</v>
+      </c>
+      <c r="Z17" s="58">
+        <v>2</v>
+      </c>
       <c r="AA17" s="58"/>
       <c r="AB17" s="62"/>
       <c r="AC17" s="58"/>
@@ -7029,7 +7072,7 @@
       <c r="AE17" s="73"/>
       <c r="AF17" s="73"/>
     </row>
-    <row r="18" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:34" s="74" customFormat="1">
       <c r="B18" s="58" t="s">
         <v>121</v>
       </c>
@@ -7040,8 +7083,8 @@
       <c r="E18" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F18" s="62" t="s">
-        <v>95</v>
+      <c r="F18" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="G18" s="58"/>
       <c r="H18" s="58"/>
@@ -7049,18 +7092,14 @@
         <v>109</v>
       </c>
       <c r="J18" s="58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="K18" s="58">
-        <v>8</v>
-      </c>
-      <c r="L18" s="58">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="L18" s="58"/>
       <c r="M18" s="58"/>
-      <c r="N18" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N18" s="58"/>
       <c r="O18" s="62"/>
       <c r="P18" s="63"/>
       <c r="Q18" s="78" t="s">
@@ -7073,7 +7112,7 @@
         <v>122</v>
       </c>
       <c r="T18" s="72" t="s">
-        <v>95</v>
+        <v>74</v>
       </c>
       <c r="U18" s="58"/>
       <c r="V18" s="58"/>
@@ -7081,14 +7120,12 @@
         <v>109</v>
       </c>
       <c r="X18" s="58" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="Y18" s="58">
-        <v>8</v>
-      </c>
-      <c r="Z18" s="58">
-        <v>2</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="Z18" s="58"/>
       <c r="AA18" s="58"/>
       <c r="AB18" s="62"/>
       <c r="AC18" s="58"/>
@@ -7096,7 +7133,7 @@
       <c r="AE18" s="73"/>
       <c r="AF18" s="73"/>
     </row>
-    <row r="19" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:34" s="74" customFormat="1">
       <c r="B19" s="58" t="s">
         <v>121</v>
       </c>
@@ -7107,8 +7144,8 @@
       <c r="E19" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F19" s="62" t="s">
-        <v>74</v>
+      <c r="F19" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="G19" s="58"/>
       <c r="H19" s="58"/>
@@ -7119,15 +7156,13 @@
         <v>110</v>
       </c>
       <c r="K19" s="58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L19" s="58"/>
       <c r="M19" s="58"/>
-      <c r="N19" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N19" s="58"/>
       <c r="O19" s="62"/>
-      <c r="P19" s="63"/>
+      <c r="P19" s="75"/>
       <c r="Q19" s="78" t="s">
         <v>120</v>
       </c>
@@ -7138,7 +7173,7 @@
         <v>122</v>
       </c>
       <c r="T19" s="72" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U19" s="58"/>
       <c r="V19" s="58"/>
@@ -7149,7 +7184,7 @@
         <v>110</v>
       </c>
       <c r="Y19" s="58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z19" s="58"/>
       <c r="AA19" s="58"/>
@@ -7159,7 +7194,7 @@
       <c r="AE19" s="73"/>
       <c r="AF19" s="73"/>
     </row>
-    <row r="20" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:34" s="74" customFormat="1">
       <c r="B20" s="58" t="s">
         <v>121</v>
       </c>
@@ -7170,8 +7205,8 @@
       <c r="E20" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="62" t="s">
-        <v>75</v>
+      <c r="F20" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="G20" s="58"/>
       <c r="H20" s="58"/>
@@ -7182,15 +7217,13 @@
         <v>110</v>
       </c>
       <c r="K20" s="58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="L20" s="58"/>
       <c r="M20" s="58"/>
-      <c r="N20" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N20" s="58"/>
       <c r="O20" s="62"/>
-      <c r="P20" s="75"/>
+      <c r="P20" s="63"/>
       <c r="Q20" s="78" t="s">
         <v>120</v>
       </c>
@@ -7201,7 +7234,7 @@
         <v>122</v>
       </c>
       <c r="T20" s="72" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="U20" s="58"/>
       <c r="V20" s="58"/>
@@ -7212,7 +7245,7 @@
         <v>110</v>
       </c>
       <c r="Y20" s="58">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="Z20" s="58"/>
       <c r="AA20" s="58"/>
@@ -7222,7 +7255,7 @@
       <c r="AE20" s="73"/>
       <c r="AF20" s="73"/>
     </row>
-    <row r="21" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:34" s="74" customFormat="1">
       <c r="B21" s="58" t="s">
         <v>121</v>
       </c>
@@ -7233,8 +7266,8 @@
       <c r="E21" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F21" s="62" t="s">
-        <v>76</v>
+      <c r="F21" s="72" t="s">
+        <v>77</v>
       </c>
       <c r="G21" s="58"/>
       <c r="H21" s="58"/>
@@ -7245,13 +7278,11 @@
         <v>110</v>
       </c>
       <c r="K21" s="58">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="L21" s="58"/>
       <c r="M21" s="58"/>
-      <c r="N21" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N21" s="58"/>
       <c r="O21" s="62"/>
       <c r="P21" s="63"/>
       <c r="Q21" s="78" t="s">
@@ -7264,7 +7295,7 @@
         <v>122</v>
       </c>
       <c r="T21" s="72" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="U21" s="58"/>
       <c r="V21" s="58"/>
@@ -7275,7 +7306,7 @@
         <v>110</v>
       </c>
       <c r="Y21" s="58">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="Z21" s="58"/>
       <c r="AA21" s="58"/>
@@ -7285,7 +7316,7 @@
       <c r="AE21" s="73"/>
       <c r="AF21" s="73"/>
     </row>
-    <row r="22" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:34" s="74" customFormat="1">
       <c r="B22" s="58" t="s">
         <v>121</v>
       </c>
@@ -7296,8 +7327,8 @@
       <c r="E22" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F22" s="62" t="s">
-        <v>77</v>
+      <c r="F22" s="72" t="s">
+        <v>78</v>
       </c>
       <c r="G22" s="58"/>
       <c r="H22" s="58"/>
@@ -7308,13 +7339,11 @@
         <v>110</v>
       </c>
       <c r="K22" s="58">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="L22" s="58"/>
       <c r="M22" s="58"/>
-      <c r="N22" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N22" s="58"/>
       <c r="O22" s="62"/>
       <c r="P22" s="63"/>
       <c r="Q22" s="78" t="s">
@@ -7327,7 +7356,7 @@
         <v>122</v>
       </c>
       <c r="T22" s="72" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="U22" s="58"/>
       <c r="V22" s="58"/>
@@ -7338,7 +7367,7 @@
         <v>110</v>
       </c>
       <c r="Y22" s="58">
-        <v>15</v>
+        <v>2</v>
       </c>
       <c r="Z22" s="58"/>
       <c r="AA22" s="58"/>
@@ -7348,7 +7377,7 @@
       <c r="AE22" s="73"/>
       <c r="AF22" s="73"/>
     </row>
-    <row r="23" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:34" s="74" customFormat="1">
       <c r="B23" s="58" t="s">
         <v>121</v>
       </c>
@@ -7359,8 +7388,8 @@
       <c r="E23" s="58" t="s">
         <v>99</v>
       </c>
-      <c r="F23" s="62" t="s">
-        <v>78</v>
+      <c r="F23" s="72" t="s">
+        <v>79</v>
       </c>
       <c r="G23" s="58"/>
       <c r="H23" s="58"/>
@@ -7371,13 +7400,11 @@
         <v>110</v>
       </c>
       <c r="K23" s="58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="L23" s="58"/>
       <c r="M23" s="58"/>
-      <c r="N23" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N23" s="58"/>
       <c r="O23" s="62"/>
       <c r="P23" s="63"/>
       <c r="Q23" s="78" t="s">
@@ -7390,7 +7417,7 @@
         <v>122</v>
       </c>
       <c r="T23" s="72" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="U23" s="58"/>
       <c r="V23" s="58"/>
@@ -7401,7 +7428,7 @@
         <v>110</v>
       </c>
       <c r="Y23" s="58">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="Z23" s="58"/>
       <c r="AA23" s="58"/>
@@ -7411,7 +7438,7 @@
       <c r="AE23" s="73"/>
       <c r="AF23" s="73"/>
     </row>
-    <row r="24" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:34" s="74" customFormat="1" ht="15" customHeight="1">
       <c r="B24" s="58" t="s">
         <v>121</v>
       </c>
@@ -7423,7 +7450,7 @@
         <v>99</v>
       </c>
       <c r="F24" s="62" t="s">
-        <v>79</v>
+        <v>96</v>
       </c>
       <c r="G24" s="58"/>
       <c r="H24" s="58"/>
@@ -7431,16 +7458,14 @@
         <v>109</v>
       </c>
       <c r="J24" s="58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K24" s="58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="L24" s="58"/>
       <c r="M24" s="58"/>
-      <c r="N24" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N24" s="58"/>
       <c r="O24" s="62"/>
       <c r="P24" s="63"/>
       <c r="Q24" s="78" t="s">
@@ -7452,8 +7477,8 @@
       <c r="S24" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T24" s="72" t="s">
-        <v>79</v>
+      <c r="T24" s="62" t="s">
+        <v>96</v>
       </c>
       <c r="U24" s="58"/>
       <c r="V24" s="58"/>
@@ -7461,10 +7486,10 @@
         <v>109</v>
       </c>
       <c r="X24" s="58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y24" s="58">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="Z24" s="58"/>
       <c r="AA24" s="58"/>
@@ -7474,7 +7499,7 @@
       <c r="AE24" s="73"/>
       <c r="AF24" s="73"/>
     </row>
-    <row r="25" spans="2:32" s="74" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:34" s="71" customFormat="1" ht="12">
       <c r="B25" s="58" t="s">
         <v>121</v>
       </c>
@@ -7482,62 +7507,55 @@
         <v>120</v>
       </c>
       <c r="D25" s="58"/>
-      <c r="E25" s="58" t="s">
-        <v>99</v>
-      </c>
-      <c r="F25" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="G25" s="58"/>
-      <c r="H25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
       <c r="I25" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J25" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K25" s="58">
-        <v>10</v>
-      </c>
-      <c r="L25" s="58"/>
+      <c r="J25" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="64">
+        <v>30</v>
+      </c>
+      <c r="L25" s="64"/>
       <c r="M25" s="58"/>
-      <c r="N25" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N25" s="58"/>
       <c r="O25" s="62"/>
       <c r="P25" s="63"/>
-      <c r="Q25" s="78" t="s">
+      <c r="Q25" s="58" t="s">
         <v>120</v>
       </c>
       <c r="R25" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S25" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T25" s="62" t="s">
-        <v>96</v>
-      </c>
-      <c r="U25" s="58"/>
-      <c r="V25" s="58"/>
+      <c r="S25" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
       <c r="W25" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="X25" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y25" s="58">
-        <v>10</v>
-      </c>
-      <c r="Z25" s="58"/>
+      <c r="X25" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25" s="64">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="64"/>
       <c r="AA25" s="58"/>
       <c r="AB25" s="62"/>
       <c r="AC25" s="58"/>
-      <c r="AD25" s="73"/>
-      <c r="AE25" s="73"/>
-      <c r="AF25" s="73"/>
-    </row>
-    <row r="26" spans="2:32" s="71" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+    </row>
+    <row r="26" spans="2:34" s="74" customFormat="1">
       <c r="B26" s="58" t="s">
         <v>121</v>
       </c>
@@ -7546,41 +7564,39 @@
       </c>
       <c r="D26" s="58"/>
       <c r="E26" s="58"/>
-      <c r="F26" s="58" t="s">
-        <v>97</v>
-      </c>
-      <c r="G26" s="61"/>
-      <c r="H26" s="61"/>
+      <c r="F26" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
       <c r="I26" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J26" s="62" t="s">
+      <c r="J26" s="70" t="s">
         <v>110</v>
       </c>
       <c r="K26" s="64">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="L26" s="64"/>
       <c r="M26" s="58"/>
-      <c r="N26" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N26" s="58"/>
       <c r="O26" s="62"/>
       <c r="P26" s="63"/>
-      <c r="Q26" s="58" t="s">
+      <c r="Q26" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R26" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S26" s="59" t="s">
-        <v>122</v>
-      </c>
-      <c r="T26" s="69" t="s">
-        <v>97</v>
-      </c>
-      <c r="U26" s="61"/>
-      <c r="V26" s="61"/>
+      <c r="S26" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T26" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
       <c r="W26" s="61" t="s">
         <v>109</v>
       </c>
@@ -7588,14 +7604,17 @@
         <v>110</v>
       </c>
       <c r="Y26" s="64">
-        <v>30</v>
+        <v>15</v>
       </c>
       <c r="Z26" s="64"/>
       <c r="AA26" s="58"/>
       <c r="AB26" s="62"/>
       <c r="AC26" s="58"/>
-    </row>
-    <row r="27" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+    </row>
+    <row r="27" spans="2:34" s="74" customFormat="1">
       <c r="B27" s="58" t="s">
         <v>121</v>
       </c>
@@ -7604,25 +7623,25 @@
       </c>
       <c r="D27" s="58"/>
       <c r="E27" s="58"/>
-      <c r="F27" s="62" t="s">
-        <v>98</v>
+      <c r="F27" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="G27" s="58"/>
       <c r="H27" s="58"/>
       <c r="I27" s="61" t="s">
         <v>109</v>
       </c>
-      <c r="J27" s="62" t="s">
-        <v>110</v>
+      <c r="J27" s="70" t="s">
+        <v>108</v>
       </c>
       <c r="K27" s="64">
-        <v>15</v>
-      </c>
-      <c r="L27" s="64"/>
+        <v>6</v>
+      </c>
+      <c r="L27" s="64">
+        <v>2</v>
+      </c>
       <c r="M27" s="58"/>
-      <c r="N27" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N27" s="58"/>
       <c r="O27" s="62"/>
       <c r="P27" s="63"/>
       <c r="Q27" s="78" t="s">
@@ -7634,8 +7653,8 @@
       <c r="S27" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T27" s="72" t="s">
-        <v>98</v>
+      <c r="T27" s="68" t="s">
+        <v>84</v>
       </c>
       <c r="U27" s="58"/>
       <c r="V27" s="58"/>
@@ -7643,12 +7662,14 @@
         <v>109</v>
       </c>
       <c r="X27" s="70" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y27" s="64">
-        <v>15</v>
-      </c>
-      <c r="Z27" s="64"/>
+        <v>6</v>
+      </c>
+      <c r="Z27" s="64">
+        <v>2</v>
+      </c>
       <c r="AA27" s="58"/>
       <c r="AB27" s="62"/>
       <c r="AC27" s="58"/>
@@ -7656,7 +7677,7 @@
       <c r="AE27" s="73"/>
       <c r="AF27" s="73"/>
     </row>
-    <row r="28" spans="2:32" s="74" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="2:34">
       <c r="B28" s="58" t="s">
         <v>121</v>
       </c>
@@ -7664,64 +7685,49 @@
         <v>120</v>
       </c>
       <c r="D28" s="58"/>
-      <c r="E28" s="58"/>
-      <c r="F28" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="G28" s="58"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="110"/>
       <c r="H28" s="58"/>
-      <c r="I28" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="J28" s="62" t="s">
-        <v>108</v>
-      </c>
-      <c r="K28" s="64">
-        <v>6</v>
-      </c>
-      <c r="L28" s="64">
-        <v>2</v>
-      </c>
-      <c r="M28" s="58"/>
-      <c r="N28" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="O28" s="62"/>
-      <c r="P28" s="63"/>
+      <c r="I28" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="58">
+        <v>10</v>
+      </c>
+      <c r="L28" s="64"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="58"/>
       <c r="Q28" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R28" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S28" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T28" s="68" t="s">
-        <v>84</v>
-      </c>
-      <c r="U28" s="58"/>
+      <c r="T28" s="60" t="s">
+        <v>168</v>
+      </c>
       <c r="V28" s="58"/>
-      <c r="W28" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="X28" s="70" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y28" s="64">
-        <v>6</v>
-      </c>
-      <c r="Z28" s="64">
-        <v>2</v>
-      </c>
+      <c r="W28" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="64"/>
       <c r="AA28" s="58"/>
-      <c r="AB28" s="62"/>
+      <c r="AB28" s="58"/>
       <c r="AC28" s="58"/>
-      <c r="AD28" s="73"/>
-      <c r="AE28" s="73"/>
-      <c r="AF28" s="73"/>
-    </row>
-    <row r="29" spans="2:32" x14ac:dyDescent="0.2">
+    </row>
+    <row r="29" spans="2:34" s="67" customFormat="1">
       <c r="B29" s="58" t="s">
         <v>121</v>
       </c>
@@ -7729,155 +7735,165 @@
         <v>120</v>
       </c>
       <c r="D29" s="58"/>
-      <c r="E29" s="111"/>
-      <c r="F29" s="110" t="s">
-        <v>166</v>
-      </c>
-      <c r="G29" s="112"/>
-      <c r="H29" s="58"/>
-      <c r="I29" s="61" t="s">
-        <v>109</v>
-      </c>
+      <c r="E29" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="91"/>
       <c r="J29" s="58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="K29" s="58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="L29" s="64"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
       <c r="Q29" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R29" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T29" s="60" t="s">
-        <v>166</v>
-      </c>
-      <c r="V29" s="58"/>
-      <c r="W29" s="61" t="s">
-        <v>109</v>
-      </c>
+      <c r="S29" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="W29" s="91"/>
       <c r="X29" s="58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="Y29" s="58">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="Z29" s="64"/>
       <c r="AA29" s="58"/>
       <c r="AB29" s="58"/>
       <c r="AC29" s="58"/>
     </row>
-    <row r="30" spans="2:32" x14ac:dyDescent="0.2">
+    <row r="30" spans="2:34" s="6" customFormat="1">
       <c r="B30" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C30" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D30" s="58"/>
+      <c r="D30" s="78"/>
       <c r="E30" s="111"/>
-      <c r="F30" s="110" t="s">
-        <v>169</v>
-      </c>
-      <c r="G30" s="112"/>
-      <c r="H30" s="58"/>
-      <c r="I30" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="J30" s="108" t="s">
-        <v>108</v>
-      </c>
-      <c r="K30" s="108">
-        <v>3</v>
-      </c>
-      <c r="L30" s="64"/>
-      <c r="M30" s="107"/>
-      <c r="N30" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q30" s="78" t="s">
+      <c r="F30" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="111"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="94" t="s">
         <v>120</v>
       </c>
       <c r="R30" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T30" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="V30" s="58"/>
-      <c r="W30" s="61" t="s">
-        <v>109</v>
-      </c>
-      <c r="X30" s="91" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y30" s="91">
-        <v>3</v>
-      </c>
-      <c r="Z30" s="64"/>
-      <c r="AA30" s="58"/>
-      <c r="AB30" s="58"/>
-      <c r="AC30" s="58"/>
-    </row>
-    <row r="31" spans="2:32" x14ac:dyDescent="0.2">
+      <c r="S30" s="91"/>
+      <c r="T30" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="V30" s="95"/>
+      <c r="W30" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+    </row>
+    <row r="31" spans="2:34" s="6" customFormat="1">
       <c r="B31" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C31" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D31" s="58"/>
+      <c r="D31" s="78"/>
       <c r="E31" s="111"/>
-      <c r="F31" s="110" t="s">
-        <v>168</v>
-      </c>
-      <c r="G31" s="112"/>
-      <c r="H31" s="58"/>
-      <c r="I31" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J31" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K31" s="58">
-        <v>10</v>
-      </c>
-      <c r="L31" s="64"/>
-      <c r="M31" s="107"/>
-      <c r="N31" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q31" s="78" t="s">
+      <c r="F31" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="111"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="94" t="s">
         <v>120</v>
       </c>
       <c r="R31" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="T31" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="V31" s="58"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="V31" s="95"/>
       <c r="W31" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="X31" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y31" s="58">
-        <v>10</v>
-      </c>
-      <c r="Z31" s="64"/>
-      <c r="AA31" s="58"/>
-      <c r="AB31" s="58"/>
-      <c r="AC31" s="58"/>
-    </row>
-    <row r="32" spans="2:32" s="67" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="X31" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+    </row>
+    <row r="32" spans="2:34">
       <c r="B32" s="58" t="s">
         <v>121</v>
       </c>
@@ -7885,198 +7901,164 @@
         <v>120</v>
       </c>
       <c r="D32" s="58"/>
-      <c r="E32" s="58" t="s">
-        <v>99</v>
-      </c>
+      <c r="E32" s="109"/>
       <c r="F32" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="G32" s="61"/>
-      <c r="H32" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="I32" s="108"/>
-      <c r="J32" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="K32" s="58">
-        <v>6</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="G32" s="110"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="91"/>
       <c r="L32" s="64"/>
-      <c r="M32" s="58"/>
-      <c r="N32" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="O32" s="62"/>
-      <c r="P32" s="63"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="58"/>
       <c r="Q32" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R32" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S32" s="83" t="s">
-        <v>122</v>
-      </c>
       <c r="T32" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="U32" s="61"/>
-      <c r="V32" s="61" t="s">
-        <v>111</v>
-      </c>
-      <c r="W32" s="91"/>
-      <c r="X32" s="58" t="s">
-        <v>108</v>
-      </c>
-      <c r="Y32" s="58">
-        <v>6</v>
-      </c>
+        <v>163</v>
+      </c>
+      <c r="V32" s="58"/>
+      <c r="W32" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X32" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y32" s="91"/>
       <c r="Z32" s="64"/>
       <c r="AA32" s="58"/>
       <c r="AB32" s="58"/>
       <c r="AC32" s="58"/>
     </row>
-    <row r="33" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="2:29">
       <c r="B33" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C33" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D33" s="78"/>
-      <c r="E33" s="113"/>
+      <c r="D33" s="58"/>
+      <c r="E33" s="109"/>
       <c r="F33" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G33" s="113"/>
-      <c r="H33" s="78"/>
-      <c r="I33" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J33" s="92" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="110"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="91" t="s">
         <v>106</v>
       </c>
-      <c r="K33" s="108"/>
-      <c r="L33" s="108"/>
-      <c r="M33" s="108"/>
-      <c r="N33" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="O33" s="91"/>
-      <c r="P33" s="91"/>
-      <c r="Q33" s="94" t="s">
+      <c r="K33" s="91"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="58"/>
+      <c r="Q33" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R33" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S33" s="91"/>
       <c r="T33" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="V33" s="95"/>
+        <v>162</v>
+      </c>
+      <c r="V33" s="58"/>
       <c r="W33" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="X33" s="92" t="s">
+      <c r="X33" s="91" t="s">
         <v>106</v>
       </c>
       <c r="Y33" s="91"/>
-      <c r="Z33" s="91"/>
-      <c r="AA33" s="91"/>
-      <c r="AB33" s="91"/>
-      <c r="AC33" s="91"/>
-      <c r="AD33" s="96"/>
-      <c r="AE33" s="96"/>
-      <c r="AF33" s="96"/>
-      <c r="AG33" s="96"/>
-      <c r="AH33" s="96"/>
-    </row>
-    <row r="34" spans="2:34" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+    </row>
+    <row r="34" spans="2:29">
       <c r="B34" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C34" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D34" s="78"/>
-      <c r="E34" s="113"/>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
       <c r="F34" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="G34" s="113"/>
-      <c r="H34" s="78"/>
-      <c r="I34" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J34" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="K34" s="108"/>
-      <c r="L34" s="108"/>
-      <c r="M34" s="108"/>
-      <c r="N34" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="O34" s="91"/>
-      <c r="P34" s="91"/>
-      <c r="Q34" s="94" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="91">
+        <v>2</v>
+      </c>
+      <c r="L34" s="106"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="58"/>
+      <c r="Q34" s="78" t="s">
         <v>120</v>
       </c>
       <c r="R34" s="83" t="s">
         <v>122</v>
       </c>
-      <c r="S34" s="91"/>
       <c r="T34" s="58" t="s">
-        <v>174</v>
-      </c>
-      <c r="V34" s="95"/>
+        <v>177</v>
+      </c>
+      <c r="V34" s="90"/>
       <c r="W34" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X34" s="92" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y34" s="91"/>
-      <c r="Z34" s="91"/>
-      <c r="AA34" s="91"/>
-      <c r="AB34" s="91"/>
-      <c r="AC34" s="91"/>
-      <c r="AD34" s="96"/>
-      <c r="AE34" s="96"/>
-      <c r="AF34" s="96"/>
-      <c r="AG34" s="96"/>
-      <c r="AH34" s="96"/>
-    </row>
-    <row r="35" spans="2:34" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+      <c r="X34" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y34" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+    </row>
+    <row r="35" spans="2:29">
       <c r="B35" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C35" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D35" s="58"/>
-      <c r="E35" s="111"/>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
       <c r="F35" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="G35" s="112"/>
-      <c r="H35" s="58"/>
-      <c r="I35" s="108" t="s">
-        <v>109</v>
+        <v>179</v>
+      </c>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="91" t="s">
+        <v>172</v>
       </c>
       <c r="J35" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K35" s="58">
-        <v>1</v>
-      </c>
-      <c r="L35" s="64"/>
+        <v>106</v>
+      </c>
+      <c r="K35" s="91"/>
+      <c r="L35" s="106"/>
       <c r="M35" s="107"/>
-      <c r="N35" s="58" t="s">
-        <v>158</v>
-      </c>
+      <c r="N35" s="58"/>
       <c r="Q35" s="78" t="s">
         <v>120</v>
       </c>
@@ -8084,128 +8066,75 @@
         <v>122</v>
       </c>
       <c r="T35" s="58" t="s">
-        <v>164</v>
-      </c>
-      <c r="V35" s="58"/>
+        <v>179</v>
+      </c>
+      <c r="V35" s="90"/>
       <c r="W35" s="91" t="s">
-        <v>109</v>
+        <v>172</v>
       </c>
       <c r="X35" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y35" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="64"/>
-      <c r="AA35" s="58"/>
-      <c r="AB35" s="58"/>
-      <c r="AC35" s="58"/>
-    </row>
-    <row r="36" spans="2:34" x14ac:dyDescent="0.2">
-      <c r="B36" s="58" t="s">
-        <v>121</v>
-      </c>
-      <c r="C36" s="59" t="s">
-        <v>120</v>
-      </c>
-      <c r="D36" s="58"/>
-      <c r="E36" s="111"/>
-      <c r="F36" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="G36" s="112"/>
-      <c r="H36" s="58"/>
-      <c r="I36" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J36" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="K36" s="58">
-        <v>1</v>
-      </c>
-      <c r="L36" s="64"/>
-      <c r="M36" s="107"/>
-      <c r="N36" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q36" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R36" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T36" s="58" t="s">
-        <v>165</v>
-      </c>
-      <c r="V36" s="58"/>
-      <c r="W36" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X36" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y36" s="58">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="64"/>
-      <c r="AA36" s="58"/>
-      <c r="AB36" s="58"/>
-      <c r="AC36" s="58"/>
-    </row>
-    <row r="37" spans="2:34" x14ac:dyDescent="0.2">
+        <v>106</v>
+      </c>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+    </row>
+    <row r="37" spans="2:29">
       <c r="B37" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C37" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D37" s="58"/>
-      <c r="E37" s="111"/>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
       <c r="F37" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="G37" s="112"/>
-      <c r="H37" s="58"/>
-      <c r="I37" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J37" s="108" t="s">
-        <v>110</v>
-      </c>
-      <c r="K37" s="108">
-        <v>3</v>
-      </c>
-      <c r="L37" s="64"/>
+        <v>178</v>
+      </c>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="91">
+        <v>2</v>
+      </c>
+      <c r="L37" s="106"/>
       <c r="M37" s="107"/>
-      <c r="N37" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q37" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R37" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T37" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="V37" s="58"/>
-      <c r="W37" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X37" s="91" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y37" s="91">
-        <v>3</v>
-      </c>
-      <c r="Z37" s="64"/>
-      <c r="AA37" s="58"/>
-      <c r="AB37" s="58"/>
-      <c r="AC37" s="58"/>
-    </row>
-    <row r="38" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N37" s="172" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q37" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="176"/>
+      <c r="T37" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="V37" s="180"/>
+      <c r="W37" s="181" t="s">
+        <v>172</v>
+      </c>
+      <c r="X37" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="181">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="181"/>
+      <c r="AA37" s="181"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="169"/>
+    </row>
+    <row r="38" spans="2:29">
       <c r="B38" s="58" t="s">
         <v>121</v>
       </c>
@@ -8213,47 +8142,38 @@
         <v>120</v>
       </c>
       <c r="D38" s="58"/>
-      <c r="E38" s="111"/>
-      <c r="F38" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="G38" s="112"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="110"/>
       <c r="H38" s="58"/>
-      <c r="I38" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J38" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="K38" s="108"/>
+      <c r="I38" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="58">
+        <v>1</v>
+      </c>
       <c r="L38" s="64"/>
       <c r="M38" s="107"/>
-      <c r="N38" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q38" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R38" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T38" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="V38" s="58"/>
-      <c r="W38" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X38" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y38" s="91"/>
-      <c r="Z38" s="64"/>
-      <c r="AA38" s="58"/>
-      <c r="AB38" s="58"/>
-      <c r="AC38" s="58"/>
-    </row>
-    <row r="39" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N38" s="173"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="167"/>
+      <c r="V38" s="182"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="167"/>
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="183"/>
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="170"/>
+      <c r="AC38" s="170"/>
+    </row>
+    <row r="39" spans="2:29">
       <c r="B39" s="58" t="s">
         <v>121</v>
       </c>
@@ -8261,255 +8181,311 @@
         <v>120</v>
       </c>
       <c r="D39" s="58"/>
-      <c r="E39" s="111"/>
-      <c r="F39" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="G39" s="112"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="110"/>
       <c r="H39" s="58"/>
-      <c r="I39" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J39" s="108" t="s">
-        <v>106</v>
-      </c>
-      <c r="K39" s="108"/>
+      <c r="I39" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="91">
+        <v>3</v>
+      </c>
       <c r="L39" s="64"/>
       <c r="M39" s="107"/>
-      <c r="N39" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q39" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R39" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T39" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="V39" s="58"/>
-      <c r="W39" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X39" s="91" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y39" s="91"/>
-      <c r="Z39" s="64"/>
-      <c r="AA39" s="58"/>
-      <c r="AB39" s="58"/>
-      <c r="AC39" s="58"/>
-    </row>
-    <row r="40" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N39" s="173"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="167"/>
+      <c r="V39" s="182"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="167"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="170"/>
+      <c r="AC39" s="170"/>
+    </row>
+    <row r="40" spans="2:29">
       <c r="B40" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C40" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D40" s="99"/>
-      <c r="E40" s="111"/>
+      <c r="D40" s="58"/>
+      <c r="E40" s="109"/>
       <c r="F40" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="G40" s="112"/>
+        <v>164</v>
+      </c>
+      <c r="G40" s="110"/>
       <c r="H40" s="58"/>
-      <c r="I40" s="108" t="s">
-        <v>109</v>
-      </c>
-      <c r="J40" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="K40" s="99">
+      <c r="I40" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="58">
         <v>1</v>
       </c>
       <c r="L40" s="64"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q40" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R40" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T40" s="58" t="s">
-        <v>167</v>
-      </c>
-      <c r="V40" s="58"/>
-      <c r="W40" s="91" t="s">
-        <v>109</v>
-      </c>
-      <c r="X40" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y40" s="99">
-        <v>1</v>
-      </c>
-      <c r="Z40" s="64"/>
-      <c r="AA40" s="58"/>
-      <c r="AB40" s="58"/>
-      <c r="AC40" s="58"/>
-    </row>
-    <row r="41" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="M40" s="107"/>
+      <c r="N40" s="173"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="167"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="167"/>
+      <c r="Y40" s="183"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="183"/>
+      <c r="AB40" s="170"/>
+      <c r="AC40" s="170"/>
+    </row>
+    <row r="41" spans="2:29">
       <c r="B41" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C41" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D41" s="114"/>
-      <c r="E41" s="114"/>
+      <c r="D41" s="58"/>
+      <c r="E41" s="109"/>
       <c r="F41" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="G41" s="107"/>
-      <c r="H41" s="107"/>
-      <c r="I41" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="J41" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="K41" s="108">
-        <v>2</v>
-      </c>
-      <c r="L41" s="115"/>
+        <v>165</v>
+      </c>
+      <c r="G41" s="110"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="58">
+        <v>1</v>
+      </c>
+      <c r="L41" s="64"/>
       <c r="M41" s="107"/>
-      <c r="N41" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q41" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R41" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T41" s="58" t="s">
-        <v>177</v>
-      </c>
-      <c r="V41" s="90"/>
-      <c r="W41" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="X41" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y41" s="91">
-        <v>2</v>
-      </c>
-      <c r="Z41" s="106"/>
-      <c r="AA41" s="90"/>
-      <c r="AB41" s="90"/>
-      <c r="AC41" s="90"/>
-    </row>
-    <row r="42" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N41" s="173"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="167"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
+      <c r="AB41" s="170"/>
+      <c r="AC41" s="170"/>
+    </row>
+    <row r="42" spans="2:29">
       <c r="B42" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C42" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D42" s="114"/>
-      <c r="E42" s="114"/>
+      <c r="D42" s="58"/>
+      <c r="E42" s="109"/>
       <c r="F42" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="G42" s="107"/>
-      <c r="H42" s="107"/>
-      <c r="I42" s="108" t="s">
-        <v>172</v>
-      </c>
-      <c r="J42" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="K42" s="108">
-        <v>2</v>
-      </c>
-      <c r="L42" s="115"/>
+        <v>170</v>
+      </c>
+      <c r="G42" s="110"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="91">
+        <v>3</v>
+      </c>
+      <c r="L42" s="64"/>
       <c r="M42" s="107"/>
-      <c r="N42" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q42" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R42" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T42" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="V42" s="90"/>
-      <c r="W42" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="X42" s="99" t="s">
-        <v>110</v>
-      </c>
-      <c r="Y42" s="91">
-        <v>2</v>
-      </c>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="90"/>
-      <c r="AB42" s="90"/>
-      <c r="AC42" s="90"/>
-    </row>
-    <row r="43" spans="2:34" x14ac:dyDescent="0.2">
+      <c r="N42" s="173"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="176"/>
+      <c r="T42" s="167"/>
+      <c r="V42" s="182"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="167"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="183"/>
+      <c r="AB42" s="170"/>
+      <c r="AC42" s="170"/>
+    </row>
+    <row r="43" spans="2:29" s="71" customFormat="1" ht="12">
       <c r="B43" s="58" t="s">
         <v>121</v>
       </c>
       <c r="C43" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D43" s="114"/>
-      <c r="E43" s="114"/>
-      <c r="F43" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G43" s="107"/>
-      <c r="H43" s="107"/>
-      <c r="I43" s="108" t="s">
+      <c r="D43" s="58"/>
+      <c r="E43" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="64">
+        <v>11</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="167"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="167"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
+      <c r="AB43" s="170"/>
+      <c r="AC43" s="170"/>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="107"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="58">
+        <v>1</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="185"/>
+      <c r="X44" s="168"/>
+      <c r="Y44" s="185"/>
+      <c r="Z44" s="185"/>
+      <c r="AA44" s="185"/>
+      <c r="AB44" s="171"/>
+      <c r="AC44" s="171"/>
+    </row>
+    <row r="45" spans="2:29" ht="84">
+      <c r="B45" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="58">
+        <v>1</v>
+      </c>
+      <c r="L45" s="91"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="186" t="s">
+        <v>187</v>
+      </c>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="165"/>
+      <c r="S45" s="165"/>
+      <c r="T45" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90" t="s">
         <v>172</v>
       </c>
-      <c r="J43" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="K43" s="108"/>
-      <c r="L43" s="115"/>
-      <c r="M43" s="107"/>
-      <c r="N43" s="58" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q43" s="78" t="s">
-        <v>120</v>
-      </c>
-      <c r="R43" s="83" t="s">
-        <v>122</v>
-      </c>
-      <c r="T43" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="V43" s="90"/>
-      <c r="W43" s="91" t="s">
-        <v>172</v>
-      </c>
-      <c r="X43" s="58" t="s">
-        <v>106</v>
-      </c>
-      <c r="Y43" s="91"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="90"/>
-      <c r="AB43" s="90"/>
-      <c r="AC43" s="90"/>
+      <c r="X45" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y45" s="188">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="15">
+    <mergeCell ref="AC37:AC44"/>
     <mergeCell ref="B2:M2"/>
     <mergeCell ref="N2:P2"/>
     <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N37:N44"/>
+    <mergeCell ref="Q37:Q44"/>
+    <mergeCell ref="R37:R44"/>
+    <mergeCell ref="T37:T44"/>
+    <mergeCell ref="V37:V44"/>
+    <mergeCell ref="W37:W44"/>
+    <mergeCell ref="X37:X44"/>
+    <mergeCell ref="Y37:Y44"/>
+    <mergeCell ref="Z37:Z44"/>
+    <mergeCell ref="AA37:AA44"/>
+    <mergeCell ref="AB37:AB44"/>
   </mergeCells>
   <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
@@ -8519,7 +8495,2426 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="B1:AH45"/>
+  <sheetViews>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="3" ySplit="3" topLeftCell="L4" activePane="bottomRight" state="frozenSplit"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="30.5703125" defaultRowHeight="12.75"/>
+  <cols>
+    <col min="1" max="1" width="2.28515625" style="2" customWidth="1"/>
+    <col min="2" max="3" width="11.7109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="46" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="24.28515625" style="46" hidden="1" customWidth="1"/>
+    <col min="6" max="6" width="34.42578125" style="46" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.28515625" style="2" hidden="1" customWidth="1"/>
+    <col min="8" max="8" width="7" style="2" customWidth="1"/>
+    <col min="9" max="9" width="9.7109375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="13.140625" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6" customWidth="1"/>
+    <col min="12" max="12" width="8.7109375" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="20.7109375" style="2" customWidth="1"/>
+    <col min="14" max="14" width="57.28515625" style="47" customWidth="1"/>
+    <col min="15" max="16" width="29.85546875" style="47" hidden="1" customWidth="1"/>
+    <col min="17" max="17" width="12.140625" style="47" customWidth="1"/>
+    <col min="18" max="18" width="18.42578125" style="47" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="20.28515625" style="47" hidden="1" customWidth="1"/>
+    <col min="20" max="20" width="31.85546875" style="47" customWidth="1"/>
+    <col min="21" max="21" width="19.7109375" style="2" hidden="1" customWidth="1"/>
+    <col min="22" max="22" width="6.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="12.5703125" style="2" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="15.5703125" style="2" customWidth="1"/>
+    <col min="25" max="25" width="10.28515625" style="56" customWidth="1"/>
+    <col min="26" max="26" width="13.5703125" style="57" customWidth="1"/>
+    <col min="27" max="27" width="13.5703125" style="2" customWidth="1"/>
+    <col min="28" max="28" width="39.7109375" style="2" customWidth="1"/>
+    <col min="29" max="29" width="28.5703125" style="3" customWidth="1"/>
+    <col min="30" max="30" width="12.140625" style="3" customWidth="1"/>
+    <col min="31" max="31" width="8.28515625" style="3" customWidth="1"/>
+    <col min="32" max="32" width="11.28515625" style="3" customWidth="1"/>
+    <col min="33" max="33" width="38.85546875" style="2" customWidth="1"/>
+    <col min="34" max="16384" width="30.5703125" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:32">
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+    </row>
+    <row r="2" spans="2:32" ht="25.5" customHeight="1">
+      <c r="B2" s="158" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="159"/>
+      <c r="D2" s="159"/>
+      <c r="E2" s="159"/>
+      <c r="F2" s="159"/>
+      <c r="G2" s="159"/>
+      <c r="H2" s="159"/>
+      <c r="I2" s="159"/>
+      <c r="J2" s="159"/>
+      <c r="K2" s="159"/>
+      <c r="L2" s="159"/>
+      <c r="M2" s="159"/>
+      <c r="N2" s="160" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" s="160"/>
+      <c r="P2" s="161"/>
+      <c r="Q2" s="162" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="163"/>
+      <c r="S2" s="163"/>
+      <c r="T2" s="163"/>
+      <c r="U2" s="163"/>
+      <c r="V2" s="163"/>
+      <c r="W2" s="163"/>
+      <c r="X2" s="163"/>
+      <c r="Y2" s="163"/>
+      <c r="Z2" s="163"/>
+      <c r="AA2" s="163"/>
+      <c r="AB2" s="164"/>
+      <c r="AC2" s="34" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="2:32" ht="22.5">
+      <c r="B3" s="49" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="49" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="49" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="49" t="s">
+        <v>107</v>
+      </c>
+      <c r="F3" s="49" t="s">
+        <v>5</v>
+      </c>
+      <c r="G3" s="49" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="49" t="s">
+        <v>7</v>
+      </c>
+      <c r="I3" s="49" t="s">
+        <v>13</v>
+      </c>
+      <c r="J3" s="49" t="s">
+        <v>8</v>
+      </c>
+      <c r="K3" s="49" t="s">
+        <v>9</v>
+      </c>
+      <c r="L3" s="49" t="s">
+        <v>48</v>
+      </c>
+      <c r="M3" s="49" t="s">
+        <v>10</v>
+      </c>
+      <c r="N3" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="O3" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="P3" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q3" s="51" t="s">
+        <v>0</v>
+      </c>
+      <c r="R3" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="S3" s="51" t="s">
+        <v>107</v>
+      </c>
+      <c r="T3" s="51" t="s">
+        <v>5</v>
+      </c>
+      <c r="U3" s="52" t="s">
+        <v>11</v>
+      </c>
+      <c r="V3" s="52" t="s">
+        <v>7</v>
+      </c>
+      <c r="W3" s="52" t="s">
+        <v>13</v>
+      </c>
+      <c r="X3" s="52" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y3" s="51" t="s">
+        <v>9</v>
+      </c>
+      <c r="Z3" s="51" t="s">
+        <v>48</v>
+      </c>
+      <c r="AA3" s="53" t="s">
+        <v>65</v>
+      </c>
+      <c r="AB3" s="53" t="s">
+        <v>10</v>
+      </c>
+      <c r="AC3" s="54"/>
+    </row>
+    <row r="4" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B4" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C4" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="G4" s="78"/>
+      <c r="H4" s="61"/>
+      <c r="I4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="J4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K4" s="64">
+        <v>100</v>
+      </c>
+      <c r="L4" s="64"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="58"/>
+      <c r="O4" s="62"/>
+      <c r="P4" s="63"/>
+      <c r="Q4" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S4" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T4" s="72" t="s">
+        <v>81</v>
+      </c>
+      <c r="U4" s="61"/>
+      <c r="V4" s="61"/>
+      <c r="W4" s="61" t="s">
+        <v>172</v>
+      </c>
+      <c r="X4" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y4" s="64">
+        <v>100</v>
+      </c>
+      <c r="Z4" s="64"/>
+      <c r="AA4" s="58"/>
+      <c r="AB4" s="62"/>
+      <c r="AC4" s="64"/>
+    </row>
+    <row r="5" spans="2:32" s="67" customFormat="1" ht="12">
+      <c r="B5" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D5" s="78"/>
+      <c r="E5" s="78"/>
+      <c r="F5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="G5" s="78"/>
+      <c r="H5" s="61"/>
+      <c r="I5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K5" s="64">
+        <v>1</v>
+      </c>
+      <c r="L5" s="64"/>
+      <c r="M5" s="78"/>
+      <c r="N5" s="58"/>
+      <c r="O5" s="62"/>
+      <c r="P5" s="63"/>
+      <c r="Q5" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S5" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T5" s="72" t="s">
+        <v>86</v>
+      </c>
+      <c r="U5" s="61"/>
+      <c r="V5" s="61"/>
+      <c r="W5" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X5" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y5" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="64"/>
+      <c r="AA5" s="58"/>
+      <c r="AB5" s="62"/>
+      <c r="AC5" s="64"/>
+    </row>
+    <row r="6" spans="2:32" s="74" customFormat="1">
+      <c r="B6" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C6" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D6" s="58"/>
+      <c r="E6" s="58"/>
+      <c r="F6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G6" s="58"/>
+      <c r="H6" s="58"/>
+      <c r="I6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J6" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K6" s="64">
+        <v>1</v>
+      </c>
+      <c r="L6" s="64"/>
+      <c r="M6" s="58"/>
+      <c r="N6" s="58"/>
+      <c r="O6" s="62"/>
+      <c r="P6" s="63"/>
+      <c r="Q6" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R6" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S6" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T6" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="U6" s="58"/>
+      <c r="V6" s="58"/>
+      <c r="W6" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X6" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y6" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="64"/>
+      <c r="AA6" s="58"/>
+      <c r="AB6" s="62"/>
+      <c r="AC6" s="58"/>
+      <c r="AD6" s="73"/>
+      <c r="AE6" s="73"/>
+      <c r="AF6" s="73"/>
+    </row>
+    <row r="7" spans="2:32" s="74" customFormat="1">
+      <c r="B7" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C7" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D7" s="58"/>
+      <c r="E7" s="58"/>
+      <c r="F7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="G7" s="58"/>
+      <c r="H7" s="58"/>
+      <c r="I7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K7" s="64">
+        <v>1</v>
+      </c>
+      <c r="L7" s="64"/>
+      <c r="M7" s="58"/>
+      <c r="N7" s="58"/>
+      <c r="O7" s="62"/>
+      <c r="P7" s="63"/>
+      <c r="Q7" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S7" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T7" s="68" t="s">
+        <v>87</v>
+      </c>
+      <c r="U7" s="58"/>
+      <c r="V7" s="58"/>
+      <c r="W7" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X7" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y7" s="64">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="64"/>
+      <c r="AA7" s="58"/>
+      <c r="AB7" s="62"/>
+      <c r="AC7" s="58"/>
+      <c r="AD7" s="73"/>
+      <c r="AE7" s="73"/>
+      <c r="AF7" s="73"/>
+    </row>
+    <row r="8" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B8" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C8" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D8" s="58"/>
+      <c r="E8" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="61"/>
+      <c r="H8" s="61"/>
+      <c r="I8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K8" s="64">
+        <v>10</v>
+      </c>
+      <c r="L8" s="64"/>
+      <c r="M8" s="58"/>
+      <c r="N8" s="58"/>
+      <c r="O8" s="62"/>
+      <c r="P8" s="63"/>
+      <c r="Q8" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S8" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T8" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="U8" s="61"/>
+      <c r="V8" s="61"/>
+      <c r="W8" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X8" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y8" s="64">
+        <v>10</v>
+      </c>
+      <c r="Z8" s="64"/>
+      <c r="AA8" s="58"/>
+      <c r="AB8" s="62"/>
+      <c r="AC8" s="64"/>
+    </row>
+    <row r="9" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B9" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C9" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D9" s="58"/>
+      <c r="E9" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F9" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="G9" s="61"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K9" s="58">
+        <v>2</v>
+      </c>
+      <c r="L9" s="64"/>
+      <c r="M9" s="58"/>
+      <c r="N9" s="58"/>
+      <c r="O9" s="62"/>
+      <c r="P9" s="63"/>
+      <c r="Q9" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S9" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T9" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="U9" s="61"/>
+      <c r="V9" s="61"/>
+      <c r="W9" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y9" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z9" s="64"/>
+      <c r="AA9" s="58"/>
+      <c r="AB9" s="62"/>
+      <c r="AC9" s="58"/>
+    </row>
+    <row r="10" spans="2:32" s="71" customFormat="1" ht="12">
+      <c r="B10" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C10" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D10" s="58"/>
+      <c r="E10" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F10" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="G10" s="61"/>
+      <c r="H10" s="61"/>
+      <c r="I10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K10" s="64">
+        <v>4</v>
+      </c>
+      <c r="L10" s="64"/>
+      <c r="M10" s="58"/>
+      <c r="N10" s="58"/>
+      <c r="O10" s="62"/>
+      <c r="P10" s="63"/>
+      <c r="Q10" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S10" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T10" s="60" t="s">
+        <v>89</v>
+      </c>
+      <c r="U10" s="61"/>
+      <c r="V10" s="61"/>
+      <c r="W10" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X10" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y10" s="64">
+        <v>4</v>
+      </c>
+      <c r="Z10" s="64"/>
+      <c r="AA10" s="58"/>
+      <c r="AB10" s="62"/>
+      <c r="AC10" s="64"/>
+    </row>
+    <row r="11" spans="2:32" s="65" customFormat="1" ht="12">
+      <c r="B11" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C11" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D11" s="58"/>
+      <c r="E11" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F11" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="G11" s="61"/>
+      <c r="H11" s="61"/>
+      <c r="I11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K11" s="58">
+        <v>4</v>
+      </c>
+      <c r="L11" s="64"/>
+      <c r="M11" s="58"/>
+      <c r="N11" s="58"/>
+      <c r="O11" s="62"/>
+      <c r="P11" s="63"/>
+      <c r="Q11" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S11" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T11" s="60" t="s">
+        <v>73</v>
+      </c>
+      <c r="U11" s="61"/>
+      <c r="V11" s="61"/>
+      <c r="W11" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X11" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y11" s="58">
+        <v>4</v>
+      </c>
+      <c r="Z11" s="64"/>
+      <c r="AA11" s="58"/>
+      <c r="AB11" s="62"/>
+      <c r="AC11" s="58"/>
+    </row>
+    <row r="12" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B12" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C12" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D12" s="58"/>
+      <c r="E12" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="G12" s="58"/>
+      <c r="H12" s="58"/>
+      <c r="I12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J12" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K12" s="58">
+        <v>1</v>
+      </c>
+      <c r="L12" s="64"/>
+      <c r="M12" s="58"/>
+      <c r="N12" s="58"/>
+      <c r="O12" s="62"/>
+      <c r="P12" s="63"/>
+      <c r="Q12" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S12" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T12" s="60" t="s">
+        <v>90</v>
+      </c>
+      <c r="U12" s="58"/>
+      <c r="V12" s="58"/>
+      <c r="W12" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X12" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y12" s="58">
+        <v>1</v>
+      </c>
+      <c r="Z12" s="64"/>
+      <c r="AA12" s="58"/>
+      <c r="AB12" s="62"/>
+      <c r="AC12" s="58"/>
+    </row>
+    <row r="13" spans="2:32" s="74" customFormat="1">
+      <c r="B13" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C13" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D13" s="58"/>
+      <c r="E13" s="58"/>
+      <c r="F13" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="G13" s="58"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J13" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K13" s="64">
+        <v>3</v>
+      </c>
+      <c r="L13" s="64"/>
+      <c r="M13" s="58"/>
+      <c r="N13" s="58"/>
+      <c r="O13" s="62"/>
+      <c r="P13" s="63"/>
+      <c r="Q13" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S13" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T13" s="68" t="s">
+        <v>91</v>
+      </c>
+      <c r="U13" s="58"/>
+      <c r="V13" s="58"/>
+      <c r="W13" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X13" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y13" s="64">
+        <v>3</v>
+      </c>
+      <c r="Z13" s="64"/>
+      <c r="AA13" s="58"/>
+      <c r="AB13" s="62"/>
+      <c r="AC13" s="58"/>
+      <c r="AD13" s="73"/>
+      <c r="AE13" s="73"/>
+      <c r="AF13" s="73"/>
+    </row>
+    <row r="14" spans="2:32" s="74" customFormat="1">
+      <c r="B14" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C14" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D14" s="58"/>
+      <c r="E14" s="58"/>
+      <c r="F14" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="G14" s="58"/>
+      <c r="H14" s="58"/>
+      <c r="I14" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J14" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K14" s="64">
+        <v>6</v>
+      </c>
+      <c r="L14" s="64">
+        <v>2</v>
+      </c>
+      <c r="M14" s="58"/>
+      <c r="N14" s="58"/>
+      <c r="O14" s="62"/>
+      <c r="P14" s="63"/>
+      <c r="Q14" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S14" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T14" s="68" t="s">
+        <v>92</v>
+      </c>
+      <c r="U14" s="58"/>
+      <c r="V14" s="58"/>
+      <c r="W14" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X14" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y14" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z14" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA14" s="58"/>
+      <c r="AB14" s="62"/>
+      <c r="AC14" s="58"/>
+      <c r="AD14" s="73"/>
+      <c r="AE14" s="73"/>
+      <c r="AF14" s="73"/>
+    </row>
+    <row r="15" spans="2:32" s="73" customFormat="1" ht="12.75" customHeight="1">
+      <c r="B15" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C15" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D15" s="58"/>
+      <c r="E15" s="58"/>
+      <c r="F15" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="G15" s="58"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="K15" s="64"/>
+      <c r="L15" s="64"/>
+      <c r="M15" s="58"/>
+      <c r="N15" s="58"/>
+      <c r="O15" s="62"/>
+      <c r="P15" s="63"/>
+      <c r="Q15" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S15" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T15" s="72" t="s">
+        <v>93</v>
+      </c>
+      <c r="U15" s="58"/>
+      <c r="V15" s="58"/>
+      <c r="W15" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X15" s="70" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y15" s="64"/>
+      <c r="Z15" s="64"/>
+      <c r="AA15" s="58"/>
+      <c r="AB15" s="62"/>
+      <c r="AC15" s="58"/>
+    </row>
+    <row r="16" spans="2:32" s="74" customFormat="1">
+      <c r="B16" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C16" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D16" s="58"/>
+      <c r="E16" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F16" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="G16" s="58"/>
+      <c r="H16" s="58"/>
+      <c r="I16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K16" s="58">
+        <v>12</v>
+      </c>
+      <c r="L16" s="58"/>
+      <c r="M16" s="58"/>
+      <c r="N16" s="58"/>
+      <c r="O16" s="62"/>
+      <c r="P16" s="63"/>
+      <c r="Q16" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S16" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T16" s="72" t="s">
+        <v>94</v>
+      </c>
+      <c r="U16" s="58"/>
+      <c r="V16" s="58"/>
+      <c r="W16" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X16" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y16" s="58">
+        <v>12</v>
+      </c>
+      <c r="Z16" s="58"/>
+      <c r="AA16" s="58"/>
+      <c r="AB16" s="62"/>
+      <c r="AC16" s="58"/>
+      <c r="AD16" s="73"/>
+      <c r="AE16" s="73"/>
+      <c r="AF16" s="73"/>
+    </row>
+    <row r="17" spans="2:34" s="74" customFormat="1">
+      <c r="B17" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C17" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D17" s="58"/>
+      <c r="E17" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F17" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="58"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K17" s="58">
+        <v>8</v>
+      </c>
+      <c r="L17" s="58">
+        <v>2</v>
+      </c>
+      <c r="M17" s="58"/>
+      <c r="N17" s="58"/>
+      <c r="O17" s="62"/>
+      <c r="P17" s="63"/>
+      <c r="Q17" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S17" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T17" s="72" t="s">
+        <v>95</v>
+      </c>
+      <c r="U17" s="58"/>
+      <c r="V17" s="58"/>
+      <c r="W17" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X17" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y17" s="58">
+        <v>8</v>
+      </c>
+      <c r="Z17" s="58">
+        <v>2</v>
+      </c>
+      <c r="AA17" s="58"/>
+      <c r="AB17" s="62"/>
+      <c r="AC17" s="58"/>
+      <c r="AD17" s="73"/>
+      <c r="AE17" s="73"/>
+      <c r="AF17" s="73"/>
+    </row>
+    <row r="18" spans="2:34" s="74" customFormat="1">
+      <c r="B18" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C18" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D18" s="58"/>
+      <c r="E18" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F18" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="G18" s="58"/>
+      <c r="H18" s="58"/>
+      <c r="I18" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K18" s="58">
+        <v>5</v>
+      </c>
+      <c r="L18" s="58"/>
+      <c r="M18" s="58"/>
+      <c r="N18" s="58"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S18" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T18" s="72" t="s">
+        <v>74</v>
+      </c>
+      <c r="U18" s="58"/>
+      <c r="V18" s="58"/>
+      <c r="W18" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X18" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y18" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z18" s="58"/>
+      <c r="AA18" s="58"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="58"/>
+      <c r="AD18" s="73"/>
+      <c r="AE18" s="73"/>
+      <c r="AF18" s="73"/>
+    </row>
+    <row r="19" spans="2:34" s="74" customFormat="1">
+      <c r="B19" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C19" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F19" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K19" s="58">
+        <v>10</v>
+      </c>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="75"/>
+      <c r="Q19" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S19" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T19" s="72" t="s">
+        <v>75</v>
+      </c>
+      <c r="U19" s="58"/>
+      <c r="V19" s="58"/>
+      <c r="W19" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X19" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y19" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z19" s="58"/>
+      <c r="AA19" s="58"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="58"/>
+      <c r="AD19" s="73"/>
+      <c r="AE19" s="73"/>
+      <c r="AF19" s="73"/>
+    </row>
+    <row r="20" spans="2:34" s="74" customFormat="1">
+      <c r="B20" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C20" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D20" s="58"/>
+      <c r="E20" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="G20" s="58"/>
+      <c r="H20" s="58"/>
+      <c r="I20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K20" s="58">
+        <v>2</v>
+      </c>
+      <c r="L20" s="58"/>
+      <c r="M20" s="58"/>
+      <c r="N20" s="58"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S20" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T20" s="72" t="s">
+        <v>76</v>
+      </c>
+      <c r="U20" s="58"/>
+      <c r="V20" s="58"/>
+      <c r="W20" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X20" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y20" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z20" s="58"/>
+      <c r="AA20" s="58"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="58"/>
+      <c r="AD20" s="73"/>
+      <c r="AE20" s="73"/>
+      <c r="AF20" s="73"/>
+    </row>
+    <row r="21" spans="2:34" s="74" customFormat="1">
+      <c r="B21" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C21" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D21" s="58"/>
+      <c r="E21" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F21" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="G21" s="58"/>
+      <c r="H21" s="58"/>
+      <c r="I21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K21" s="58">
+        <v>15</v>
+      </c>
+      <c r="L21" s="58"/>
+      <c r="M21" s="58"/>
+      <c r="N21" s="58"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S21" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T21" s="72" t="s">
+        <v>77</v>
+      </c>
+      <c r="U21" s="58"/>
+      <c r="V21" s="58"/>
+      <c r="W21" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X21" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y21" s="58">
+        <v>15</v>
+      </c>
+      <c r="Z21" s="58"/>
+      <c r="AA21" s="58"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="58"/>
+      <c r="AD21" s="73"/>
+      <c r="AE21" s="73"/>
+      <c r="AF21" s="73"/>
+    </row>
+    <row r="22" spans="2:34" s="74" customFormat="1">
+      <c r="B22" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C22" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F22" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K22" s="58">
+        <v>2</v>
+      </c>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S22" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T22" s="72" t="s">
+        <v>78</v>
+      </c>
+      <c r="U22" s="58"/>
+      <c r="V22" s="58"/>
+      <c r="W22" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X22" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y22" s="58">
+        <v>2</v>
+      </c>
+      <c r="Z22" s="58"/>
+      <c r="AA22" s="58"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="58"/>
+      <c r="AD22" s="73"/>
+      <c r="AE22" s="73"/>
+      <c r="AF22" s="73"/>
+    </row>
+    <row r="23" spans="2:34" s="74" customFormat="1">
+      <c r="B23" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C23" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="G23" s="58"/>
+      <c r="H23" s="58"/>
+      <c r="I23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K23" s="58">
+        <v>5</v>
+      </c>
+      <c r="L23" s="58"/>
+      <c r="M23" s="58"/>
+      <c r="N23" s="58"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S23" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T23" s="72" t="s">
+        <v>79</v>
+      </c>
+      <c r="U23" s="58"/>
+      <c r="V23" s="58"/>
+      <c r="W23" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X23" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y23" s="58">
+        <v>5</v>
+      </c>
+      <c r="Z23" s="58"/>
+      <c r="AA23" s="58"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="58"/>
+      <c r="AD23" s="73"/>
+      <c r="AE23" s="73"/>
+      <c r="AF23" s="73"/>
+    </row>
+    <row r="24" spans="2:34" s="74" customFormat="1" ht="15" customHeight="1">
+      <c r="B24" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C24" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D24" s="58"/>
+      <c r="E24" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="G24" s="58"/>
+      <c r="H24" s="58"/>
+      <c r="I24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J24" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K24" s="58">
+        <v>10</v>
+      </c>
+      <c r="L24" s="58"/>
+      <c r="M24" s="58"/>
+      <c r="N24" s="58"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S24" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T24" s="62" t="s">
+        <v>96</v>
+      </c>
+      <c r="U24" s="58"/>
+      <c r="V24" s="58"/>
+      <c r="W24" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X24" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y24" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z24" s="58"/>
+      <c r="AA24" s="58"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="58"/>
+      <c r="AD24" s="73"/>
+      <c r="AE24" s="73"/>
+      <c r="AF24" s="73"/>
+    </row>
+    <row r="25" spans="2:34" s="71" customFormat="1" ht="12">
+      <c r="B25" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C25" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D25" s="58"/>
+      <c r="E25" s="58"/>
+      <c r="F25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="G25" s="61"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J25" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K25" s="64">
+        <v>30</v>
+      </c>
+      <c r="L25" s="64"/>
+      <c r="M25" s="58"/>
+      <c r="N25" s="58"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="58" t="s">
+        <v>120</v>
+      </c>
+      <c r="R25" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S25" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T25" s="69" t="s">
+        <v>97</v>
+      </c>
+      <c r="U25" s="61"/>
+      <c r="V25" s="61"/>
+      <c r="W25" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X25" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y25" s="64">
+        <v>30</v>
+      </c>
+      <c r="Z25" s="64"/>
+      <c r="AA25" s="58"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="58"/>
+    </row>
+    <row r="26" spans="2:34" s="74" customFormat="1">
+      <c r="B26" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C26" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D26" s="58"/>
+      <c r="E26" s="58"/>
+      <c r="F26" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="G26" s="58"/>
+      <c r="H26" s="58"/>
+      <c r="I26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J26" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="K26" s="64">
+        <v>15</v>
+      </c>
+      <c r="L26" s="64"/>
+      <c r="M26" s="58"/>
+      <c r="N26" s="58"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R26" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S26" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T26" s="72" t="s">
+        <v>98</v>
+      </c>
+      <c r="U26" s="58"/>
+      <c r="V26" s="58"/>
+      <c r="W26" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X26" s="70" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y26" s="64">
+        <v>15</v>
+      </c>
+      <c r="Z26" s="64"/>
+      <c r="AA26" s="58"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="58"/>
+      <c r="AD26" s="73"/>
+      <c r="AE26" s="73"/>
+      <c r="AF26" s="73"/>
+    </row>
+    <row r="27" spans="2:34" s="74" customFormat="1">
+      <c r="B27" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C27" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="G27" s="58"/>
+      <c r="H27" s="58"/>
+      <c r="I27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J27" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="K27" s="64">
+        <v>6</v>
+      </c>
+      <c r="L27" s="64">
+        <v>2</v>
+      </c>
+      <c r="M27" s="58"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S27" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T27" s="68" t="s">
+        <v>84</v>
+      </c>
+      <c r="U27" s="58"/>
+      <c r="V27" s="58"/>
+      <c r="W27" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="X27" s="70" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y27" s="64">
+        <v>6</v>
+      </c>
+      <c r="Z27" s="64">
+        <v>2</v>
+      </c>
+      <c r="AA27" s="58"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="58"/>
+      <c r="AD27" s="73"/>
+      <c r="AE27" s="73"/>
+      <c r="AF27" s="73"/>
+    </row>
+    <row r="28" spans="2:34">
+      <c r="B28" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C28" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D28" s="58"/>
+      <c r="E28" s="109"/>
+      <c r="F28" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="G28" s="110"/>
+      <c r="H28" s="58"/>
+      <c r="I28" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J28" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K28" s="58">
+        <v>10</v>
+      </c>
+      <c r="L28" s="64"/>
+      <c r="M28" s="107"/>
+      <c r="N28" s="58"/>
+      <c r="Q28" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R28" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T28" s="60" t="s">
+        <v>168</v>
+      </c>
+      <c r="V28" s="58"/>
+      <c r="W28" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X28" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y28" s="58">
+        <v>10</v>
+      </c>
+      <c r="Z28" s="64"/>
+      <c r="AA28" s="58"/>
+      <c r="AB28" s="58"/>
+      <c r="AC28" s="58"/>
+    </row>
+    <row r="29" spans="2:34" s="67" customFormat="1">
+      <c r="B29" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C29" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F29" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="G29" s="61"/>
+      <c r="H29" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="I29" s="91"/>
+      <c r="J29" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="K29" s="58">
+        <v>6</v>
+      </c>
+      <c r="L29" s="64"/>
+      <c r="M29" s="58"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R29" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S29" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T29" s="58" t="s">
+        <v>85</v>
+      </c>
+      <c r="U29" s="61"/>
+      <c r="V29" s="61" t="s">
+        <v>111</v>
+      </c>
+      <c r="W29" s="91"/>
+      <c r="X29" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="Y29" s="58">
+        <v>6</v>
+      </c>
+      <c r="Z29" s="64"/>
+      <c r="AA29" s="58"/>
+      <c r="AB29" s="58"/>
+      <c r="AC29" s="58"/>
+    </row>
+    <row r="30" spans="2:34" s="6" customFormat="1">
+      <c r="B30" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C30" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" s="78"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="G30" s="111"/>
+      <c r="H30" s="78"/>
+      <c r="I30" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J30" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="108"/>
+      <c r="N30" s="58"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R30" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S30" s="91"/>
+      <c r="T30" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="V30" s="95"/>
+      <c r="W30" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X30" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
+      <c r="AA30" s="91"/>
+      <c r="AB30" s="91"/>
+      <c r="AC30" s="91"/>
+      <c r="AD30" s="96"/>
+      <c r="AE30" s="96"/>
+      <c r="AF30" s="96"/>
+      <c r="AG30" s="96"/>
+      <c r="AH30" s="96"/>
+    </row>
+    <row r="31" spans="2:34" s="6" customFormat="1">
+      <c r="B31" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C31" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="78"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="G31" s="111"/>
+      <c r="H31" s="78"/>
+      <c r="I31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J31" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="108"/>
+      <c r="N31" s="58"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="94" t="s">
+        <v>120</v>
+      </c>
+      <c r="R31" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="S31" s="91"/>
+      <c r="T31" s="58" t="s">
+        <v>174</v>
+      </c>
+      <c r="V31" s="95"/>
+      <c r="W31" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X31" s="92" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
+      <c r="AA31" s="91"/>
+      <c r="AB31" s="91"/>
+      <c r="AC31" s="91"/>
+      <c r="AD31" s="96"/>
+      <c r="AE31" s="96"/>
+      <c r="AF31" s="96"/>
+      <c r="AG31" s="96"/>
+      <c r="AH31" s="96"/>
+    </row>
+    <row r="32" spans="2:34">
+      <c r="B32" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C32" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="58"/>
+      <c r="E32" s="109"/>
+      <c r="F32" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G32" s="110"/>
+      <c r="H32" s="58"/>
+      <c r="I32" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J32" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K32" s="91"/>
+      <c r="L32" s="64"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="58"/>
+      <c r="Q32" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R32" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T32" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="V32" s="58"/>
+      <c r="W32" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X32" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y32" s="91"/>
+      <c r="Z32" s="64"/>
+      <c r="AA32" s="58"/>
+      <c r="AB32" s="58"/>
+      <c r="AC32" s="58"/>
+    </row>
+    <row r="33" spans="2:29">
+      <c r="B33" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C33" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D33" s="58"/>
+      <c r="E33" s="109"/>
+      <c r="F33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G33" s="110"/>
+      <c r="H33" s="58"/>
+      <c r="I33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J33" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="K33" s="91"/>
+      <c r="L33" s="64"/>
+      <c r="M33" s="107"/>
+      <c r="N33" s="58"/>
+      <c r="Q33" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R33" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T33" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="V33" s="58"/>
+      <c r="W33" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="X33" s="91" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y33" s="91"/>
+      <c r="Z33" s="64"/>
+      <c r="AA33" s="58"/>
+      <c r="AB33" s="58"/>
+      <c r="AC33" s="58"/>
+    </row>
+    <row r="34" spans="2:29">
+      <c r="B34" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C34" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D34" s="112"/>
+      <c r="E34" s="112"/>
+      <c r="F34" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="G34" s="107"/>
+      <c r="H34" s="107"/>
+      <c r="I34" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J34" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K34" s="91">
+        <v>2</v>
+      </c>
+      <c r="L34" s="106"/>
+      <c r="M34" s="107"/>
+      <c r="N34" s="58"/>
+      <c r="Q34" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R34" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T34" s="58" t="s">
+        <v>177</v>
+      </c>
+      <c r="V34" s="90"/>
+      <c r="W34" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="X34" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y34" s="91">
+        <v>2</v>
+      </c>
+      <c r="Z34" s="106"/>
+      <c r="AA34" s="90"/>
+      <c r="AB34" s="90"/>
+      <c r="AC34" s="90"/>
+    </row>
+    <row r="35" spans="2:29">
+      <c r="B35" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C35" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D35" s="112"/>
+      <c r="E35" s="112"/>
+      <c r="F35" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G35" s="107"/>
+      <c r="H35" s="107"/>
+      <c r="I35" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J35" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="K35" s="91"/>
+      <c r="L35" s="106"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="58"/>
+      <c r="Q35" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="R35" s="83" t="s">
+        <v>122</v>
+      </c>
+      <c r="T35" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="V35" s="90"/>
+      <c r="W35" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="X35" s="58" t="s">
+        <v>106</v>
+      </c>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="106"/>
+      <c r="AA35" s="90"/>
+      <c r="AB35" s="90"/>
+      <c r="AC35" s="90"/>
+    </row>
+    <row r="37" spans="2:29">
+      <c r="B37" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C37" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D37" s="112"/>
+      <c r="E37" s="112"/>
+      <c r="F37" s="58" t="s">
+        <v>178</v>
+      </c>
+      <c r="G37" s="107"/>
+      <c r="H37" s="107"/>
+      <c r="I37" s="91" t="s">
+        <v>172</v>
+      </c>
+      <c r="J37" s="99" t="s">
+        <v>110</v>
+      </c>
+      <c r="K37" s="91">
+        <v>2</v>
+      </c>
+      <c r="L37" s="106"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="172" t="s">
+        <v>188</v>
+      </c>
+      <c r="Q37" s="166" t="s">
+        <v>120</v>
+      </c>
+      <c r="R37" s="175" t="s">
+        <v>122</v>
+      </c>
+      <c r="S37" s="176"/>
+      <c r="T37" s="166" t="s">
+        <v>178</v>
+      </c>
+      <c r="V37" s="180"/>
+      <c r="W37" s="181" t="s">
+        <v>172</v>
+      </c>
+      <c r="X37" s="166" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y37" s="181">
+        <v>2</v>
+      </c>
+      <c r="Z37" s="181"/>
+      <c r="AA37" s="181"/>
+      <c r="AB37" s="169"/>
+      <c r="AC37" s="169"/>
+    </row>
+    <row r="38" spans="2:29">
+      <c r="B38" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C38" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D38" s="58"/>
+      <c r="E38" s="109"/>
+      <c r="F38" s="60" t="s">
+        <v>166</v>
+      </c>
+      <c r="G38" s="110"/>
+      <c r="H38" s="58"/>
+      <c r="I38" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J38" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K38" s="58">
+        <v>1</v>
+      </c>
+      <c r="L38" s="64"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="173"/>
+      <c r="Q38" s="167"/>
+      <c r="R38" s="177"/>
+      <c r="S38" s="176"/>
+      <c r="T38" s="167"/>
+      <c r="V38" s="182"/>
+      <c r="W38" s="183"/>
+      <c r="X38" s="167"/>
+      <c r="Y38" s="183"/>
+      <c r="Z38" s="183"/>
+      <c r="AA38" s="183"/>
+      <c r="AB38" s="170"/>
+      <c r="AC38" s="170"/>
+    </row>
+    <row r="39" spans="2:29">
+      <c r="B39" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C39" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D39" s="58"/>
+      <c r="E39" s="109"/>
+      <c r="F39" s="60" t="s">
+        <v>169</v>
+      </c>
+      <c r="G39" s="110"/>
+      <c r="H39" s="58"/>
+      <c r="I39" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J39" s="91" t="s">
+        <v>108</v>
+      </c>
+      <c r="K39" s="91">
+        <v>3</v>
+      </c>
+      <c r="L39" s="64"/>
+      <c r="M39" s="107"/>
+      <c r="N39" s="173"/>
+      <c r="Q39" s="167"/>
+      <c r="R39" s="177"/>
+      <c r="S39" s="176"/>
+      <c r="T39" s="167"/>
+      <c r="V39" s="182"/>
+      <c r="W39" s="183"/>
+      <c r="X39" s="167"/>
+      <c r="Y39" s="183"/>
+      <c r="Z39" s="183"/>
+      <c r="AA39" s="183"/>
+      <c r="AB39" s="170"/>
+      <c r="AC39" s="170"/>
+    </row>
+    <row r="40" spans="2:29">
+      <c r="B40" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C40" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D40" s="58"/>
+      <c r="E40" s="109"/>
+      <c r="F40" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G40" s="110"/>
+      <c r="H40" s="58"/>
+      <c r="I40" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J40" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K40" s="58">
+        <v>1</v>
+      </c>
+      <c r="L40" s="64"/>
+      <c r="M40" s="107"/>
+      <c r="N40" s="173"/>
+      <c r="Q40" s="167"/>
+      <c r="R40" s="177"/>
+      <c r="S40" s="176"/>
+      <c r="T40" s="167"/>
+      <c r="V40" s="182"/>
+      <c r="W40" s="183"/>
+      <c r="X40" s="167"/>
+      <c r="Y40" s="183"/>
+      <c r="Z40" s="183"/>
+      <c r="AA40" s="183"/>
+      <c r="AB40" s="170"/>
+      <c r="AC40" s="170"/>
+    </row>
+    <row r="41" spans="2:29">
+      <c r="B41" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C41" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D41" s="58"/>
+      <c r="E41" s="109"/>
+      <c r="F41" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="G41" s="110"/>
+      <c r="H41" s="58"/>
+      <c r="I41" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J41" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K41" s="58">
+        <v>1</v>
+      </c>
+      <c r="L41" s="64"/>
+      <c r="M41" s="107"/>
+      <c r="N41" s="173"/>
+      <c r="Q41" s="167"/>
+      <c r="R41" s="177"/>
+      <c r="S41" s="176"/>
+      <c r="T41" s="167"/>
+      <c r="V41" s="182"/>
+      <c r="W41" s="183"/>
+      <c r="X41" s="167"/>
+      <c r="Y41" s="183"/>
+      <c r="Z41" s="183"/>
+      <c r="AA41" s="183"/>
+      <c r="AB41" s="170"/>
+      <c r="AC41" s="170"/>
+    </row>
+    <row r="42" spans="2:29">
+      <c r="B42" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C42" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D42" s="58"/>
+      <c r="E42" s="109"/>
+      <c r="F42" s="58" t="s">
+        <v>170</v>
+      </c>
+      <c r="G42" s="110"/>
+      <c r="H42" s="58"/>
+      <c r="I42" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J42" s="91" t="s">
+        <v>110</v>
+      </c>
+      <c r="K42" s="91">
+        <v>3</v>
+      </c>
+      <c r="L42" s="64"/>
+      <c r="M42" s="107"/>
+      <c r="N42" s="173"/>
+      <c r="Q42" s="167"/>
+      <c r="R42" s="177"/>
+      <c r="S42" s="176"/>
+      <c r="T42" s="167"/>
+      <c r="V42" s="182"/>
+      <c r="W42" s="183"/>
+      <c r="X42" s="167"/>
+      <c r="Y42" s="183"/>
+      <c r="Z42" s="183"/>
+      <c r="AA42" s="183"/>
+      <c r="AB42" s="170"/>
+      <c r="AC42" s="170"/>
+    </row>
+    <row r="43" spans="2:29" s="71" customFormat="1" ht="12">
+      <c r="B43" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C43" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D43" s="58"/>
+      <c r="E43" s="58" t="s">
+        <v>99</v>
+      </c>
+      <c r="F43" s="60" t="s">
+        <v>88</v>
+      </c>
+      <c r="G43" s="61"/>
+      <c r="H43" s="61"/>
+      <c r="I43" s="61" t="s">
+        <v>109</v>
+      </c>
+      <c r="J43" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K43" s="64">
+        <v>11</v>
+      </c>
+      <c r="L43" s="64"/>
+      <c r="M43" s="58"/>
+      <c r="N43" s="173"/>
+      <c r="O43" s="62"/>
+      <c r="P43" s="63"/>
+      <c r="Q43" s="167"/>
+      <c r="R43" s="177"/>
+      <c r="S43" s="59" t="s">
+        <v>122</v>
+      </c>
+      <c r="T43" s="167"/>
+      <c r="U43" s="61"/>
+      <c r="V43" s="182"/>
+      <c r="W43" s="183"/>
+      <c r="X43" s="167"/>
+      <c r="Y43" s="183"/>
+      <c r="Z43" s="183"/>
+      <c r="AA43" s="183"/>
+      <c r="AB43" s="170"/>
+      <c r="AC43" s="170"/>
+    </row>
+    <row r="44" spans="2:29">
+      <c r="B44" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C44" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D44" s="58"/>
+      <c r="E44" s="112"/>
+      <c r="F44" s="58" t="s">
+        <v>167</v>
+      </c>
+      <c r="G44" s="107"/>
+      <c r="H44" s="58"/>
+      <c r="I44" s="91" t="s">
+        <v>109</v>
+      </c>
+      <c r="J44" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K44" s="58">
+        <v>1</v>
+      </c>
+      <c r="L44" s="64"/>
+      <c r="M44" s="107"/>
+      <c r="N44" s="174"/>
+      <c r="O44" s="165"/>
+      <c r="P44" s="165"/>
+      <c r="Q44" s="168"/>
+      <c r="R44" s="178"/>
+      <c r="S44" s="179"/>
+      <c r="T44" s="168"/>
+      <c r="U44" s="90"/>
+      <c r="V44" s="184"/>
+      <c r="W44" s="185"/>
+      <c r="X44" s="168"/>
+      <c r="Y44" s="185"/>
+      <c r="Z44" s="185"/>
+      <c r="AA44" s="185"/>
+      <c r="AB44" s="171"/>
+      <c r="AC44" s="171"/>
+    </row>
+    <row r="45" spans="2:29" ht="84">
+      <c r="B45" s="58" t="s">
+        <v>121</v>
+      </c>
+      <c r="C45" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="D45" s="58"/>
+      <c r="E45" s="187"/>
+      <c r="F45" s="58" t="s">
+        <v>80</v>
+      </c>
+      <c r="G45" s="90"/>
+      <c r="H45" s="90"/>
+      <c r="I45" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="J45" s="58" t="s">
+        <v>110</v>
+      </c>
+      <c r="K45" s="58">
+        <v>1</v>
+      </c>
+      <c r="L45" s="91"/>
+      <c r="M45" s="90"/>
+      <c r="N45" s="186" t="s">
+        <v>187</v>
+      </c>
+      <c r="O45" s="165"/>
+      <c r="P45" s="165"/>
+      <c r="Q45" s="165"/>
+      <c r="R45" s="165"/>
+      <c r="S45" s="165"/>
+      <c r="T45" s="165" t="s">
+        <v>186</v>
+      </c>
+      <c r="U45" s="90"/>
+      <c r="V45" s="90"/>
+      <c r="W45" s="90" t="s">
+        <v>172</v>
+      </c>
+      <c r="X45" s="90" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y45" s="188">
+        <v>1</v>
+      </c>
+      <c r="Z45" s="106"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="90"/>
+      <c r="AC45" s="90"/>
+    </row>
+  </sheetData>
+  <mergeCells count="15">
+    <mergeCell ref="Y37:Y44"/>
+    <mergeCell ref="Z37:Z44"/>
+    <mergeCell ref="AA37:AA44"/>
+    <mergeCell ref="AB37:AB44"/>
+    <mergeCell ref="AC37:AC44"/>
+    <mergeCell ref="B2:M2"/>
+    <mergeCell ref="N2:P2"/>
+    <mergeCell ref="Q2:AB2"/>
+    <mergeCell ref="N37:N44"/>
+    <mergeCell ref="Q37:Q44"/>
+    <mergeCell ref="R37:R44"/>
+    <mergeCell ref="T37:T44"/>
+    <mergeCell ref="V37:V44"/>
+    <mergeCell ref="W37:W44"/>
+    <mergeCell ref="X37:X44"/>
+  </mergeCells>
+  <pageMargins left="0.23622047244094491" right="0.23622047244094491" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
+  <pageSetup paperSize="9" scale="48" fitToWidth="2" orientation="landscape" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -8529,7 +10924,7 @@
       <selection activeCell="C18" sqref="C18:C19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="12.75"/>
   <cols>
     <col min="1" max="1" width="1.85546875" style="11" customWidth="1"/>
     <col min="2" max="2" width="37.85546875" style="11" customWidth="1"/>
@@ -8537,7 +10932,7 @@
     <col min="4" max="16384" width="9.140625" style="11"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="1" spans="2:25">
       <c r="E1" s="13"/>
       <c r="F1" s="13"/>
       <c r="G1" s="18"/>
@@ -8557,7 +10952,7 @@
       <c r="X1" s="13"/>
       <c r="Y1" s="13"/>
     </row>
-    <row r="2" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:25">
       <c r="E2" s="13"/>
       <c r="F2" s="13"/>
       <c r="G2" s="17"/>
@@ -8577,7 +10972,7 @@
       <c r="X2" s="13"/>
       <c r="Y2" s="13"/>
     </row>
-    <row r="3" spans="2:25" ht="18" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:25" ht="18">
       <c r="C3" s="15" t="s">
         <v>49</v>
       </c>
@@ -8602,7 +10997,7 @@
       <c r="X3" s="13"/>
       <c r="Y3" s="13"/>
     </row>
-    <row r="4" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:25">
       <c r="B4" s="26"/>
       <c r="C4" s="26"/>
       <c r="E4" s="13"/>
@@ -8624,7 +11019,7 @@
       <c r="X4" s="13"/>
       <c r="Y4" s="13"/>
     </row>
-    <row r="6" spans="2:25" x14ac:dyDescent="0.2">
+    <row r="6" spans="2:25">
       <c r="B6" s="32" t="s">
         <v>50</v>
       </c>
@@ -8632,7 +11027,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="7" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:25" ht="25.5">
       <c r="B7" s="27" t="s">
         <v>47</v>
       </c>
@@ -8640,7 +11035,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:25" ht="25.5">
       <c r="B8" s="27" t="s">
         <v>45</v>
       </c>
@@ -8648,7 +11043,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="9" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:25" ht="25.5">
       <c r="B9" s="27" t="s">
         <v>43</v>
       </c>
@@ -8656,7 +11051,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="10" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:25" ht="25.5">
       <c r="B10" s="27" t="s">
         <v>41</v>
       </c>
@@ -8664,7 +11059,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="11" spans="2:25" ht="25.5">
       <c r="B11" s="27" t="s">
         <v>39</v>
       </c>
@@ -8672,7 +11067,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="12" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:25" ht="25.5">
       <c r="B12" s="27" t="s">
         <v>37</v>
       </c>
@@ -8680,7 +11075,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="13" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="13" spans="2:25" ht="25.5">
       <c r="B13" s="27" t="s">
         <v>35</v>
       </c>
@@ -8688,7 +11083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="14" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:25" ht="25.5">
       <c r="B14" s="27" t="s">
         <v>33</v>
       </c>
@@ -8696,7 +11091,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="15" spans="2:25" ht="25.5">
       <c r="B15" s="27" t="s">
         <v>31</v>
       </c>
@@ -8704,7 +11099,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="2:25" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="16" spans="2:25" ht="25.5">
       <c r="B16" s="27" t="s">
         <v>29</v>
       </c>
@@ -8712,7 +11107,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="17" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:3" ht="25.5">
       <c r="B17" s="27" t="s">
         <v>27</v>
       </c>
@@ -8720,7 +11115,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:3" ht="25.5">
       <c r="B18" s="27" t="s">
         <v>25</v>
       </c>
@@ -8728,7 +11123,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="19" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:3" ht="25.5">
       <c r="B19" s="28" t="s">
         <v>23</v>
       </c>
@@ -8736,7 +11131,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:3" ht="25.5">
       <c r="B20" s="27" t="s">
         <v>21</v>
       </c>
@@ -8744,7 +11139,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:3" ht="25.5">
       <c r="B21" s="27" t="s">
         <v>19</v>
       </c>
@@ -8752,7 +11147,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:3" ht="25.5">
       <c r="B22" s="27" t="s">
         <v>17</v>
       </c>
@@ -8760,7 +11155,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="23" spans="2:3" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:3" ht="25.5">
       <c r="B23" s="30" t="s">
         <v>15</v>
       </c>
@@ -8779,7 +11174,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8832,12 +11232,7 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<LongProperties xmlns="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
 </file>
 
 <file path=customXml/item4.xml><?xml version="1.0" encoding="utf-8"?>
@@ -8847,9 +11242,9 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -8870,9 +11265,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D9C3F80B-9830-4189-8D45-6D3E04431995}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2C31EAF4-7329-4705-AE1F-5186BDADA196}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/longProperties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
